--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2291115.309475347</v>
+        <v>2269064.195875002</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2337514.65224831</v>
+        <v>2337514.652248309</v>
       </c>
     </row>
     <row r="9">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -713,10 +713,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
+        <v>230.0285617769921</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>78.2008536957747</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -789,10 +789,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>82.62709441397563</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>32.71813187762556</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>198.7050131246913</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>29.1427070647978</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>110.7084015175195</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,25 +1136,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516666</v>
+        <v>20.85732126240518</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852072</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>137.2601102502002</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>50.08630252330746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>157.1250287263548</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>51.96190712986773</v>
       </c>
       <c r="R10" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>150.6611935883845</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>114.4063933058018</v>
       </c>
       <c r="U11" t="n">
-        <v>176.7397837660313</v>
+        <v>251.1407725971474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>99.00163787102454</v>
       </c>
       <c r="I12" t="n">
-        <v>42.2188944458953</v>
+        <v>42.21889444589529</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>15.08164754518604</v>
+        <v>15.08164754518603</v>
       </c>
       <c r="S12" t="n">
         <v>146.2312319767835</v>
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.8422011819769</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>120.903582129057</v>
       </c>
       <c r="J13" t="n">
-        <v>12.14056303940205</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>125.6401471873558</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>131.6924966448817</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2563687286828</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>130.9632070326281</v>
       </c>
     </row>
     <row r="14">
@@ -1613,16 +1613,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.7417336315207</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>186.1725064058559</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>251.1407725971474</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>176.8498530938751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>99.00163787102454</v>
       </c>
       <c r="I15" t="n">
-        <v>42.2188944458953</v>
+        <v>42.21889444589529</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.08164754518604</v>
+        <v>15.08164754518603</v>
       </c>
       <c r="S15" t="n">
         <v>146.2312319767835</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>42.89820161553248</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.8422011819769</v>
       </c>
       <c r="H16" t="n">
-        <v>152.0134901747186</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.14056303940205</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>125.6401471873558</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>203.9965274522831</v>
       </c>
       <c r="T16" t="n">
         <v>223.0371735833133</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>214.8236817476075</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>123.3785809193032</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>150.6611935883845</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.8850550636098</v>
       </c>
       <c r="U17" t="n">
         <v>251.1407725971474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.22525164231519</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8422011819769</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>203.9965274522831</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.0371735833133</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2563687286828</v>
       </c>
       <c r="V19" t="n">
-        <v>17.64402586743472</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>12.88304331659312</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2081,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>376.0633183623988</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>412.7417336315207</v>
@@ -2099,7 +2099,7 @@
         <v>313.2469210927022</v>
       </c>
       <c r="I20" t="n">
-        <v>111.7427873473656</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1407725971474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>309.9712813606756</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.8422011819769</v>
       </c>
       <c r="H22" t="n">
-        <v>152.0134901747186</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.14056303940205</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>125.6401471873558</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>203.9965274522831</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>129.6247290575751</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>87.53642913171268</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>313.2469210927022</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>111.7427873473656</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>150.6611935883845</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.8850550636098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1407725971474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>311.369054300822</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>270.3310026182829</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>286.2563687286828</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>201.1131948781599</v>
+        <v>95.4095142009011</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>217.8274518169188</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>265.2962936774324</v>
+        <v>412.7417336315207</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.611919570051722</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.8422011819769</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>243.4407492491712</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>317.4464287210894</v>
+        <v>317.4464287210893</v>
       </c>
       <c r="C29" t="n">
         <v>299.9854788286164</v>
       </c>
       <c r="D29" t="n">
-        <v>289.3956286782918</v>
+        <v>289.3956286782917</v>
       </c>
       <c r="E29" t="n">
-        <v>316.6429571298706</v>
+        <v>316.6429571298705</v>
       </c>
       <c r="F29" t="n">
         <v>341.5886327993202</v>
       </c>
       <c r="G29" t="n">
-        <v>347.4543206891295</v>
+        <v>347.4543206891292</v>
       </c>
       <c r="H29" t="n">
         <v>247.959508150311</v>
       </c>
       <c r="I29" t="n">
-        <v>46.45537440497445</v>
+        <v>46.45537440497442</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.37378064599329</v>
+        <v>85.37378064599319</v>
       </c>
       <c r="T29" t="n">
-        <v>146.5976421212186</v>
+        <v>146.5976421212185</v>
       </c>
       <c r="U29" t="n">
         <v>185.8533596547567</v>
@@ -2950,25 +2950,25 @@
         <v>114.5445672395461</v>
       </c>
       <c r="C31" t="n">
-        <v>101.9594081562366</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>83.32806007582116</v>
+        <v>83.32806007582113</v>
       </c>
       <c r="E31" t="n">
-        <v>81.14654970417797</v>
+        <v>81.14654970417794</v>
       </c>
       <c r="F31" t="n">
-        <v>80.13363508054005</v>
+        <v>80.13363508054002</v>
       </c>
       <c r="G31" t="n">
-        <v>101.5547882395856</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.15028143415587</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.61616918666574</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>60.35273424496462</v>
+        <v>60.35273424496459</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.7091145098918</v>
       </c>
       <c r="T31" t="n">
         <v>157.7497606409221</v>
@@ -3007,16 +3007,16 @@
         <v>220.9689557862916</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>186.8502303814368</v>
       </c>
       <c r="W31" t="n">
         <v>221.2355853941998</v>
       </c>
       <c r="X31" t="n">
-        <v>160.422242446646</v>
+        <v>160.2084466083339</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.2972404097036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>317.4464287210894</v>
+        <v>317.4464287210893</v>
       </c>
       <c r="C32" t="n">
         <v>299.9854788286164</v>
       </c>
       <c r="D32" t="n">
-        <v>289.3956286782918</v>
+        <v>289.3956286782917</v>
       </c>
       <c r="E32" t="n">
-        <v>316.6429571298706</v>
+        <v>316.6429571298705</v>
       </c>
       <c r="F32" t="n">
         <v>341.5886327993202</v>
@@ -3044,10 +3044,10 @@
         <v>347.4543206891295</v>
       </c>
       <c r="H32" t="n">
-        <v>247.9595081503122</v>
+        <v>247.959508150311</v>
       </c>
       <c r="I32" t="n">
-        <v>46.45537440497445</v>
+        <v>46.45537440497442</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.37378064599329</v>
+        <v>85.37378064599326</v>
       </c>
       <c r="T32" t="n">
-        <v>146.5976421212186</v>
+        <v>146.5976421212185</v>
       </c>
       <c r="U32" t="n">
-        <v>185.8533596547562</v>
+        <v>185.8533596547561</v>
       </c>
       <c r="V32" t="n">
         <v>262.4648455277437</v>
@@ -3092,7 +3092,7 @@
         <v>283.9535557750218</v>
       </c>
       <c r="X32" t="n">
-        <v>304.4436877360778</v>
+        <v>304.4436877360789</v>
       </c>
       <c r="Y32" t="n">
         <v>320.9505257136624</v>
@@ -3190,22 +3190,22 @@
         <v>101.9594081562366</v>
       </c>
       <c r="D34" t="n">
-        <v>83.32806007582116</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>81.14654970417797</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>80.13363508054005</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>101.5547882395856</v>
       </c>
       <c r="H34" t="n">
-        <v>86.72607723232743</v>
+        <v>86.7260772323274</v>
       </c>
       <c r="I34" t="n">
-        <v>55.61616918666577</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.35273424496462</v>
+        <v>60.35273424496459</v>
       </c>
       <c r="S34" t="n">
-        <v>138.7091145098919</v>
+        <v>138.7091145098918</v>
       </c>
       <c r="T34" t="n">
         <v>157.7497606409221</v>
@@ -3244,16 +3244,16 @@
         <v>220.9689557862916</v>
       </c>
       <c r="V34" t="n">
-        <v>56.81840336161991</v>
+        <v>186.8502303814368</v>
       </c>
       <c r="W34" t="n">
-        <v>221.2355853941998</v>
+        <v>77.70868956523933</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>160.4222424466459</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>153.2972404097036</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>317.4464287210894</v>
+        <v>317.4464287210893</v>
       </c>
       <c r="C35" t="n">
         <v>299.9854788286164</v>
       </c>
       <c r="D35" t="n">
-        <v>289.3956286782918</v>
+        <v>289.3956286782917</v>
       </c>
       <c r="E35" t="n">
-        <v>316.6429571298706</v>
+        <v>316.6429571298705</v>
       </c>
       <c r="F35" t="n">
         <v>341.5886327993202</v>
@@ -3284,7 +3284,7 @@
         <v>247.959508150311</v>
       </c>
       <c r="I35" t="n">
-        <v>46.45537440497434</v>
+        <v>46.45537440497442</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>85.37378064599365</v>
+        <v>85.37378064599454</v>
       </c>
       <c r="T35" t="n">
-        <v>146.5976421212186</v>
+        <v>146.5976421212185</v>
       </c>
       <c r="U35" t="n">
-        <v>185.8533596547558</v>
+        <v>185.8533596547561</v>
       </c>
       <c r="V35" t="n">
         <v>262.4648455277437</v>
@@ -3424,25 +3424,25 @@
         <v>114.5445672395461</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>101.9594081562366</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>81.14654970417797</v>
+        <v>81.14654970417794</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>80.13363508054002</v>
       </c>
       <c r="G37" t="n">
         <v>101.5547882395856</v>
       </c>
       <c r="H37" t="n">
-        <v>86.72607723232743</v>
+        <v>22.76170258279699</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>55.61616918666574</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.35273424496462</v>
+        <v>60.35273424496459</v>
       </c>
       <c r="S37" t="n">
-        <v>138.7091145098919</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>157.7497606409221</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>220.9689557862916</v>
@@ -3484,10 +3484,10 @@
         <v>186.8502303814368</v>
       </c>
       <c r="W37" t="n">
-        <v>98.5215480172975</v>
+        <v>221.2355853941998</v>
       </c>
       <c r="X37" t="n">
-        <v>160.422242446646</v>
+        <v>160.4222424466459</v>
       </c>
       <c r="Y37" t="n">
         <v>153.2972404097036</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>317.4464287210894</v>
+        <v>317.4464287210893</v>
       </c>
       <c r="C38" t="n">
         <v>299.9854788286164</v>
       </c>
       <c r="D38" t="n">
-        <v>289.3956286782918</v>
+        <v>289.3956286782917</v>
       </c>
       <c r="E38" t="n">
-        <v>316.6429571298706</v>
+        <v>316.6429571298719</v>
       </c>
       <c r="F38" t="n">
         <v>341.5886327993202</v>
@@ -3521,7 +3521,7 @@
         <v>247.959508150311</v>
       </c>
       <c r="I38" t="n">
-        <v>46.45537440497446</v>
+        <v>46.45537440497444</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>85.37378064599331</v>
+        <v>85.37378064599328</v>
       </c>
       <c r="T38" t="n">
-        <v>146.5976421212186</v>
+        <v>146.5976421212185</v>
       </c>
       <c r="U38" t="n">
-        <v>185.8533596547562</v>
+        <v>185.8533596547561</v>
       </c>
       <c r="V38" t="n">
         <v>262.4648455277437</v>
@@ -3664,13 +3664,13 @@
         <v>101.9594081562366</v>
       </c>
       <c r="D40" t="n">
-        <v>83.32806007582116</v>
+        <v>83.32806007582113</v>
       </c>
       <c r="E40" t="n">
-        <v>81.14654970417797</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>80.13363508054005</v>
+        <v>46.7213517089826</v>
       </c>
       <c r="G40" t="n">
         <v>101.5547882395856</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>55.61616918666578</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.35273424496463</v>
+        <v>60.3527342449646</v>
       </c>
       <c r="S40" t="n">
-        <v>138.7091145098919</v>
+        <v>138.7091145098918</v>
       </c>
       <c r="T40" t="n">
         <v>157.7497606409221</v>
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>51.06058313179792</v>
+        <v>221.2355853941998</v>
       </c>
       <c r="X40" t="n">
-        <v>160.422242446646</v>
+        <v>160.4222424466459</v>
       </c>
       <c r="Y40" t="n">
         <v>153.2972404097036</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>317.4464287210894</v>
+        <v>317.4464287210893</v>
       </c>
       <c r="C41" t="n">
         <v>299.9854788286164</v>
       </c>
       <c r="D41" t="n">
-        <v>289.3956286782918</v>
+        <v>289.3956286782917</v>
       </c>
       <c r="E41" t="n">
-        <v>316.6429571298706</v>
+        <v>316.6429571298705</v>
       </c>
       <c r="F41" t="n">
         <v>341.5886327993202</v>
@@ -3758,7 +3758,7 @@
         <v>247.959508150311</v>
       </c>
       <c r="I41" t="n">
-        <v>46.45537440497446</v>
+        <v>46.45537440497444</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>85.37378064599331</v>
+        <v>85.373780645995</v>
       </c>
       <c r="T41" t="n">
-        <v>146.5976421212186</v>
+        <v>146.5976421212185</v>
       </c>
       <c r="U41" t="n">
-        <v>185.8533596547562</v>
+        <v>185.8533596547561</v>
       </c>
       <c r="V41" t="n">
-        <v>262.4648455277436</v>
+        <v>262.4648455277437</v>
       </c>
       <c r="W41" t="n">
         <v>283.9535557750218</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>114.5445672395461</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>101.9594081562366</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>83.32806007582113</v>
       </c>
       <c r="E43" t="n">
-        <v>81.14654970417797</v>
+        <v>81.14654970417794</v>
       </c>
       <c r="F43" t="n">
-        <v>80.13363508054005</v>
+        <v>80.13363508054002</v>
       </c>
       <c r="G43" t="n">
         <v>101.5547882395856</v>
       </c>
       <c r="H43" t="n">
-        <v>58.77570625939543</v>
+        <v>86.7260772323274</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>55.61616918666575</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>138.7091145098919</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>157.7497606409221</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>220.9689557862916</v>
+        <v>134.0292553059045</v>
       </c>
       <c r="V43" t="n">
         <v>186.8502303814368</v>
@@ -3961,7 +3961,7 @@
         <v>221.2355853941998</v>
       </c>
       <c r="X43" t="n">
-        <v>160.422242446646</v>
+        <v>160.4222424466459</v>
       </c>
       <c r="Y43" t="n">
         <v>153.2972404097036</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.7417336315207</v>
+        <v>329.7091346920306</v>
       </c>
       <c r="H44" t="n">
         <v>313.2469210927022</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>150.6611935883845</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.8850550636098</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1407725971474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>79.32064072458377</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.8422011819769</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.0134901747186</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>203.9965274522831</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.0371735833133</v>
+        <v>103.047723982247</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>193.3330425656989</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>132.7447050367114</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="V2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="W2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="X2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>398.1570697793896</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4437,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>606.0085699849225</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>606.0085699849225</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="V3" t="n">
-        <v>606.0085699849225</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="W3" t="n">
-        <v>606.0085699849225</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="X3" t="n">
-        <v>398.1570697793896</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="Y3" t="n">
-        <v>398.1570697793896</v>
+        <v>454.2350688147492</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.3558523848238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>266.3558523848238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4598,19 +4598,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>509.8046290289238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>509.8046290289238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>266.3558523848238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.3558523848238</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>341.0228630172405</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
         <v>20.03527576299844</v>
@@ -4650,7 +4650,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
         <v>486.8488635328713</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>934.6200776674061</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V6" t="n">
-        <v>548.8743632227734</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W6" t="n">
-        <v>548.8743632227734</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X6" t="n">
-        <v>341.0228630172405</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>341.0228630172405</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>293.9059078609596</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="C8" t="n">
-        <v>293.9059078609596</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="D8" t="n">
-        <v>293.9059078609596</v>
+        <v>787.0670914110444</v>
       </c>
       <c r="E8" t="n">
-        <v>293.9059078609596</v>
+        <v>521.1660470154213</v>
       </c>
       <c r="F8" t="n">
-        <v>286.9604071117561</v>
+        <v>255.2650026197982</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>234.1970013446414</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>234.1970013446414</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L8" t="n">
-        <v>330.254671414236</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098027</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369335</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885138</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S8" t="n">
-        <v>698.4535282668857</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T8" t="n">
-        <v>698.4535282668857</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U8" t="n">
-        <v>698.4535282668857</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V8" t="n">
-        <v>432.5524838712628</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="W8" t="n">
-        <v>293.9059078609596</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="X8" t="n">
-        <v>293.9059078609596</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Y8" t="n">
-        <v>293.9059078609596</v>
+        <v>1052.968135806668</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>334.1932169262459</v>
+        <v>343.7752786312792</v>
       </c>
       <c r="C9" t="n">
-        <v>159.7401876451189</v>
+        <v>343.7752786312792</v>
       </c>
       <c r="D9" t="n">
-        <v>159.7401876451189</v>
+        <v>343.7752786312792</v>
       </c>
       <c r="E9" t="n">
-        <v>159.7401876451189</v>
+        <v>184.5378236258237</v>
       </c>
       <c r="F9" t="n">
-        <v>159.7401876451189</v>
+        <v>184.5378236258237</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>184.5378236258237</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>71.65158748715099</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>23.69049064951577</v>
+        <v>24.95018035683217</v>
       </c>
       <c r="K9" t="n">
-        <v>23.69049064951577</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="L9" t="n">
-        <v>264.2940185443782</v>
+        <v>398.824578434775</v>
       </c>
       <c r="M9" t="n">
-        <v>264.2940185443782</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="N9" t="n">
-        <v>524.9036321565281</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="O9" t="n">
-        <v>785.3166962490202</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>954.9030226480426</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="S9" t="n">
-        <v>954.9030226480426</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="T9" t="n">
-        <v>796.1908724194013</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="U9" t="n">
-        <v>796.1908724194013</v>
+        <v>954.9030226480438</v>
       </c>
       <c r="V9" t="n">
-        <v>796.1908724194013</v>
+        <v>719.7509144163012</v>
       </c>
       <c r="W9" t="n">
-        <v>541.9535156911998</v>
+        <v>719.7509144163012</v>
       </c>
       <c r="X9" t="n">
-        <v>541.9535156911998</v>
+        <v>719.7509144163012</v>
       </c>
       <c r="Y9" t="n">
-        <v>334.1932169262459</v>
+        <v>511.9906156513472</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360295</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706534</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706534</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="R10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613333</v>
+        <v>130.0221525919995</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2079.496800708763</v>
+        <v>2062.67106505093</v>
       </c>
       <c r="C11" t="n">
-        <v>2079.496800708763</v>
+        <v>1693.708548110518</v>
       </c>
       <c r="D11" t="n">
-        <v>1721.231102102012</v>
+        <v>1335.442849503768</v>
       </c>
       <c r="E11" t="n">
         <v>1335.442849503768</v>
       </c>
       <c r="F11" t="n">
-        <v>924.4569447141605</v>
+        <v>924.4569447141604</v>
       </c>
       <c r="G11" t="n">
-        <v>507.5461026621193</v>
+        <v>507.5461026621192</v>
       </c>
       <c r="H11" t="n">
         <v>191.1350712553493</v>
       </c>
       <c r="I11" t="n">
-        <v>78.26356888427289</v>
+        <v>78.2635688842729</v>
       </c>
       <c r="J11" t="n">
-        <v>281.6221557564466</v>
+        <v>281.6221557564463</v>
       </c>
       <c r="K11" t="n">
         <v>707.1487664500683</v>
       </c>
       <c r="L11" t="n">
-        <v>1287.328782194555</v>
+        <v>1287.328782194556</v>
       </c>
       <c r="M11" t="n">
-        <v>1949.497383904362</v>
+        <v>1949.497383904363</v>
       </c>
       <c r="N11" t="n">
-        <v>2607.748568319979</v>
+        <v>2607.74856831998</v>
       </c>
       <c r="O11" t="n">
-        <v>3184.128858126993</v>
+        <v>3184.128858126994</v>
       </c>
       <c r="P11" t="n">
         <v>3638.381717540449</v>
@@ -5063,28 +5063,28 @@
         <v>3902.284937373337</v>
       </c>
       <c r="R11" t="n">
-        <v>3913.178444213644</v>
+        <v>3913.178444213645</v>
       </c>
       <c r="S11" t="n">
-        <v>3760.995420386993</v>
+        <v>3913.178444213645</v>
       </c>
       <c r="T11" t="n">
-        <v>3760.995420386993</v>
+        <v>3797.616430773441</v>
       </c>
       <c r="U11" t="n">
-        <v>3582.470386279891</v>
+        <v>3543.938882695515</v>
       </c>
       <c r="V11" t="n">
-        <v>3582.470386279891</v>
+        <v>3212.875995351944</v>
       </c>
       <c r="W11" t="n">
-        <v>3229.701731009776</v>
+        <v>3212.875995351944</v>
       </c>
       <c r="X11" t="n">
-        <v>2856.235972748696</v>
+        <v>2839.410237090864</v>
       </c>
       <c r="Y11" t="n">
-        <v>2466.096640772885</v>
+        <v>2449.270905115052</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>120.9089168094197</v>
       </c>
       <c r="I12" t="n">
-        <v>78.26356888427289</v>
+        <v>78.2635688842729</v>
       </c>
       <c r="J12" t="n">
-        <v>80.85904540954274</v>
+        <v>80.85904540954279</v>
       </c>
       <c r="K12" t="n">
-        <v>425.2705375600249</v>
+        <v>163.4499529175722</v>
       </c>
       <c r="L12" t="n">
-        <v>949.7786880611898</v>
+        <v>554.4208751896662</v>
       </c>
       <c r="M12" t="n">
-        <v>1169.770663801726</v>
+        <v>1218.476369013636</v>
       </c>
       <c r="N12" t="n">
-        <v>1392.559793375765</v>
+        <v>1915.814449187793</v>
       </c>
       <c r="O12" t="n">
-        <v>1964.072222431878</v>
+        <v>2487.326878243907</v>
       </c>
       <c r="P12" t="n">
-        <v>2405.75826449778</v>
+        <v>2613.734779356271</v>
       </c>
       <c r="Q12" t="n">
         <v>2648.315917223683</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.52676387356789</v>
+        <v>835.8817911816903</v>
       </c>
       <c r="C13" t="n">
-        <v>90.52676387356789</v>
+        <v>666.9456082537835</v>
       </c>
       <c r="D13" t="n">
-        <v>90.52676387356789</v>
+        <v>516.8289688414477</v>
       </c>
       <c r="E13" t="n">
-        <v>90.52676387356789</v>
+        <v>368.9158752590545</v>
       </c>
       <c r="F13" t="n">
-        <v>90.52676387356789</v>
+        <v>368.9158752590545</v>
       </c>
       <c r="G13" t="n">
-        <v>90.52676387356789</v>
+        <v>200.3883993176638</v>
       </c>
       <c r="H13" t="n">
-        <v>90.52676387356789</v>
+        <v>200.3883993176638</v>
       </c>
       <c r="I13" t="n">
-        <v>90.52676387356789</v>
+        <v>78.2635688842729</v>
       </c>
       <c r="J13" t="n">
-        <v>78.26356888427289</v>
+        <v>78.2635688842729</v>
       </c>
       <c r="K13" t="n">
         <v>188.3492378355976</v>
       </c>
       <c r="L13" t="n">
-        <v>384.7474275269764</v>
+        <v>384.7474275269765</v>
       </c>
       <c r="M13" t="n">
-        <v>602.210904592896</v>
+        <v>602.2109045928961</v>
       </c>
       <c r="N13" t="n">
-        <v>819.9382026508117</v>
+        <v>819.9382026508118</v>
       </c>
       <c r="O13" t="n">
         <v>1005.028307077177</v>
@@ -5221,28 +5221,28 @@
         <v>1149.816323721655</v>
       </c>
       <c r="R13" t="n">
-        <v>1022.907084138467</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="S13" t="n">
-        <v>1022.907084138467</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="T13" t="n">
-        <v>889.8843602547483</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="U13" t="n">
-        <v>600.7365130540586</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="V13" t="n">
-        <v>600.7365130540586</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="W13" t="n">
-        <v>311.319343017098</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="X13" t="n">
-        <v>311.319343017098</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.52676387356789</v>
+        <v>1017.53025601193</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1633.388531273084</v>
+        <v>1790.318978592879</v>
       </c>
       <c r="C14" t="n">
-        <v>1264.426014332672</v>
+        <v>1421.356461652467</v>
       </c>
       <c r="D14" t="n">
-        <v>906.1603157259217</v>
+        <v>1063.090763045717</v>
       </c>
       <c r="E14" t="n">
-        <v>906.1603157259217</v>
+        <v>677.3025104474723</v>
       </c>
       <c r="F14" t="n">
-        <v>495.1744109363141</v>
+        <v>266.3166056578647</v>
       </c>
       <c r="G14" t="n">
-        <v>78.26356888427289</v>
+        <v>266.3166056578647</v>
       </c>
       <c r="H14" t="n">
         <v>78.26356888427289</v>
@@ -5276,10 +5276,10 @@
         <v>78.26356888427289</v>
       </c>
       <c r="J14" t="n">
-        <v>281.6221557564465</v>
+        <v>281.6221557564467</v>
       </c>
       <c r="K14" t="n">
-        <v>707.1487664500681</v>
+        <v>707.1487664500684</v>
       </c>
       <c r="L14" t="n">
         <v>1287.328782194556</v>
@@ -5288,16 +5288,16 @@
         <v>1949.497383904362</v>
       </c>
       <c r="N14" t="n">
-        <v>2607.748568319979</v>
+        <v>2607.74856831998</v>
       </c>
       <c r="O14" t="n">
-        <v>3184.128858126993</v>
+        <v>3184.128858126994</v>
       </c>
       <c r="P14" t="n">
-        <v>3638.381717540448</v>
+        <v>3638.381717540449</v>
       </c>
       <c r="Q14" t="n">
-        <v>3902.284937373336</v>
+        <v>3902.284937373337</v>
       </c>
       <c r="R14" t="n">
         <v>3913.178444213645</v>
@@ -5312,16 +5312,16 @@
         <v>3293.292564164006</v>
       </c>
       <c r="V14" t="n">
-        <v>2962.229676820436</v>
+        <v>3293.292564164006</v>
       </c>
       <c r="W14" t="n">
-        <v>2783.593461574097</v>
+        <v>2940.523908893892</v>
       </c>
       <c r="X14" t="n">
-        <v>2410.127703313017</v>
+        <v>2567.058150632812</v>
       </c>
       <c r="Y14" t="n">
-        <v>2019.988371337206</v>
+        <v>2176.918818657</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>78.26356888427289</v>
       </c>
       <c r="J15" t="n">
-        <v>205.6891703965475</v>
+        <v>80.85904540954277</v>
       </c>
       <c r="K15" t="n">
-        <v>550.1006625470296</v>
+        <v>163.4499529175722</v>
       </c>
       <c r="L15" t="n">
-        <v>707.4768711977699</v>
+        <v>687.9581034187372</v>
       </c>
       <c r="M15" t="n">
-        <v>1371.53236502174</v>
+        <v>1352.013597242707</v>
       </c>
       <c r="N15" t="n">
-        <v>1915.814449187793</v>
+        <v>2049.351677416864</v>
       </c>
       <c r="O15" t="n">
         <v>2487.326878243907</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>287.4072606313973</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="C16" t="n">
-        <v>244.0757438480312</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="D16" t="n">
-        <v>244.0757438480312</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="E16" t="n">
-        <v>244.0757438480312</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="F16" t="n">
-        <v>244.0757438480312</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="G16" t="n">
-        <v>244.0757438480312</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="H16" t="n">
-        <v>90.52676387356789</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="I16" t="n">
-        <v>90.52676387356789</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="J16" t="n">
         <v>78.26356888427289</v>
@@ -5443,10 +5443,10 @@
         <v>384.7474275269764</v>
       </c>
       <c r="M16" t="n">
-        <v>602.210904592896</v>
+        <v>602.2109045928961</v>
       </c>
       <c r="N16" t="n">
-        <v>819.9382026508117</v>
+        <v>819.9382026508118</v>
       </c>
       <c r="O16" t="n">
         <v>1005.028307077177</v>
@@ -5458,28 +5458,28 @@
         <v>1149.816323721655</v>
       </c>
       <c r="R16" t="n">
-        <v>1022.907084138467</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="S16" t="n">
-        <v>1022.907084138467</v>
+        <v>943.7592252850059</v>
       </c>
       <c r="T16" t="n">
-        <v>797.617009811888</v>
+        <v>718.4691509584268</v>
       </c>
       <c r="U16" t="n">
-        <v>797.617009811888</v>
+        <v>501.4755330315505</v>
       </c>
       <c r="V16" t="n">
-        <v>797.617009811888</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="W16" t="n">
-        <v>508.1998397749274</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="X16" t="n">
-        <v>508.1998397749274</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="Y16" t="n">
-        <v>287.4072606313973</v>
+        <v>246.7910448256637</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2448.459317649174</v>
+        <v>1845.85593131343</v>
       </c>
       <c r="C17" t="n">
-        <v>2079.496800708763</v>
+        <v>1845.85593131343</v>
       </c>
       <c r="D17" t="n">
         <v>1721.231102102012</v>
@@ -5540,25 +5540,25 @@
         <v>3913.178444213645</v>
       </c>
       <c r="S17" t="n">
-        <v>3913.178444213645</v>
+        <v>3760.995420386993</v>
       </c>
       <c r="T17" t="n">
-        <v>3913.178444213645</v>
+        <v>3546.970112241933</v>
       </c>
       <c r="U17" t="n">
-        <v>3659.500896135718</v>
+        <v>3293.292564164006</v>
       </c>
       <c r="V17" t="n">
-        <v>3659.500896135718</v>
+        <v>2962.229676820436</v>
       </c>
       <c r="W17" t="n">
-        <v>3306.732240865604</v>
+        <v>2609.461021550321</v>
       </c>
       <c r="X17" t="n">
-        <v>2933.266482604524</v>
+        <v>2235.995263289241</v>
       </c>
       <c r="Y17" t="n">
-        <v>2835.059157713296</v>
+        <v>1845.85593131343</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>80.85904540954274</v>
       </c>
       <c r="K18" t="n">
-        <v>357.6297780729351</v>
+        <v>163.4499529175721</v>
       </c>
       <c r="L18" t="n">
-        <v>882.1379285741</v>
+        <v>554.4208751896665</v>
       </c>
       <c r="M18" t="n">
-        <v>1085.14540928557</v>
+        <v>1218.476369013637</v>
       </c>
       <c r="N18" t="n">
-        <v>1782.483489459727</v>
+        <v>1915.814449187793</v>
       </c>
       <c r="O18" t="n">
-        <v>1964.072222431878</v>
+        <v>2487.326878243907</v>
       </c>
       <c r="P18" t="n">
-        <v>2405.75826449778</v>
+        <v>2613.734779356271</v>
       </c>
       <c r="Q18" t="n">
         <v>2648.315917223683</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>415.7272277535706</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="C19" t="n">
-        <v>246.7910448256637</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="D19" t="n">
-        <v>246.7910448256637</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="E19" t="n">
-        <v>246.7910448256637</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="F19" t="n">
-        <v>246.7910448256637</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="G19" t="n">
         <v>78.26356888427289</v>
@@ -5698,25 +5698,25 @@
         <v>1149.816323721655</v>
       </c>
       <c r="S19" t="n">
-        <v>943.7592252850054</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="T19" t="n">
-        <v>943.7592252850054</v>
+        <v>924.5262493950759</v>
       </c>
       <c r="U19" t="n">
-        <v>943.7592252850054</v>
+        <v>635.3784021943861</v>
       </c>
       <c r="V19" t="n">
-        <v>925.9369769340612</v>
+        <v>380.6939139884993</v>
       </c>
       <c r="W19" t="n">
-        <v>636.5198068971007</v>
+        <v>91.27674395153866</v>
       </c>
       <c r="X19" t="n">
-        <v>636.5198068971007</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="Y19" t="n">
-        <v>415.7272277535706</v>
+        <v>78.26356888427289</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1673.281399394369</v>
+        <v>1966.625298337686</v>
       </c>
       <c r="C20" t="n">
-        <v>1304.318882453957</v>
+        <v>1966.625298337686</v>
       </c>
       <c r="D20" t="n">
-        <v>1304.318882453957</v>
+        <v>1608.359599730936</v>
       </c>
       <c r="E20" t="n">
-        <v>924.4569447141605</v>
+        <v>1222.571347132691</v>
       </c>
       <c r="F20" t="n">
-        <v>924.4569447141605</v>
+        <v>811.585442343084</v>
       </c>
       <c r="G20" t="n">
-        <v>507.5461026621193</v>
+        <v>394.6746002910429</v>
       </c>
       <c r="H20" t="n">
-        <v>191.1350712553493</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="I20" t="n">
-        <v>78.2635688842729</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="J20" t="n">
-        <v>281.6221557564468</v>
+        <v>281.6221557564463</v>
       </c>
       <c r="K20" t="n">
         <v>707.1487664500687</v>
@@ -5777,25 +5777,25 @@
         <v>3913.178444213645</v>
       </c>
       <c r="S20" t="n">
-        <v>3760.995420386994</v>
+        <v>3760.995420386993</v>
       </c>
       <c r="T20" t="n">
-        <v>3760.995420386994</v>
+        <v>3760.995420386993</v>
       </c>
       <c r="U20" t="n">
-        <v>3507.317872309067</v>
+        <v>3760.995420386993</v>
       </c>
       <c r="V20" t="n">
-        <v>3176.254984965497</v>
+        <v>3429.932533043423</v>
       </c>
       <c r="W20" t="n">
-        <v>2823.486329695382</v>
+        <v>3116.8302286387</v>
       </c>
       <c r="X20" t="n">
-        <v>2450.020571434302</v>
+        <v>2743.36447037762</v>
       </c>
       <c r="Y20" t="n">
-        <v>2059.881239458491</v>
+        <v>2353.225138401808</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>120.9089168094197</v>
       </c>
       <c r="I21" t="n">
-        <v>78.2635688842729</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="J21" t="n">
-        <v>80.85904540954276</v>
+        <v>80.85904540954274</v>
       </c>
       <c r="K21" t="n">
         <v>163.4499529175721</v>
       </c>
       <c r="L21" t="n">
-        <v>687.958103418737</v>
+        <v>554.4208751896665</v>
       </c>
       <c r="M21" t="n">
-        <v>1352.013597242707</v>
+        <v>1218.476369013637</v>
       </c>
       <c r="N21" t="n">
-        <v>1574.802726816746</v>
+        <v>1915.814449187793</v>
       </c>
       <c r="O21" t="n">
-        <v>1964.072222431878</v>
+        <v>2487.326878243907</v>
       </c>
       <c r="P21" t="n">
-        <v>2405.75826449778</v>
+        <v>2613.734779356271</v>
       </c>
       <c r="Q21" t="n">
         <v>2648.315917223683</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.4293502152392</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="C22" t="n">
-        <v>559.4931672873323</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="D22" t="n">
-        <v>559.4931672873323</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="E22" t="n">
-        <v>559.4931672873323</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="F22" t="n">
-        <v>412.603219789422</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="G22" t="n">
-        <v>244.0757438480312</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="H22" t="n">
-        <v>90.5267638735679</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="I22" t="n">
-        <v>90.5267638735679</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="J22" t="n">
-        <v>78.2635688842729</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="K22" t="n">
         <v>188.3492378355976</v>
@@ -5932,28 +5932,28 @@
         <v>1149.816323721655</v>
       </c>
       <c r="R22" t="n">
-        <v>1022.907084138467</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="S22" t="n">
-        <v>816.8499857018177</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="T22" t="n">
-        <v>816.8499857018177</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="U22" t="n">
-        <v>816.8499857018177</v>
+        <v>1018.882253966529</v>
       </c>
       <c r="V22" t="n">
-        <v>816.8499857018177</v>
+        <v>764.1977657606417</v>
       </c>
       <c r="W22" t="n">
-        <v>728.4293502152392</v>
+        <v>474.780595723681</v>
       </c>
       <c r="X22" t="n">
-        <v>728.4293502152392</v>
+        <v>246.7910448256637</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.4293502152392</v>
+        <v>246.7910448256637</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1949.799562679854</v>
+        <v>2448.459317649174</v>
       </c>
       <c r="C23" t="n">
-        <v>1580.837045739442</v>
+        <v>2079.496800708763</v>
       </c>
       <c r="D23" t="n">
-        <v>1222.571347132691</v>
+        <v>1721.231102102012</v>
       </c>
       <c r="E23" t="n">
-        <v>1222.571347132691</v>
+        <v>1335.442849503768</v>
       </c>
       <c r="F23" t="n">
-        <v>811.585442343084</v>
+        <v>924.4569447141605</v>
       </c>
       <c r="G23" t="n">
-        <v>394.6746002910429</v>
+        <v>507.5461026621193</v>
       </c>
       <c r="H23" t="n">
-        <v>78.2635688842729</v>
+        <v>191.1350712553493</v>
       </c>
       <c r="I23" t="n">
-        <v>78.2635688842729</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="J23" t="n">
         <v>281.6221557564465</v>
       </c>
       <c r="K23" t="n">
-        <v>707.1487664500683</v>
+        <v>707.1487664500681</v>
       </c>
       <c r="L23" t="n">
         <v>1287.328782194556</v>
@@ -5999,40 +5999,40 @@
         <v>1949.497383904362</v>
       </c>
       <c r="N23" t="n">
-        <v>2607.74856831998</v>
+        <v>2607.748568319979</v>
       </c>
       <c r="O23" t="n">
         <v>3184.128858126993</v>
       </c>
       <c r="P23" t="n">
-        <v>3638.381717540449</v>
+        <v>3638.381717540448</v>
       </c>
       <c r="Q23" t="n">
-        <v>3902.284937373337</v>
+        <v>3902.284937373336</v>
       </c>
       <c r="R23" t="n">
         <v>3913.178444213645</v>
       </c>
       <c r="S23" t="n">
-        <v>3760.995420386994</v>
+        <v>3913.178444213645</v>
       </c>
       <c r="T23" t="n">
-        <v>3546.970112241933</v>
+        <v>3913.178444213645</v>
       </c>
       <c r="U23" t="n">
-        <v>3293.292564164007</v>
+        <v>3913.178444213645</v>
       </c>
       <c r="V23" t="n">
-        <v>2962.229676820436</v>
+        <v>3598.664247950188</v>
       </c>
       <c r="W23" t="n">
-        <v>2609.461021550322</v>
+        <v>3598.664247950188</v>
       </c>
       <c r="X23" t="n">
-        <v>2609.461021550322</v>
+        <v>3225.198489689108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2336.399402743975</v>
+        <v>2835.059157713296</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>120.9089168094197</v>
       </c>
       <c r="I24" t="n">
-        <v>78.2635688842729</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2689984059437</v>
+        <v>80.85904540954274</v>
       </c>
       <c r="K24" t="n">
-        <v>211.8599059139731</v>
+        <v>163.4499529175721</v>
       </c>
       <c r="L24" t="n">
-        <v>736.368056415138</v>
+        <v>554.4208751896665</v>
       </c>
       <c r="M24" t="n">
-        <v>1400.423550239108</v>
+        <v>1218.476369013637</v>
       </c>
       <c r="N24" t="n">
-        <v>2097.761630413265</v>
+        <v>1915.814449187793</v>
       </c>
       <c r="O24" t="n">
-        <v>2279.350363385416</v>
+        <v>2487.326878243907</v>
       </c>
       <c r="P24" t="n">
-        <v>2405.75826449778</v>
+        <v>2613.734779356271</v>
       </c>
       <c r="Q24" t="n">
         <v>2648.315917223683</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>226.176662466666</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="C25" t="n">
-        <v>226.176662466666</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="D25" t="n">
-        <v>226.176662466666</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="E25" t="n">
-        <v>78.2635688842729</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="F25" t="n">
-        <v>78.2635688842729</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="G25" t="n">
-        <v>78.2635688842729</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="H25" t="n">
-        <v>78.2635688842729</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="I25" t="n">
-        <v>78.2635688842729</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="J25" t="n">
-        <v>78.2635688842729</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="K25" t="n">
         <v>188.3492378355976</v>
@@ -6181,16 +6181,16 @@
         <v>429.3213037577366</v>
       </c>
       <c r="V25" t="n">
-        <v>429.3213037577366</v>
+        <v>174.6368155518498</v>
       </c>
       <c r="W25" t="n">
-        <v>226.176662466666</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="X25" t="n">
-        <v>226.176662466666</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="Y25" t="n">
-        <v>226.176662466666</v>
+        <v>78.26356888427289</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1459.256091249308</v>
+        <v>1459.256091249307</v>
       </c>
       <c r="C26" t="n">
-        <v>1090.293574308896</v>
+        <v>1239.228362141309</v>
       </c>
       <c r="D26" t="n">
-        <v>732.0278757021458</v>
+        <v>880.9626635345583</v>
       </c>
       <c r="E26" t="n">
-        <v>346.2396231039016</v>
+        <v>495.1744109363141</v>
       </c>
       <c r="F26" t="n">
-        <v>346.2396231039016</v>
+        <v>495.1744109363141</v>
       </c>
       <c r="G26" t="n">
         <v>78.26356888427289</v>
@@ -6230,13 +6230,13 @@
         <v>707.1487664500683</v>
       </c>
       <c r="L26" t="n">
-        <v>1287.328782194556</v>
+        <v>1287.328782194555</v>
       </c>
       <c r="M26" t="n">
         <v>1949.497383904362</v>
       </c>
       <c r="N26" t="n">
-        <v>2607.74856831998</v>
+        <v>2607.748568319979</v>
       </c>
       <c r="O26" t="n">
         <v>3184.128858126993</v>
@@ -6248,19 +6248,19 @@
         <v>3902.284937373337</v>
       </c>
       <c r="R26" t="n">
-        <v>3913.178444213645</v>
+        <v>3913.178444213644</v>
       </c>
       <c r="S26" t="n">
         <v>3760.995420386993</v>
       </c>
       <c r="T26" t="n">
-        <v>3546.970112241933</v>
+        <v>3546.970112241932</v>
       </c>
       <c r="U26" t="n">
         <v>3293.292564164006</v>
       </c>
       <c r="V26" t="n">
-        <v>2962.229676820436</v>
+        <v>2962.229676820435</v>
       </c>
       <c r="W26" t="n">
         <v>2609.461021550321</v>
@@ -6269,7 +6269,7 @@
         <v>2235.995263289241</v>
       </c>
       <c r="Y26" t="n">
-        <v>1845.85593131343</v>
+        <v>1845.855931313429</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>78.26356888427289</v>
       </c>
       <c r="J27" t="n">
-        <v>205.6891703965475</v>
+        <v>80.85904540954274</v>
       </c>
       <c r="K27" t="n">
-        <v>288.2800779045768</v>
+        <v>163.4499529175721</v>
       </c>
       <c r="L27" t="n">
-        <v>445.6562865553172</v>
+        <v>554.4208751896665</v>
       </c>
       <c r="M27" t="n">
-        <v>1109.711780379287</v>
+        <v>1218.476369013637</v>
       </c>
       <c r="N27" t="n">
-        <v>1807.049860553444</v>
+        <v>1915.814449187793</v>
       </c>
       <c r="O27" t="n">
-        <v>2172.048737290369</v>
+        <v>2487.326878243907</v>
       </c>
       <c r="P27" t="n">
         <v>2613.734779356271</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>246.7910448256637</v>
+        <v>377.7251145807902</v>
       </c>
       <c r="C28" t="n">
-        <v>246.7910448256637</v>
+        <v>377.7251145807902</v>
       </c>
       <c r="D28" t="n">
-        <v>246.7910448256637</v>
+        <v>373.0666099645763</v>
       </c>
       <c r="E28" t="n">
-        <v>246.7910448256637</v>
+        <v>225.1535163821832</v>
       </c>
       <c r="F28" t="n">
-        <v>246.7910448256637</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="G28" t="n">
         <v>78.26356888427289</v>
@@ -6421,13 +6421,13 @@
         <v>895.1318355157681</v>
       </c>
       <c r="W28" t="n">
-        <v>649.2320887994335</v>
+        <v>605.7146654788075</v>
       </c>
       <c r="X28" t="n">
-        <v>649.2320887994335</v>
+        <v>377.7251145807902</v>
       </c>
       <c r="Y28" t="n">
-        <v>428.4395096559034</v>
+        <v>377.7251145807902</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1986.831145329237</v>
+        <v>1986.831145329236</v>
       </c>
       <c r="C29" t="n">
-        <v>1683.815510148816</v>
+        <v>1683.815510148815</v>
       </c>
       <c r="D29" t="n">
-        <v>1391.496693302057</v>
+        <v>1391.496693302056</v>
       </c>
       <c r="E29" t="n">
         <v>1071.655322463803</v>
       </c>
       <c r="F29" t="n">
-        <v>726.6162994341871</v>
+        <v>726.6162994341867</v>
       </c>
       <c r="G29" t="n">
         <v>375.652339142137</v>
@@ -6461,10 +6461,10 @@
         <v>78.26356888427289</v>
       </c>
       <c r="J29" t="n">
-        <v>281.6221557564463</v>
+        <v>281.6221557564466</v>
       </c>
       <c r="K29" t="n">
-        <v>707.1487664500681</v>
+        <v>707.1487664500683</v>
       </c>
       <c r="L29" t="n">
         <v>1287.328782194556</v>
@@ -6473,25 +6473,25 @@
         <v>1949.497383904362</v>
       </c>
       <c r="N29" t="n">
-        <v>2607.74856831998</v>
+        <v>2607.748568319979</v>
       </c>
       <c r="O29" t="n">
         <v>3184.128858126993</v>
       </c>
       <c r="P29" t="n">
-        <v>3638.381717540449</v>
+        <v>3638.381717540448</v>
       </c>
       <c r="Q29" t="n">
-        <v>3902.284937373337</v>
+        <v>3902.284937373336</v>
       </c>
       <c r="R29" t="n">
-        <v>3913.178444213645</v>
+        <v>3913.178444213644</v>
       </c>
       <c r="S29" t="n">
-        <v>3826.942302146985</v>
+        <v>3826.942302146984</v>
       </c>
       <c r="T29" t="n">
-        <v>3678.863875761916</v>
+        <v>3678.863875761915</v>
       </c>
       <c r="U29" t="n">
         <v>3491.133209443979</v>
@@ -6506,7 +6506,7 @@
         <v>2631.676553849188</v>
       </c>
       <c r="Y29" t="n">
-        <v>2307.484103633367</v>
+        <v>2307.484103633366</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>78.26356888427289</v>
       </c>
       <c r="J30" t="n">
-        <v>205.6891703965475</v>
+        <v>80.85904540954274</v>
       </c>
       <c r="K30" t="n">
-        <v>550.1006625470296</v>
+        <v>163.4499529175721</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.608813048194</v>
+        <v>554.4208751896665</v>
       </c>
       <c r="M30" t="n">
-        <v>1293.121924144061</v>
+        <v>1218.476369013637</v>
       </c>
       <c r="N30" t="n">
-        <v>1990.460004318218</v>
+        <v>1915.814449187793</v>
       </c>
       <c r="O30" t="n">
-        <v>2172.048737290369</v>
+        <v>2487.326878243907</v>
       </c>
       <c r="P30" t="n">
         <v>2613.734779356271</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>555.3067231171187</v>
+        <v>381.5205527703384</v>
       </c>
       <c r="C31" t="n">
-        <v>452.3174219492029</v>
+        <v>381.5205527703384</v>
       </c>
       <c r="D31" t="n">
-        <v>368.1476642968583</v>
+        <v>297.3507951179938</v>
       </c>
       <c r="E31" t="n">
-        <v>286.1814524744563</v>
+        <v>215.3845832955918</v>
       </c>
       <c r="F31" t="n">
-        <v>205.2383867365371</v>
+        <v>134.4415175576726</v>
       </c>
       <c r="G31" t="n">
-        <v>102.6577925551374</v>
+        <v>134.4415175576726</v>
       </c>
       <c r="H31" t="n">
-        <v>78.26356888427289</v>
+        <v>134.4415175576726</v>
       </c>
       <c r="I31" t="n">
         <v>78.26356888427289</v>
       </c>
       <c r="J31" t="n">
-        <v>130.8789502882321</v>
+        <v>130.8789502882322</v>
       </c>
       <c r="K31" t="n">
-        <v>305.5991580525241</v>
+        <v>305.5991580525242</v>
       </c>
       <c r="L31" t="n">
-        <v>566.6318865568701</v>
+        <v>566.6318865568703</v>
       </c>
       <c r="M31" t="n">
-        <v>848.7299024357569</v>
+        <v>848.7299024357573</v>
       </c>
       <c r="N31" t="n">
         <v>1131.09173930664</v>
@@ -6646,25 +6646,25 @@
         <v>1593.911118993189</v>
       </c>
       <c r="S31" t="n">
-        <v>1593.911118993189</v>
+        <v>1453.80090231653</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.567926426601</v>
+        <v>1294.457709749943</v>
       </c>
       <c r="U31" t="n">
-        <v>1211.366960985902</v>
+        <v>1071.256744309244</v>
       </c>
       <c r="V31" t="n">
-        <v>1211.366960985902</v>
+        <v>882.5191378633482</v>
       </c>
       <c r="W31" t="n">
-        <v>987.8966727089326</v>
+        <v>659.0488495863788</v>
       </c>
       <c r="X31" t="n">
-        <v>825.8540035709063</v>
+        <v>497.2221358405869</v>
       </c>
       <c r="Y31" t="n">
-        <v>671.0083061873673</v>
+        <v>497.2221358405869</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1986.831145329238</v>
+        <v>1986.831145329236</v>
       </c>
       <c r="C32" t="n">
-        <v>1683.815510148817</v>
+        <v>1683.815510148816</v>
       </c>
       <c r="D32" t="n">
-        <v>1391.496693302058</v>
+        <v>1391.496693302056</v>
       </c>
       <c r="E32" t="n">
-        <v>1071.655322463805</v>
+        <v>1071.655322463803</v>
       </c>
       <c r="F32" t="n">
-        <v>726.6162994341882</v>
+        <v>726.6162994341869</v>
       </c>
       <c r="G32" t="n">
-        <v>375.6523391421382</v>
+        <v>375.652339142137</v>
       </c>
       <c r="H32" t="n">
         <v>125.1881894953582</v>
@@ -6698,22 +6698,22 @@
         <v>78.26356888427289</v>
       </c>
       <c r="J32" t="n">
-        <v>281.6221557564463</v>
+        <v>281.6221557564466</v>
       </c>
       <c r="K32" t="n">
-        <v>707.1487664500681</v>
+        <v>707.1487664500683</v>
       </c>
       <c r="L32" t="n">
-        <v>1287.328782194556</v>
+        <v>1287.328782194555</v>
       </c>
       <c r="M32" t="n">
         <v>1949.497383904362</v>
       </c>
       <c r="N32" t="n">
-        <v>2607.74856831998</v>
+        <v>2607.748568319979</v>
       </c>
       <c r="O32" t="n">
-        <v>3184.128858126994</v>
+        <v>3184.128858126993</v>
       </c>
       <c r="P32" t="n">
         <v>3638.381717540449</v>
@@ -6722,28 +6722,28 @@
         <v>3902.284937373337</v>
       </c>
       <c r="R32" t="n">
-        <v>3913.178444213645</v>
+        <v>3913.178444213644</v>
       </c>
       <c r="S32" t="n">
-        <v>3826.942302146985</v>
+        <v>3826.942302146984</v>
       </c>
       <c r="T32" t="n">
-        <v>3678.863875761916</v>
+        <v>3678.863875761915</v>
       </c>
       <c r="U32" t="n">
-        <v>3491.13320944398</v>
+        <v>3491.133209443979</v>
       </c>
       <c r="V32" t="n">
-        <v>3226.017203860401</v>
+        <v>3226.0172038604</v>
       </c>
       <c r="W32" t="n">
-        <v>2939.195430350278</v>
+        <v>2939.195430350277</v>
       </c>
       <c r="X32" t="n">
-        <v>2631.676553849189</v>
+        <v>2631.676553849187</v>
       </c>
       <c r="Y32" t="n">
-        <v>2307.484103633368</v>
+        <v>2307.484103633367</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>80.85904540954274</v>
       </c>
       <c r="K33" t="n">
-        <v>211.8599059139731</v>
+        <v>163.4499529175721</v>
       </c>
       <c r="L33" t="n">
-        <v>736.368056415138</v>
+        <v>687.958103418737</v>
       </c>
       <c r="M33" t="n">
-        <v>1400.423550239108</v>
+        <v>1352.013597242707</v>
       </c>
       <c r="N33" t="n">
-        <v>2097.761630413265</v>
+        <v>2049.351677416864</v>
       </c>
       <c r="O33" t="n">
-        <v>2279.350363385416</v>
+        <v>2487.326878243907</v>
       </c>
       <c r="P33" t="n">
-        <v>2405.75826449778</v>
+        <v>2613.734779356271</v>
       </c>
       <c r="Q33" t="n">
         <v>2648.315917223683</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2932.997513731386</v>
+        <v>371.4355624480604</v>
       </c>
       <c r="C34" t="n">
-        <v>2830.00821256347</v>
+        <v>268.4462612801447</v>
       </c>
       <c r="D34" t="n">
-        <v>2745.838454911125</v>
+        <v>268.4462612801447</v>
       </c>
       <c r="E34" t="n">
-        <v>2663.872243088723</v>
+        <v>268.4462612801447</v>
       </c>
       <c r="F34" t="n">
-        <v>2582.929177350804</v>
+        <v>268.4462612801447</v>
       </c>
       <c r="G34" t="n">
-        <v>2480.348583169404</v>
+        <v>165.865667098745</v>
       </c>
       <c r="H34" t="n">
-        <v>2392.746484954932</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="I34" t="n">
-        <v>2336.568536281532</v>
+        <v>78.26356888427289</v>
       </c>
       <c r="J34" t="n">
-        <v>2389.183917685491</v>
+        <v>130.8789502882322</v>
       </c>
       <c r="K34" t="n">
-        <v>2563.904125449783</v>
+        <v>305.5991580525242</v>
       </c>
       <c r="L34" t="n">
-        <v>2824.936853954129</v>
+        <v>566.6318865568703</v>
       </c>
       <c r="M34" t="n">
-        <v>3107.034869833016</v>
+        <v>848.7299024357573</v>
       </c>
       <c r="N34" t="n">
-        <v>3389.396706703899</v>
+        <v>1131.09173930664</v>
       </c>
       <c r="O34" t="n">
-        <v>3639.121349943232</v>
+        <v>1380.816382545973</v>
       </c>
       <c r="P34" t="n">
-        <v>3838.611766167681</v>
+        <v>1580.306798770422</v>
       </c>
       <c r="Q34" t="n">
-        <v>3913.178444213645</v>
+        <v>1654.873476816385</v>
       </c>
       <c r="R34" t="n">
-        <v>3852.216086390448</v>
+        <v>1593.911118993189</v>
       </c>
       <c r="S34" t="n">
-        <v>3712.105869713789</v>
+        <v>1453.80090231653</v>
       </c>
       <c r="T34" t="n">
-        <v>3552.762677147201</v>
+        <v>1294.457709749943</v>
       </c>
       <c r="U34" t="n">
-        <v>3329.561711706503</v>
+        <v>1071.256744309244</v>
       </c>
       <c r="V34" t="n">
-        <v>3272.169385078604</v>
+        <v>882.5191378633482</v>
       </c>
       <c r="W34" t="n">
-        <v>3048.699096801634</v>
+        <v>804.0255120398741</v>
       </c>
       <c r="X34" t="n">
-        <v>3048.699096801634</v>
+        <v>641.9828429018479</v>
       </c>
       <c r="Y34" t="n">
-        <v>3048.699096801634</v>
+        <v>487.137145518309</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>726.6162994341869</v>
       </c>
       <c r="G35" t="n">
-        <v>375.6523391421369</v>
+        <v>375.652339142137</v>
       </c>
       <c r="H35" t="n">
-        <v>125.1881894953581</v>
+        <v>125.1881894953582</v>
       </c>
       <c r="I35" t="n">
         <v>78.26356888427289</v>
       </c>
       <c r="J35" t="n">
-        <v>281.6221557564466</v>
+        <v>281.6221557564463</v>
       </c>
       <c r="K35" t="n">
         <v>707.1487664500683</v>
@@ -6953,31 +6953,31 @@
         <v>3184.128858126993</v>
       </c>
       <c r="P35" t="n">
-        <v>3638.381717540448</v>
+        <v>3638.381717540449</v>
       </c>
       <c r="Q35" t="n">
-        <v>3902.284937373336</v>
+        <v>3902.284937373337</v>
       </c>
       <c r="R35" t="n">
-        <v>3913.178444213644</v>
+        <v>3913.178444213645</v>
       </c>
       <c r="S35" t="n">
-        <v>3826.942302146984</v>
+        <v>3826.942302146983</v>
       </c>
       <c r="T35" t="n">
-        <v>3678.863875761915</v>
+        <v>3678.863875761914</v>
       </c>
       <c r="U35" t="n">
         <v>3491.133209443979</v>
       </c>
       <c r="V35" t="n">
-        <v>3226.0172038604</v>
+        <v>3226.017203860399</v>
       </c>
       <c r="W35" t="n">
-        <v>2939.195430350277</v>
+        <v>2939.195430350276</v>
       </c>
       <c r="X35" t="n">
-        <v>2631.676553849188</v>
+        <v>2631.676553849187</v>
       </c>
       <c r="Y35" t="n">
         <v>2307.484103633367</v>
@@ -7017,22 +7017,22 @@
         <v>80.85904540954274</v>
       </c>
       <c r="K36" t="n">
-        <v>296.4851604301291</v>
+        <v>163.4499529175721</v>
       </c>
       <c r="L36" t="n">
-        <v>820.993310931294</v>
+        <v>554.4208751896665</v>
       </c>
       <c r="M36" t="n">
-        <v>1485.048804755264</v>
+        <v>1218.476369013637</v>
       </c>
       <c r="N36" t="n">
-        <v>1707.837934329303</v>
+        <v>1915.814449187793</v>
       </c>
       <c r="O36" t="n">
-        <v>2279.350363385416</v>
+        <v>2487.326878243907</v>
       </c>
       <c r="P36" t="n">
-        <v>2405.75826449778</v>
+        <v>2613.734779356271</v>
       </c>
       <c r="Q36" t="n">
         <v>2648.315917223683</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>350.4124731025466</v>
+        <v>525.9123092378112</v>
       </c>
       <c r="C37" t="n">
-        <v>350.4124731025466</v>
+        <v>422.9230080698954</v>
       </c>
       <c r="D37" t="n">
-        <v>350.4124731025466</v>
+        <v>422.9230080698954</v>
       </c>
       <c r="E37" t="n">
-        <v>268.4462612801447</v>
+        <v>340.9567962474935</v>
       </c>
       <c r="F37" t="n">
-        <v>268.4462612801447</v>
+        <v>260.0137305095743</v>
       </c>
       <c r="G37" t="n">
-        <v>165.865667098745</v>
+        <v>157.4331363281746</v>
       </c>
       <c r="H37" t="n">
-        <v>78.26356888427289</v>
+        <v>134.4415175576726</v>
       </c>
       <c r="I37" t="n">
         <v>78.26356888427289</v>
       </c>
       <c r="J37" t="n">
-        <v>130.8789502882321</v>
+        <v>130.8789502882322</v>
       </c>
       <c r="K37" t="n">
-        <v>305.5991580525241</v>
+        <v>305.5991580525242</v>
       </c>
       <c r="L37" t="n">
-        <v>566.6318865568701</v>
+        <v>566.6318865568703</v>
       </c>
       <c r="M37" t="n">
-        <v>848.7299024357569</v>
+        <v>848.7299024357573</v>
       </c>
       <c r="N37" t="n">
         <v>1131.09173930664</v>
@@ -7120,25 +7120,25 @@
         <v>1593.911118993189</v>
       </c>
       <c r="S37" t="n">
-        <v>1453.80090231653</v>
+        <v>1593.911118993189</v>
       </c>
       <c r="T37" t="n">
-        <v>1294.457709749942</v>
+        <v>1593.911118993189</v>
       </c>
       <c r="U37" t="n">
-        <v>1071.256744309244</v>
+        <v>1370.71015355249</v>
       </c>
       <c r="V37" t="n">
-        <v>882.5191378633479</v>
+        <v>1181.972547106594</v>
       </c>
       <c r="W37" t="n">
-        <v>783.0024226943605</v>
+        <v>958.5022588296249</v>
       </c>
       <c r="X37" t="n">
-        <v>620.9597535563342</v>
+        <v>796.4595896915987</v>
       </c>
       <c r="Y37" t="n">
-        <v>466.1140561727952</v>
+        <v>641.6138923080598</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1986.831145329237</v>
+        <v>1986.831145329238</v>
       </c>
       <c r="C38" t="n">
-        <v>1683.815510148816</v>
+        <v>1683.815510148817</v>
       </c>
       <c r="D38" t="n">
-        <v>1391.496693302057</v>
+        <v>1391.496693302058</v>
       </c>
       <c r="E38" t="n">
         <v>1071.655322463803</v>
       </c>
       <c r="F38" t="n">
-        <v>726.6162994341871</v>
+        <v>726.6162994341869</v>
       </c>
       <c r="G38" t="n">
         <v>375.652339142137</v>
@@ -7169,7 +7169,7 @@
         <v>125.1881894953582</v>
       </c>
       <c r="I38" t="n">
-        <v>78.26356888427289</v>
+        <v>78.2635688842729</v>
       </c>
       <c r="J38" t="n">
         <v>281.6221557564465</v>
@@ -7190,34 +7190,34 @@
         <v>3184.128858126993</v>
       </c>
       <c r="P38" t="n">
-        <v>3638.381717540448</v>
+        <v>3638.38171754045</v>
       </c>
       <c r="Q38" t="n">
-        <v>3902.284937373336</v>
+        <v>3902.284937373337</v>
       </c>
       <c r="R38" t="n">
-        <v>3913.178444213644</v>
+        <v>3913.178444213645</v>
       </c>
       <c r="S38" t="n">
-        <v>3826.942302146984</v>
+        <v>3826.942302146985</v>
       </c>
       <c r="T38" t="n">
-        <v>3678.863875761915</v>
+        <v>3678.863875761916</v>
       </c>
       <c r="U38" t="n">
-        <v>3491.133209443979</v>
+        <v>3491.13320944398</v>
       </c>
       <c r="V38" t="n">
-        <v>3226.0172038604</v>
+        <v>3226.017203860401</v>
       </c>
       <c r="W38" t="n">
-        <v>2939.195430350277</v>
+        <v>2939.195430350278</v>
       </c>
       <c r="X38" t="n">
-        <v>2631.676553849188</v>
+        <v>2631.676553849189</v>
       </c>
       <c r="Y38" t="n">
-        <v>2307.484103633367</v>
+        <v>2307.484103633368</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>120.9089168094197</v>
       </c>
       <c r="I39" t="n">
-        <v>78.26356888427289</v>
+        <v>78.2635688842729</v>
       </c>
       <c r="J39" t="n">
-        <v>80.85904540954272</v>
+        <v>80.85904540954273</v>
       </c>
       <c r="K39" t="n">
         <v>163.449952917572</v>
       </c>
       <c r="L39" t="n">
-        <v>687.9581034187368</v>
+        <v>554.4208751896665</v>
       </c>
       <c r="M39" t="n">
-        <v>1352.013597242707</v>
+        <v>1218.476369013637</v>
       </c>
       <c r="N39" t="n">
-        <v>1600.536308234256</v>
+        <v>1915.814449187793</v>
       </c>
       <c r="O39" t="n">
-        <v>2172.048737290369</v>
+        <v>2487.326878243907</v>
       </c>
       <c r="P39" t="n">
         <v>2613.734779356271</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>587.090448119654</v>
+        <v>415.1965064404607</v>
       </c>
       <c r="C40" t="n">
-        <v>484.1011469517382</v>
+        <v>312.207205272545</v>
       </c>
       <c r="D40" t="n">
-        <v>399.9313892993936</v>
+        <v>228.0374476202004</v>
       </c>
       <c r="E40" t="n">
-        <v>317.9651774769916</v>
+        <v>228.0374476202004</v>
       </c>
       <c r="F40" t="n">
-        <v>237.0221117390723</v>
+        <v>180.8441630656725</v>
       </c>
       <c r="G40" t="n">
-        <v>134.4415175576727</v>
+        <v>78.2635688842729</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4415175576727</v>
+        <v>78.2635688842729</v>
       </c>
       <c r="I40" t="n">
-        <v>78.26356888427289</v>
+        <v>78.2635688842729</v>
       </c>
       <c r="J40" t="n">
-        <v>130.8789502882321</v>
+        <v>130.8789502882322</v>
       </c>
       <c r="K40" t="n">
-        <v>305.5991580525241</v>
+        <v>305.5991580525242</v>
       </c>
       <c r="L40" t="n">
-        <v>566.6318865568701</v>
+        <v>566.6318865568703</v>
       </c>
       <c r="M40" t="n">
-        <v>848.7299024357569</v>
+        <v>848.7299024357571</v>
       </c>
       <c r="N40" t="n">
         <v>1131.09173930664</v>
       </c>
       <c r="O40" t="n">
-        <v>1380.816382545972</v>
+        <v>1380.816382545973</v>
       </c>
       <c r="P40" t="n">
         <v>1580.306798770422</v>
@@ -7354,28 +7354,28 @@
         <v>1654.873476816385</v>
       </c>
       <c r="R40" t="n">
-        <v>1593.911118993188</v>
+        <v>1593.911118993189</v>
       </c>
       <c r="S40" t="n">
         <v>1453.80090231653</v>
       </c>
       <c r="T40" t="n">
-        <v>1294.457709749942</v>
+        <v>1294.457709749943</v>
       </c>
       <c r="U40" t="n">
-        <v>1071.256744309243</v>
+        <v>1071.256744309244</v>
       </c>
       <c r="V40" t="n">
-        <v>1071.256744309243</v>
+        <v>1071.256744309244</v>
       </c>
       <c r="W40" t="n">
-        <v>1019.680397711468</v>
+        <v>847.7864560322744</v>
       </c>
       <c r="X40" t="n">
-        <v>857.6377285734416</v>
+        <v>685.7437868942482</v>
       </c>
       <c r="Y40" t="n">
-        <v>702.7920311899026</v>
+        <v>530.8980895107093</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1986.831145329237</v>
+        <v>1986.831145329236</v>
       </c>
       <c r="C41" t="n">
         <v>1683.815510148816</v>
       </c>
       <c r="D41" t="n">
-        <v>1391.496693302057</v>
+        <v>1391.496693302056</v>
       </c>
       <c r="E41" t="n">
         <v>1071.655322463803</v>
       </c>
       <c r="F41" t="n">
-        <v>726.6162994341871</v>
+        <v>726.6162994341869</v>
       </c>
       <c r="G41" t="n">
         <v>375.652339142137</v>
@@ -7406,7 +7406,7 @@
         <v>125.1881894953582</v>
       </c>
       <c r="I41" t="n">
-        <v>78.26356888427289</v>
+        <v>78.2635688842729</v>
       </c>
       <c r="J41" t="n">
         <v>281.6221557564465</v>
@@ -7415,43 +7415,43 @@
         <v>707.148766450068</v>
       </c>
       <c r="L41" t="n">
-        <v>1287.328782194555</v>
+        <v>1287.328782194557</v>
       </c>
       <c r="M41" t="n">
-        <v>1949.497383904362</v>
+        <v>1949.497383904363</v>
       </c>
       <c r="N41" t="n">
-        <v>2607.748568319979</v>
+        <v>2607.748568319981</v>
       </c>
       <c r="O41" t="n">
-        <v>3184.128858126993</v>
+        <v>3184.128858126994</v>
       </c>
       <c r="P41" t="n">
-        <v>3638.381717540449</v>
+        <v>3638.38171754045</v>
       </c>
       <c r="Q41" t="n">
         <v>3902.284937373337</v>
       </c>
       <c r="R41" t="n">
-        <v>3913.178444213644</v>
+        <v>3913.178444213645</v>
       </c>
       <c r="S41" t="n">
-        <v>3826.942302146984</v>
+        <v>3826.942302146983</v>
       </c>
       <c r="T41" t="n">
-        <v>3678.863875761915</v>
+        <v>3678.863875761914</v>
       </c>
       <c r="U41" t="n">
         <v>3491.133209443979</v>
       </c>
       <c r="V41" t="n">
-        <v>3226.0172038604</v>
+        <v>3226.017203860399</v>
       </c>
       <c r="W41" t="n">
-        <v>2939.195430350277</v>
+        <v>2939.195430350276</v>
       </c>
       <c r="X41" t="n">
-        <v>2631.676553849188</v>
+        <v>2631.676553849187</v>
       </c>
       <c r="Y41" t="n">
         <v>2307.484103633367</v>
@@ -7485,25 +7485,25 @@
         <v>120.9089168094197</v>
       </c>
       <c r="I42" t="n">
-        <v>78.26356888427289</v>
+        <v>78.2635688842729</v>
       </c>
       <c r="J42" t="n">
-        <v>80.85904540954272</v>
+        <v>80.85904540954273</v>
       </c>
       <c r="K42" t="n">
-        <v>425.2705375600248</v>
+        <v>397.0446665389262</v>
       </c>
       <c r="L42" t="n">
-        <v>713.6916848362468</v>
+        <v>554.4208751896665</v>
       </c>
       <c r="M42" t="n">
-        <v>1377.747178660217</v>
+        <v>1218.476369013637</v>
       </c>
       <c r="N42" t="n">
-        <v>1600.536308234256</v>
+        <v>1915.814449187793</v>
       </c>
       <c r="O42" t="n">
-        <v>2172.048737290369</v>
+        <v>2487.326878243907</v>
       </c>
       <c r="P42" t="n">
         <v>2613.734779356271</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>403.1228408880094</v>
+        <v>674.692546334126</v>
       </c>
       <c r="C43" t="n">
-        <v>403.1228408880094</v>
+        <v>571.7032451662102</v>
       </c>
       <c r="D43" t="n">
-        <v>403.1228408880094</v>
+        <v>487.5334875138656</v>
       </c>
       <c r="E43" t="n">
-        <v>321.1566290656074</v>
+        <v>405.5672756914636</v>
       </c>
       <c r="F43" t="n">
-        <v>240.2135633276881</v>
+        <v>324.6242099535444</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6329691462885</v>
+        <v>222.0436157721448</v>
       </c>
       <c r="H43" t="n">
-        <v>78.26356888427289</v>
+        <v>134.4415175576727</v>
       </c>
       <c r="I43" t="n">
-        <v>78.26356888427289</v>
+        <v>78.2635688842729</v>
       </c>
       <c r="J43" t="n">
-        <v>130.8789502882321</v>
+        <v>130.8789502882322</v>
       </c>
       <c r="K43" t="n">
-        <v>305.5991580525241</v>
+        <v>305.5991580525242</v>
       </c>
       <c r="L43" t="n">
-        <v>566.6318865568701</v>
+        <v>566.6318865568703</v>
       </c>
       <c r="M43" t="n">
-        <v>848.7299024357569</v>
+        <v>848.7299024357571</v>
       </c>
       <c r="N43" t="n">
         <v>1131.09173930664</v>
       </c>
       <c r="O43" t="n">
-        <v>1380.816382545972</v>
+        <v>1380.816382545973</v>
       </c>
       <c r="P43" t="n">
         <v>1580.306798770422</v>
@@ -7594,25 +7594,25 @@
         <v>1654.873476816385</v>
       </c>
       <c r="S43" t="n">
-        <v>1514.763260139727</v>
+        <v>1654.873476816385</v>
       </c>
       <c r="T43" t="n">
-        <v>1355.420067573139</v>
+        <v>1654.873476816385</v>
       </c>
       <c r="U43" t="n">
-        <v>1132.21910213244</v>
+        <v>1519.490390648805</v>
       </c>
       <c r="V43" t="n">
-        <v>943.4814956865441</v>
+        <v>1330.752784202909</v>
       </c>
       <c r="W43" t="n">
-        <v>720.0112074095746</v>
+        <v>1107.28249592594</v>
       </c>
       <c r="X43" t="n">
-        <v>557.9685382715484</v>
+        <v>945.2398267879134</v>
       </c>
       <c r="Y43" t="n">
-        <v>403.1228408880094</v>
+        <v>790.3941294043746</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1966.625298337686</v>
+        <v>2251.716503218007</v>
       </c>
       <c r="C44" t="n">
-        <v>1966.625298337686</v>
+        <v>1882.753986277595</v>
       </c>
       <c r="D44" t="n">
-        <v>1608.359599730936</v>
+        <v>1524.488287670845</v>
       </c>
       <c r="E44" t="n">
-        <v>1222.571347132691</v>
+        <v>1138.7000350726</v>
       </c>
       <c r="F44" t="n">
-        <v>811.585442343084</v>
+        <v>727.714130282993</v>
       </c>
       <c r="G44" t="n">
         <v>394.6746002910429</v>
@@ -7673,25 +7673,25 @@
         <v>3913.178444213644</v>
       </c>
       <c r="S44" t="n">
-        <v>3760.995420386993</v>
+        <v>3913.178444213644</v>
       </c>
       <c r="T44" t="n">
-        <v>3760.995420386993</v>
+        <v>3699.153136068584</v>
       </c>
       <c r="U44" t="n">
-        <v>3507.317872309066</v>
+        <v>3699.153136068584</v>
       </c>
       <c r="V44" t="n">
-        <v>3176.254984965496</v>
+        <v>3368.090248725013</v>
       </c>
       <c r="W44" t="n">
-        <v>2823.486329695381</v>
+        <v>3015.321593454898</v>
       </c>
       <c r="X44" t="n">
-        <v>2743.36447037762</v>
+        <v>2641.855835193819</v>
       </c>
       <c r="Y44" t="n">
-        <v>2353.225138401808</v>
+        <v>2251.716503218007</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4167496944407</v>
+        <v>2252.279276684401</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9637204133137</v>
+        <v>2077.826247403274</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0293107520624</v>
+        <v>1928.891837742023</v>
       </c>
       <c r="E45" t="n">
-        <v>504.791855746607</v>
+        <v>1769.654382736568</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2572977734919</v>
+        <v>1623.119824763453</v>
       </c>
       <c r="G45" t="n">
-        <v>220.910571224596</v>
+        <v>1485.773098214557</v>
       </c>
       <c r="H45" t="n">
-        <v>120.9089168094197</v>
+        <v>1385.77144379938</v>
       </c>
       <c r="I45" t="n">
-        <v>78.26356888427289</v>
+        <v>1343.126095874234</v>
       </c>
       <c r="J45" t="n">
-        <v>205.6891703965475</v>
+        <v>1345.721572399503</v>
       </c>
       <c r="K45" t="n">
-        <v>550.1006625470295</v>
+        <v>1428.312479907533</v>
       </c>
       <c r="L45" t="n">
-        <v>882.1379285741</v>
+        <v>1819.283402179627</v>
       </c>
       <c r="M45" t="n">
-        <v>1085.14540928557</v>
+        <v>2483.338896003597</v>
       </c>
       <c r="N45" t="n">
-        <v>1782.483489459727</v>
+        <v>3180.676976177754</v>
       </c>
       <c r="O45" t="n">
-        <v>1964.072222431878</v>
+        <v>3752.189405233868</v>
       </c>
       <c r="P45" t="n">
-        <v>2405.75826449778</v>
+        <v>3878.597306346232</v>
       </c>
       <c r="Q45" t="n">
-        <v>2648.315917223683</v>
+        <v>3913.178444213644</v>
       </c>
       <c r="R45" t="n">
-        <v>2633.081929804303</v>
+        <v>3897.944456794264</v>
       </c>
       <c r="S45" t="n">
-        <v>2485.373614676239</v>
+        <v>3750.2361416662</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.765909772466</v>
+        <v>3553.628436762427</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.63335064494</v>
+        <v>3325.4958776349</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.481242413197</v>
+        <v>3090.343769403158</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.243885684995</v>
+        <v>2836.106412674956</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.392385479463</v>
+        <v>2628.254912469423</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.632086714509</v>
+        <v>2420.494613704469</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>523.183249376912</v>
+        <v>864.0792488083373</v>
       </c>
       <c r="C46" t="n">
-        <v>523.183249376912</v>
+        <v>695.1430658804304</v>
       </c>
       <c r="D46" t="n">
-        <v>373.0666099645763</v>
+        <v>695.1430658804304</v>
       </c>
       <c r="E46" t="n">
-        <v>225.1535163821832</v>
+        <v>547.2299722980373</v>
       </c>
       <c r="F46" t="n">
-        <v>78.26356888427289</v>
+        <v>400.340024800127</v>
       </c>
       <c r="G46" t="n">
-        <v>78.26356888427289</v>
+        <v>231.8125488587362</v>
       </c>
       <c r="H46" t="n">
         <v>78.26356888427289</v>
@@ -7831,25 +7831,25 @@
         <v>1149.816323721655</v>
       </c>
       <c r="S46" t="n">
-        <v>943.7592252850052</v>
+        <v>1149.816323721655</v>
       </c>
       <c r="T46" t="n">
-        <v>718.4691509584261</v>
+        <v>1045.727713638577</v>
       </c>
       <c r="U46" t="n">
-        <v>718.4691509584261</v>
+        <v>1045.727713638577</v>
       </c>
       <c r="V46" t="n">
-        <v>718.4691509584261</v>
+        <v>1045.727713638577</v>
       </c>
       <c r="W46" t="n">
-        <v>718.4691509584261</v>
+        <v>1045.727713638577</v>
       </c>
       <c r="X46" t="n">
-        <v>523.183249376912</v>
+        <v>1045.727713638577</v>
       </c>
       <c r="Y46" t="n">
-        <v>523.183249376912</v>
+        <v>1045.727713638577</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>124.8186214946348</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577182</v>
+        <v>333.3585268236793</v>
       </c>
       <c r="N9" t="n">
-        <v>381.709495280812</v>
+        <v>118.4674613291452</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>235.9542561831854</v>
       </c>
       <c r="M12" t="n">
-        <v>17.15605558491538</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298321</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>324.7403581737522</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>258.976230156456</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>196.1412375306697</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>235.9542561831859</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9483,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>235.9542561831859</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>209.7785481242234</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>48.89894242060705</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>235.9542561831859</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>235.9542561831859</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,10 +9966,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>185.2627714795693</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>235.9542561831859</v>
       </c>
       <c r="M30" t="n">
-        <v>15.66225291353155</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>48.89894242060706</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>258.9762301564561</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10665,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>134.3789974874313</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>235.9542561831859</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714839</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298278</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,19 +10905,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>235.954256183186</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>25.99351658334351</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.661214550452</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.798708171483</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,22 +11139,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>235.9542561831861</v>
       </c>
       <c r="L42" t="n">
-        <v>132.368624874224</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4253104811416</v>
+        <v>235.954256183186</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>150.6611935883845</v>
       </c>
       <c r="T11" t="n">
-        <v>211.8850550636098</v>
+        <v>97.47866175780798</v>
       </c>
       <c r="U11" t="n">
-        <v>74.40098883111608</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,31 +23413,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8422011819769</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>152.0134901747186</v>
       </c>
       <c r="I13" t="n">
-        <v>120.903582129057</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.14056303940204</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>125.6401471873558</v>
       </c>
       <c r="S13" t="n">
         <v>203.9965274522831</v>
       </c>
       <c r="T13" t="n">
-        <v>91.34467693843169</v>
+        <v>223.0371735833133</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2563687286828</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>87.62144631946671</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.7417336315207</v>
       </c>
       <c r="H14" t="n">
-        <v>313.2469210927022</v>
+        <v>127.0744146868463</v>
       </c>
       <c r="I14" t="n">
         <v>111.7427873473656</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>172.391115623538</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>124.3486194830953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8422011819769</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.0134901747186</v>
       </c>
       <c r="I16" t="n">
         <v>120.903582129057</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.14056303940204</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>125.6401471873558</v>
       </c>
       <c r="S16" t="n">
-        <v>203.9965274522831</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2563687286828</v>
+        <v>71.43268698107531</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>231.3044607013798</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>150.6611935883845</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.8850550636098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>289.0126870137384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.8422011819769</v>
       </c>
       <c r="H19" t="n">
         <v>152.0134901747186</v>
@@ -23938,25 +23938,25 @@
         <v>125.6401471873558</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>203.9965274522831</v>
       </c>
       <c r="T19" t="n">
-        <v>223.0371735833133</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2563687286828</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>234.4936174563933</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>212.826612072444</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23969,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>5.867051709863006</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>111.7427873473656</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>211.8850550636098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1407725971474</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>39.26968735673739</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,19 +24136,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.0134901747186</v>
       </c>
       <c r="I22" t="n">
         <v>120.903582129057</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>12.14056303940205</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>125.6401471873558</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>203.9965274522831</v>
       </c>
       <c r="T22" t="n">
         <v>223.0371735833133</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2563687286828</v>
+        <v>156.6316396711076</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>198.9865692048783</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24224,7 +24224,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>111.7427873473656</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24254,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>150.6611935883845</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.8850550636098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1407725971474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>16.38320416931288</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>115.9069360377707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>85.4098034584311</v>
+        <v>191.1134841356899</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>147.4454399540888</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>147.4454399540883</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>313.2469210927022</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>144.0035534481606</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.8422011819769</v>
       </c>
       <c r="H28" t="n">
         <v>152.0134901747186</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>43.0822490874198</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>101.9594081562366</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>101.5547882395856</v>
       </c>
       <c r="H31" t="n">
-        <v>62.57579579817155</v>
+        <v>86.7260772323274</v>
       </c>
       <c r="I31" t="n">
-        <v>55.61616918666577</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>138.7091145098919</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24895,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>186.8502303814368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>0.2137958383120235</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>153.2972404097036</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>83.32806007582113</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>81.14654970417794</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>80.13363508054002</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>55.61616918666574</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>130.0318270198169</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>143.5268958289604</v>
       </c>
       <c r="X34" t="n">
-        <v>160.422242446646</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.2972404097036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>101.9594081562366</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>83.32806007582116</v>
+        <v>83.32806007582113</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>80.13363508054005</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>63.96437464953041</v>
       </c>
       <c r="I37" t="n">
-        <v>55.61616918666577</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>138.7091145098918</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>157.7497606409221</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>122.7140373769023</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>81.14654970417794</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>33.41228337155742</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>86.72607723232743</v>
+        <v>86.7260772323274</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>55.61616918666575</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>186.8502303814368</v>
       </c>
       <c r="W40" t="n">
-        <v>170.1750022624019</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>114.5445672395461</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>101.9594081562366</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>83.32806007582116</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>27.950370972932</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>55.61616918666578</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.35273424496463</v>
+        <v>60.3527342449646</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>138.7091145098918</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>157.7497606409221</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>86.93970048038702</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>83.03259893949013</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>150.6611935883845</v>
       </c>
       <c r="T44" t="n">
-        <v>211.8850550636098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1407725971474</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>290.4104599538853</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8422011819769</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>152.0134901747186</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>120.903582129057</v>
@@ -26071,10 +26071,10 @@
         <v>125.6401471873558</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>203.9965274522831</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>119.9894496010663</v>
       </c>
       <c r="U46" t="n">
         <v>286.2563687286828</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>32.37661282333826</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>734413.1200421164</v>
+        <v>734413.1200421165</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>734413.1200421163</v>
+        <v>734413.1200421165</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>734413.1200421165</v>
+        <v>734413.1200421164</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734413.1200421164</v>
+        <v>734413.1200421165</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849728.1891356861</v>
+        <v>849728.189135686</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849728.189135686</v>
+        <v>849728.1891356861</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849728.189135686</v>
+        <v>849728.1891356861</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849728.189135686</v>
+        <v>849728.1891356861</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734413.1200421165</v>
+        <v>734413.1200421164</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982122</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
@@ -26323,37 +26323,37 @@
         <v>521307.5020002643</v>
       </c>
       <c r="F2" t="n">
+        <v>521307.5020002642</v>
+      </c>
+      <c r="G2" t="n">
+        <v>521307.5020002644</v>
+      </c>
+      <c r="H2" t="n">
         <v>521307.5020002643</v>
-      </c>
-      <c r="G2" t="n">
-        <v>521307.5020002642</v>
-      </c>
-      <c r="H2" t="n">
-        <v>521307.5020002644</v>
       </c>
       <c r="I2" t="n">
         <v>521307.5020002641</v>
       </c>
       <c r="J2" t="n">
-        <v>521307.5020002644</v>
+        <v>521307.5020002642</v>
       </c>
       <c r="K2" t="n">
-        <v>607793.803820443</v>
+        <v>607793.8038204437</v>
       </c>
       <c r="L2" t="n">
+        <v>607793.8038204431</v>
+      </c>
+      <c r="M2" t="n">
         <v>607793.8038204432</v>
       </c>
-      <c r="M2" t="n">
-        <v>607793.8038204436</v>
-      </c>
       <c r="N2" t="n">
-        <v>607793.803820443</v>
+        <v>607793.8038204431</v>
       </c>
       <c r="O2" t="n">
-        <v>607793.8038204429</v>
+        <v>607793.8038204432</v>
       </c>
       <c r="P2" t="n">
-        <v>521307.5020002641</v>
+        <v>521307.5020002643</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266295</v>
+        <v>26613.58757266329</v>
       </c>
       <c r="E3" t="n">
-        <v>706817.6006981304</v>
+        <v>706817.6006981302</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
-        <v>52229.93035391296</v>
+        <v>52229.93035391298</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525643</v>
+        <v>5625.642228525715</v>
       </c>
       <c r="M3" t="n">
-        <v>178193.9624240632</v>
+        <v>178193.9624240631</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318217.3071073982</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="C4" t="n">
-        <v>318217.3071073981</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="D4" t="n">
-        <v>310100.0638036127</v>
+        <v>312850.0144568524</v>
       </c>
       <c r="E4" t="n">
-        <v>37421.54993306944</v>
+        <v>40003.03663231203</v>
       </c>
       <c r="F4" t="n">
-        <v>37421.54993306944</v>
+        <v>40003.03663231203</v>
       </c>
       <c r="G4" t="n">
-        <v>37421.54993306944</v>
+        <v>40003.03663231203</v>
       </c>
       <c r="H4" t="n">
-        <v>37421.54993306944</v>
+        <v>40003.03663231203</v>
       </c>
       <c r="I4" t="n">
-        <v>37421.54993306944</v>
+        <v>40003.03663231203</v>
       </c>
       <c r="J4" t="n">
-        <v>37421.54993306944</v>
+        <v>40003.03663231203</v>
       </c>
       <c r="K4" t="n">
-        <v>103397.0288368048</v>
+        <v>105978.5155360474</v>
       </c>
       <c r="L4" t="n">
-        <v>103397.0288368048</v>
+        <v>105978.5155360474</v>
       </c>
       <c r="M4" t="n">
-        <v>103397.0288368048</v>
+        <v>105978.5155360474</v>
       </c>
       <c r="N4" t="n">
-        <v>103397.0288368048</v>
+        <v>105978.5155360474</v>
       </c>
       <c r="O4" t="n">
-        <v>103397.0288368048</v>
+        <v>105978.5155360474</v>
       </c>
       <c r="P4" t="n">
-        <v>37421.54993306944</v>
+        <v>40003.03663231203</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
-        <v>73367.99616191683</v>
+        <v>73367.99616191685</v>
       </c>
       <c r="F5" t="n">
         <v>73367.99616191683</v>
@@ -26485,10 +26485,10 @@
         <v>73367.99616191683</v>
       </c>
       <c r="H5" t="n">
-        <v>73367.99616191685</v>
+        <v>73367.99616191683</v>
       </c>
       <c r="I5" t="n">
-        <v>73367.99616191685</v>
+        <v>73367.99616191683</v>
       </c>
       <c r="J5" t="n">
         <v>73367.99616191683</v>
@@ -26500,13 +26500,13 @@
         <v>78856.64368057072</v>
       </c>
       <c r="M5" t="n">
-        <v>78856.64368057071</v>
+        <v>78856.64368057072</v>
       </c>
       <c r="N5" t="n">
-        <v>78856.64368057071</v>
+        <v>78856.64368057073</v>
       </c>
       <c r="O5" t="n">
-        <v>78856.64368057071</v>
+        <v>78856.64368057073</v>
       </c>
       <c r="P5" t="n">
         <v>73367.99616191682</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168513.3199955046</v>
+        <v>165767.6741125474</v>
       </c>
       <c r="C6" t="n">
-        <v>249282.7515270528</v>
+        <v>246537.1056440949</v>
       </c>
       <c r="D6" t="n">
-        <v>228933.2686151035</v>
+        <v>226183.3179618635</v>
       </c>
       <c r="E6" t="n">
-        <v>-296299.6447928524</v>
+        <v>-298881.1314920948</v>
       </c>
       <c r="F6" t="n">
-        <v>410517.955905278</v>
+        <v>407936.4692060354</v>
       </c>
       <c r="G6" t="n">
-        <v>410517.955905278</v>
+        <v>407936.4692060355</v>
       </c>
       <c r="H6" t="n">
-        <v>410517.9559052781</v>
+        <v>407936.4692060354</v>
       </c>
       <c r="I6" t="n">
-        <v>410517.9559052779</v>
+        <v>407936.4692060353</v>
       </c>
       <c r="J6" t="n">
-        <v>347458.0133061719</v>
+        <v>344876.5266069291</v>
       </c>
       <c r="K6" t="n">
-        <v>373310.2009491545</v>
+        <v>370728.7142499126</v>
       </c>
       <c r="L6" t="n">
-        <v>419914.4890745421</v>
+        <v>417333.0023752993</v>
       </c>
       <c r="M6" t="n">
-        <v>247346.168879005</v>
+        <v>244764.682179762</v>
       </c>
       <c r="N6" t="n">
-        <v>425540.1313030675</v>
+        <v>422958.6446038249</v>
       </c>
       <c r="O6" t="n">
-        <v>425540.1313030674</v>
+        <v>422958.6446038251</v>
       </c>
       <c r="P6" t="n">
-        <v>410517.9559052778</v>
+        <v>407936.4692060355</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="L2" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="M2" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="N2" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="O2" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
-        <v>637.0497160490568</v>
+        <v>637.0497160490569</v>
       </c>
       <c r="F3" t="n">
-        <v>637.0497160490568</v>
+        <v>637.0497160490569</v>
       </c>
       <c r="G3" t="n">
         <v>637.0497160490568</v>
@@ -26793,10 +26793,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
-        <v>978.294611053411</v>
+        <v>978.2946110534112</v>
       </c>
       <c r="F4" t="n">
         <v>978.2946110534111</v>
@@ -26805,28 +26805,28 @@
         <v>978.2946110534111</v>
       </c>
       <c r="H4" t="n">
+        <v>978.2946110534111</v>
+      </c>
+      <c r="I4" t="n">
+        <v>978.2946110534111</v>
+      </c>
+      <c r="J4" t="n">
+        <v>978.294611053411</v>
+      </c>
+      <c r="K4" t="n">
+        <v>978.294611053411</v>
+      </c>
+      <c r="L4" t="n">
+        <v>978.294611053411</v>
+      </c>
+      <c r="M4" t="n">
+        <v>978.2946110534111</v>
+      </c>
+      <c r="N4" t="n">
         <v>978.2946110534112</v>
       </c>
-      <c r="I4" t="n">
+      <c r="O4" t="n">
         <v>978.2946110534112</v>
-      </c>
-      <c r="J4" t="n">
-        <v>978.2946110534111</v>
-      </c>
-      <c r="K4" t="n">
-        <v>978.2946110534111</v>
-      </c>
-      <c r="L4" t="n">
-        <v>978.2946110534111</v>
-      </c>
-      <c r="M4" t="n">
-        <v>978.294611053411</v>
-      </c>
-      <c r="N4" t="n">
-        <v>978.294611053411</v>
-      </c>
-      <c r="O4" t="n">
-        <v>978.294611053411</v>
       </c>
       <c r="P4" t="n">
         <v>978.294611053411</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
-        <v>614.0363333622674</v>
+        <v>614.0363333622672</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="E4" t="n">
-        <v>715.0525771017445</v>
+        <v>715.0525771017444</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="M4" t="n">
-        <v>715.0525771017445</v>
+        <v>715.0525771017444</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="M4" t="n">
-        <v>715.0525771017445</v>
+        <v>715.0525771017444</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27421,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>21.31709113084435</v>
       </c>
       <c r="V2" t="n">
-        <v>249.5514047743602</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>117.537634280846</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>193.2232502033493</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>129.0472453454436</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>142.54046403904</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>122.0921856319058</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,25 +27856,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901607</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205949</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521648</v>
+        <v>394.3529001414262</v>
       </c>
       <c r="H8" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
         <v>222.6908602868995</v>
@@ -27910,10 +27910,10 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>211.9808584672128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>37.60603736498216</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,16 +27983,16 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>42.84017828272002</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28029,13 +28029,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>30.72511533612143</v>
       </c>
       <c r="R10" t="n">
-        <v>15.59235192972153</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
         <v>223.2933741908973</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="C29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="D29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="E29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="F29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="G29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="H29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="I29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="T29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="U29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="V29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="W29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="X29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Y29" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="C31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="D31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="E31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="F31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="G31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="H31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="I31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="J31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="K31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="L31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="M31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="N31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="O31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="P31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="R31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="S31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="T31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="U31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="V31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="W31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="X31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="C32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="D32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="E32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="F32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="G32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="H32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="I32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="T32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="U32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="V32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="W32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="X32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Y32" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="C34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="D34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="E34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="F34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="G34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="H34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="I34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="J34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="K34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="L34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="M34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="N34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="O34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="P34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="R34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="S34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="T34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="U34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="V34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="W34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="X34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="C35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="D35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="E35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="F35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="G35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="H35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="I35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="T35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="U35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="V35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="W35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="X35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Y35" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="C37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="D37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="E37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="F37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="G37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="H37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="I37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="J37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="K37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="L37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="M37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="N37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="O37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="P37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="R37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="S37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="T37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="U37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="V37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="W37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="X37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Y37" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="C38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="D38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="E38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="F38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="G38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="H38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="I38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="T38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="U38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="V38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="W38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="X38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Y38" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="C40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="D40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="E40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="F40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="G40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="H40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="I40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="J40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="K40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="L40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="M40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="N40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="O40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="P40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="R40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="S40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="T40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="U40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="V40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="W40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="X40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="C41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="D41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="E41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="F41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="G41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="H41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="I41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="T41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="U41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="V41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="W41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="X41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Y41" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="C43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="D43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="E43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="F43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="G43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="H43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="I43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="J43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="K43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="L43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="M43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="N43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="O43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="P43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="R43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="S43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="T43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="U43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="V43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="W43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="X43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.2874129423912</v>
+        <v>65.28741294239123</v>
       </c>
     </row>
     <row r="44">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.09251611130367679</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887802</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>3.566727381035003</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760445</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324509</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>15.58792394841739</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544934</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679593</v>
       </c>
       <c r="S8" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.4049892772318454</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294142</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.4780704592104788</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246499</v>
+        <v>4.67671015524656</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750316</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>10.74790103688227</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522959</v>
+        <v>9.452421277523081</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210614</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>3.073372125605604</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.919449770552396</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.1995216857467892</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994849</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259059</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166742</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471355</v>
+        <v>6.169850171471434</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988743</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815848031</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150904</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131886</v>
+        <v>5.01918103713195</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750111</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815375</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,25 +31753,25 @@
         <v>2.561003883614297</v>
       </c>
       <c r="H11" t="n">
-        <v>26.22788102306492</v>
+        <v>26.22788102306493</v>
       </c>
       <c r="I11" t="n">
-        <v>98.73310222304026</v>
+        <v>98.73310222304029</v>
       </c>
       <c r="J11" t="n">
         <v>217.3620033669091</v>
       </c>
       <c r="K11" t="n">
-        <v>325.7692977603023</v>
+        <v>325.7692977603024</v>
       </c>
       <c r="L11" t="n">
         <v>404.1456203634635</v>
       </c>
       <c r="M11" t="n">
-        <v>449.6898731786892</v>
+        <v>449.6898731786893</v>
       </c>
       <c r="N11" t="n">
-        <v>456.9663254630083</v>
+        <v>456.9663254630084</v>
       </c>
       <c r="O11" t="n">
         <v>431.5003430953187</v>
@@ -31786,7 +31786,7 @@
         <v>160.8726602040867</v>
       </c>
       <c r="S11" t="n">
-        <v>58.35887599786084</v>
+        <v>58.35887599786086</v>
       </c>
       <c r="T11" t="n">
         <v>11.21079450052159</v>
@@ -31838,19 +31838,19 @@
         <v>47.17773840551978</v>
       </c>
       <c r="J12" t="n">
-        <v>129.4593201265352</v>
+        <v>129.4593201265353</v>
       </c>
       <c r="K12" t="n">
-        <v>221.2665980733785</v>
+        <v>221.2665980733786</v>
       </c>
       <c r="L12" t="n">
-        <v>297.5202471038543</v>
+        <v>297.5202471038544</v>
       </c>
       <c r="M12" t="n">
-        <v>347.1920952467359</v>
+        <v>347.192095246736</v>
       </c>
       <c r="N12" t="n">
-        <v>356.3812369055945</v>
+        <v>356.3812369055946</v>
       </c>
       <c r="O12" t="n">
         <v>326.0192070425772</v>
@@ -31862,16 +31862,16 @@
         <v>174.9122163763373</v>
       </c>
       <c r="R12" t="n">
-        <v>85.07618660745709</v>
+        <v>85.0761866074571</v>
       </c>
       <c r="S12" t="n">
         <v>25.45193912705428</v>
       </c>
       <c r="T12" t="n">
-        <v>5.523100840085688</v>
+        <v>5.523100840085689</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09014854472392317</v>
+        <v>0.09014854472392318</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,16 +31914,16 @@
         <v>10.21368233272095</v>
       </c>
       <c r="I13" t="n">
-        <v>34.54689279820131</v>
+        <v>34.54689279820132</v>
       </c>
       <c r="J13" t="n">
-        <v>81.21861707727072</v>
+        <v>81.21861707727074</v>
       </c>
       <c r="K13" t="n">
-        <v>133.4671372312613</v>
+        <v>133.4671372312614</v>
       </c>
       <c r="L13" t="n">
-        <v>170.7919845289553</v>
+        <v>170.7919845289554</v>
       </c>
       <c r="M13" t="n">
         <v>180.0762008825227</v>
@@ -31938,10 +31938,10 @@
         <v>138.9394987265024</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.19450712340758</v>
+        <v>96.19450712340759</v>
       </c>
       <c r="R13" t="n">
-        <v>51.65324418981367</v>
+        <v>51.65324418981368</v>
       </c>
       <c r="S13" t="n">
         <v>20.0200705846892</v>
@@ -31950,7 +31950,7 @@
         <v>4.908415844968141</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06266062780810401</v>
+        <v>0.06266062780810402</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,25 +31990,25 @@
         <v>2.561003883614297</v>
       </c>
       <c r="H14" t="n">
-        <v>26.22788102306492</v>
+        <v>26.22788102306493</v>
       </c>
       <c r="I14" t="n">
-        <v>98.73310222304026</v>
+        <v>98.73310222304029</v>
       </c>
       <c r="J14" t="n">
         <v>217.3620033669091</v>
       </c>
       <c r="K14" t="n">
-        <v>325.7692977603023</v>
+        <v>325.7692977603024</v>
       </c>
       <c r="L14" t="n">
         <v>404.1456203634635</v>
       </c>
       <c r="M14" t="n">
-        <v>449.6898731786892</v>
+        <v>449.6898731786893</v>
       </c>
       <c r="N14" t="n">
-        <v>456.9663254630083</v>
+        <v>456.9663254630084</v>
       </c>
       <c r="O14" t="n">
         <v>431.5003430953187</v>
@@ -32023,7 +32023,7 @@
         <v>160.8726602040867</v>
       </c>
       <c r="S14" t="n">
-        <v>58.35887599786084</v>
+        <v>58.35887599786086</v>
       </c>
       <c r="T14" t="n">
         <v>11.21079450052159</v>
@@ -32075,19 +32075,19 @@
         <v>47.17773840551978</v>
       </c>
       <c r="J15" t="n">
-        <v>129.4593201265352</v>
+        <v>129.4593201265353</v>
       </c>
       <c r="K15" t="n">
-        <v>221.2665980733785</v>
+        <v>221.2665980733786</v>
       </c>
       <c r="L15" t="n">
-        <v>297.5202471038543</v>
+        <v>297.5202471038544</v>
       </c>
       <c r="M15" t="n">
-        <v>347.1920952467359</v>
+        <v>347.192095246736</v>
       </c>
       <c r="N15" t="n">
-        <v>356.3812369055945</v>
+        <v>356.3812369055946</v>
       </c>
       <c r="O15" t="n">
         <v>326.0192070425772</v>
@@ -32099,16 +32099,16 @@
         <v>174.9122163763373</v>
       </c>
       <c r="R15" t="n">
-        <v>85.07618660745709</v>
+        <v>85.0761866074571</v>
       </c>
       <c r="S15" t="n">
         <v>25.45193912705428</v>
       </c>
       <c r="T15" t="n">
-        <v>5.523100840085688</v>
+        <v>5.523100840085689</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09014854472392317</v>
+        <v>0.09014854472392318</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,16 +32151,16 @@
         <v>10.21368233272095</v>
       </c>
       <c r="I16" t="n">
-        <v>34.54689279820131</v>
+        <v>34.54689279820132</v>
       </c>
       <c r="J16" t="n">
-        <v>81.21861707727072</v>
+        <v>81.21861707727074</v>
       </c>
       <c r="K16" t="n">
-        <v>133.4671372312613</v>
+        <v>133.4671372312614</v>
       </c>
       <c r="L16" t="n">
-        <v>170.7919845289553</v>
+        <v>170.7919845289554</v>
       </c>
       <c r="M16" t="n">
         <v>180.0762008825227</v>
@@ -32175,10 +32175,10 @@
         <v>138.9394987265024</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.19450712340758</v>
+        <v>96.19450712340759</v>
       </c>
       <c r="R16" t="n">
-        <v>51.65324418981367</v>
+        <v>51.65324418981368</v>
       </c>
       <c r="S16" t="n">
         <v>20.0200705846892</v>
@@ -32187,7 +32187,7 @@
         <v>4.908415844968141</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06266062780810401</v>
+        <v>0.06266062780810402</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194291</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894758</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.657704983214583</v>
+        <v>3.930118828988703</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>203.7667864659613</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178749</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082925</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507654</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>30.4508996191905</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025438</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>205.4127140122966</v>
       </c>
       <c r="K11" t="n">
-        <v>429.8248592864865</v>
+        <v>429.8248592864866</v>
       </c>
       <c r="L11" t="n">
         <v>586.0404199439267</v>
       </c>
       <c r="M11" t="n">
-        <v>668.8571734442489</v>
+        <v>668.857173444249</v>
       </c>
       <c r="N11" t="n">
         <v>664.9001862784016</v>
@@ -35431,7 +35431,7 @@
         <v>266.5689089221088</v>
       </c>
       <c r="R11" t="n">
-        <v>11.00354226293703</v>
+        <v>11.00354226293706</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.621693459868538</v>
+        <v>2.621693459868567</v>
       </c>
       <c r="K12" t="n">
-        <v>347.8903961115981</v>
+        <v>83.4251590990196</v>
       </c>
       <c r="L12" t="n">
-        <v>529.8062126274393</v>
+        <v>394.9201235071656</v>
       </c>
       <c r="M12" t="n">
-        <v>222.214116909633</v>
+        <v>670.7631250747175</v>
       </c>
       <c r="N12" t="n">
-        <v>225.0395248222612</v>
+        <v>704.3818991658147</v>
       </c>
       <c r="O12" t="n">
-        <v>577.2852818748622</v>
+        <v>577.2852818748623</v>
       </c>
       <c r="P12" t="n">
-        <v>446.1475172382846</v>
+        <v>127.6847485983475</v>
       </c>
       <c r="Q12" t="n">
-        <v>245.0077300261648</v>
+        <v>34.9304422903158</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>136.2180579913959</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.03246387171319</v>
+        <v>10.0324638717132</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>205.4127140122966</v>
       </c>
       <c r="K14" t="n">
-        <v>429.8248592864865</v>
+        <v>429.8248592864866</v>
       </c>
       <c r="L14" t="n">
         <v>586.0404199439267</v>
       </c>
       <c r="M14" t="n">
-        <v>668.8571734442489</v>
+        <v>668.857173444249</v>
       </c>
       <c r="N14" t="n">
         <v>664.9001862784016</v>
@@ -35668,7 +35668,7 @@
         <v>266.5689089221088</v>
       </c>
       <c r="R14" t="n">
-        <v>11.0035422629378</v>
+        <v>11.00354226293706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>128.7127288002774</v>
+        <v>2.621693459868567</v>
       </c>
       <c r="K15" t="n">
-        <v>347.8903961115981</v>
+        <v>83.4251590990196</v>
       </c>
       <c r="L15" t="n">
-        <v>158.9658673239801</v>
+        <v>529.8062126274394</v>
       </c>
       <c r="M15" t="n">
-        <v>670.7631250747174</v>
+        <v>670.7631250747175</v>
       </c>
       <c r="N15" t="n">
-        <v>549.7798829960134</v>
+        <v>704.3818991658147</v>
       </c>
       <c r="O15" t="n">
-        <v>577.2852818748622</v>
+        <v>442.3991927545889</v>
       </c>
       <c r="P15" t="n">
         <v>127.6847485983475</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.93044229031574</v>
+        <v>34.9304422903158</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>136.2180579913959</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.03246387171319</v>
+        <v>10.0324638717132</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>2.621693459868538</v>
       </c>
       <c r="K18" t="n">
-        <v>279.5663966296892</v>
+        <v>83.42515909901954</v>
       </c>
       <c r="L18" t="n">
-        <v>529.8062126274393</v>
+        <v>394.9201235071661</v>
       </c>
       <c r="M18" t="n">
-        <v>205.0580613247176</v>
+        <v>670.7631250747174</v>
       </c>
       <c r="N18" t="n">
         <v>704.3818991658147</v>
       </c>
       <c r="O18" t="n">
-        <v>183.4229625981328</v>
+        <v>577.2852818748622</v>
       </c>
       <c r="P18" t="n">
-        <v>446.1475172382846</v>
+        <v>127.6847485983475</v>
       </c>
       <c r="Q18" t="n">
-        <v>245.0077300261648</v>
+        <v>34.93044229031574</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>83.42515909901954</v>
       </c>
       <c r="L21" t="n">
-        <v>529.8062126274393</v>
+        <v>394.9201235071661</v>
       </c>
       <c r="M21" t="n">
         <v>670.7631250747174</v>
       </c>
       <c r="N21" t="n">
-        <v>225.0395248222612</v>
+        <v>704.3818991658147</v>
       </c>
       <c r="O21" t="n">
-        <v>393.2015107223562</v>
+        <v>577.2852818748622</v>
       </c>
       <c r="P21" t="n">
-        <v>446.1475172382846</v>
+        <v>127.6847485983475</v>
       </c>
       <c r="Q21" t="n">
-        <v>245.0077300261648</v>
+        <v>34.93044229031574</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.52063588047559</v>
+        <v>2.621693459868538</v>
       </c>
       <c r="K24" t="n">
         <v>83.42515909901954</v>
       </c>
       <c r="L24" t="n">
-        <v>529.8062126274393</v>
+        <v>394.9201235071661</v>
       </c>
       <c r="M24" t="n">
         <v>670.7631250747174</v>
@@ -36449,13 +36449,13 @@
         <v>704.3818991658147</v>
       </c>
       <c r="O24" t="n">
-        <v>183.4229625981328</v>
+        <v>577.2852818748622</v>
       </c>
       <c r="P24" t="n">
         <v>127.6847485983475</v>
       </c>
       <c r="Q24" t="n">
-        <v>245.0077300261648</v>
+        <v>34.93044229031574</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>128.7127288002774</v>
+        <v>2.621693459868538</v>
       </c>
       <c r="K27" t="n">
         <v>83.42515909901954</v>
       </c>
       <c r="L27" t="n">
-        <v>158.9658673239801</v>
+        <v>394.9201235071661</v>
       </c>
       <c r="M27" t="n">
         <v>670.7631250747174</v>
@@ -36686,10 +36686,10 @@
         <v>704.3818991658147</v>
       </c>
       <c r="O27" t="n">
-        <v>368.685734077702</v>
+        <v>577.2852818748622</v>
       </c>
       <c r="P27" t="n">
-        <v>446.1475172382846</v>
+        <v>127.6847485983475</v>
       </c>
       <c r="Q27" t="n">
         <v>34.93044229031574</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>128.7127288002774</v>
+        <v>2.621693459868538</v>
       </c>
       <c r="K30" t="n">
-        <v>347.8903961115981</v>
+        <v>83.42515909901954</v>
       </c>
       <c r="L30" t="n">
-        <v>529.8062126274393</v>
+        <v>394.9201235071661</v>
       </c>
       <c r="M30" t="n">
-        <v>220.7203142382491</v>
+        <v>670.7631250747174</v>
       </c>
       <c r="N30" t="n">
         <v>704.3818991658147</v>
       </c>
       <c r="O30" t="n">
-        <v>183.4229625981328</v>
+        <v>577.2852818748622</v>
       </c>
       <c r="P30" t="n">
-        <v>446.1475172382846</v>
+        <v>127.6847485983475</v>
       </c>
       <c r="Q30" t="n">
         <v>34.93044229031574</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.14684990298915</v>
+        <v>53.14684990298917</v>
       </c>
       <c r="K31" t="n">
         <v>176.4850583477697</v>
@@ -36996,7 +36996,7 @@
         <v>263.6694227316627</v>
       </c>
       <c r="M31" t="n">
-        <v>284.9474907867544</v>
+        <v>284.9474907867545</v>
       </c>
       <c r="N31" t="n">
         <v>285.2139766372555</v>
@@ -37008,7 +37008,7 @@
         <v>201.5054709337871</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.31987681410439</v>
+        <v>75.31987681410442</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>2.621693459868538</v>
       </c>
       <c r="K33" t="n">
-        <v>132.3241015196266</v>
+        <v>83.42515909901954</v>
       </c>
       <c r="L33" t="n">
         <v>529.8062126274393</v>
@@ -37160,13 +37160,13 @@
         <v>704.3818991658147</v>
       </c>
       <c r="O33" t="n">
-        <v>183.4229625981328</v>
+        <v>442.3991927545889</v>
       </c>
       <c r="P33" t="n">
         <v>127.6847485983475</v>
       </c>
       <c r="Q33" t="n">
-        <v>245.0077300261648</v>
+        <v>34.93044229031574</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>53.14684990298915</v>
+        <v>53.14684990298917</v>
       </c>
       <c r="K34" t="n">
         <v>176.4850583477697</v>
@@ -37233,7 +37233,7 @@
         <v>263.6694227316627</v>
       </c>
       <c r="M34" t="n">
-        <v>284.9474907867544</v>
+        <v>284.9474907867545</v>
       </c>
       <c r="N34" t="n">
         <v>285.2139766372555</v>
@@ -37245,7 +37245,7 @@
         <v>201.5054709337871</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.31987681410439</v>
+        <v>75.31987681410442</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>2.621693459868538</v>
       </c>
       <c r="K36" t="n">
-        <v>217.8041565864509</v>
+        <v>83.42515909901954</v>
       </c>
       <c r="L36" t="n">
-        <v>529.8062126274393</v>
+        <v>394.9201235071661</v>
       </c>
       <c r="M36" t="n">
         <v>670.7631250747174</v>
       </c>
       <c r="N36" t="n">
-        <v>225.0395248222612</v>
+        <v>704.3818991658147</v>
       </c>
       <c r="O36" t="n">
         <v>577.2852818748622</v>
@@ -37403,7 +37403,7 @@
         <v>127.6847485983475</v>
       </c>
       <c r="Q36" t="n">
-        <v>245.0077300261648</v>
+        <v>34.93044229031574</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>53.14684990298915</v>
+        <v>53.14684990298917</v>
       </c>
       <c r="K37" t="n">
         <v>176.4850583477697</v>
@@ -37470,7 +37470,7 @@
         <v>263.6694227316627</v>
       </c>
       <c r="M37" t="n">
-        <v>284.9474907867544</v>
+        <v>284.9474907867545</v>
       </c>
       <c r="N37" t="n">
         <v>285.2139766372555</v>
@@ -37482,7 +37482,7 @@
         <v>201.5054709337871</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.31987681410439</v>
+        <v>75.31987681410442</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>582.2023129363772</v>
       </c>
       <c r="P38" t="n">
-        <v>458.8412721348037</v>
+        <v>458.841272134805</v>
       </c>
       <c r="Q38" t="n">
         <v>266.5689089221087</v>
       </c>
       <c r="R38" t="n">
-        <v>11.00354226293734</v>
+        <v>11.003542262937</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>83.42515909901951</v>
       </c>
       <c r="L39" t="n">
-        <v>529.8062126274392</v>
+        <v>394.9201235071661</v>
       </c>
       <c r="M39" t="n">
         <v>670.7631250747174</v>
       </c>
       <c r="N39" t="n">
-        <v>251.0330414056046</v>
+        <v>704.3818991658147</v>
       </c>
       <c r="O39" t="n">
         <v>577.2852818748622</v>
       </c>
       <c r="P39" t="n">
-        <v>446.1475172382846</v>
+        <v>127.6847485983474</v>
       </c>
       <c r="Q39" t="n">
         <v>34.93044229031571</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>53.14684990298913</v>
+        <v>53.14684990298916</v>
       </c>
       <c r="K40" t="n">
         <v>176.4850583477697</v>
       </c>
       <c r="L40" t="n">
-        <v>263.6694227316626</v>
+        <v>263.6694227316627</v>
       </c>
       <c r="M40" t="n">
         <v>284.9474907867544</v>
@@ -37713,13 +37713,13 @@
         <v>285.2139766372555</v>
       </c>
       <c r="O40" t="n">
-        <v>252.2471143831642</v>
+        <v>252.2471143831643</v>
       </c>
       <c r="P40" t="n">
         <v>201.5054709337871</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.31987681410436</v>
+        <v>75.31987681410439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>429.8248592864865</v>
       </c>
       <c r="L41" t="n">
-        <v>586.0404199439265</v>
+        <v>586.0404199439281</v>
       </c>
       <c r="M41" t="n">
         <v>668.8571734442488</v>
@@ -37795,7 +37795,7 @@
         <v>582.2023129363772</v>
       </c>
       <c r="P41" t="n">
-        <v>458.8412721348041</v>
+        <v>458.8412721348037</v>
       </c>
       <c r="Q41" t="n">
         <v>266.5689089221087</v>
@@ -37859,22 +37859,22 @@
         <v>2.62169345986851</v>
       </c>
       <c r="K42" t="n">
-        <v>347.8903961115981</v>
+        <v>319.3794152822056</v>
       </c>
       <c r="L42" t="n">
-        <v>291.3344921982041</v>
+        <v>158.9658673239801</v>
       </c>
       <c r="M42" t="n">
         <v>670.7631250747174</v>
       </c>
       <c r="N42" t="n">
-        <v>225.0395248222611</v>
+        <v>704.3818991658147</v>
       </c>
       <c r="O42" t="n">
         <v>577.2852818748622</v>
       </c>
       <c r="P42" t="n">
-        <v>446.1475172382846</v>
+        <v>127.6847485983474</v>
       </c>
       <c r="Q42" t="n">
         <v>34.93044229031571</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>53.14684990298913</v>
+        <v>53.14684990298916</v>
       </c>
       <c r="K43" t="n">
         <v>176.4850583477697</v>
       </c>
       <c r="L43" t="n">
-        <v>263.6694227316626</v>
+        <v>263.6694227316627</v>
       </c>
       <c r="M43" t="n">
         <v>284.9474907867544</v>
@@ -37950,13 +37950,13 @@
         <v>285.2139766372555</v>
       </c>
       <c r="O43" t="n">
-        <v>252.2471143831642</v>
+        <v>252.2471143831643</v>
       </c>
       <c r="P43" t="n">
         <v>201.5054709337871</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.31987681410436</v>
+        <v>75.31987681410439</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>128.7127288002773</v>
+        <v>2.62169345986851</v>
       </c>
       <c r="K45" t="n">
-        <v>347.8903961115981</v>
+        <v>83.42515909901951</v>
       </c>
       <c r="L45" t="n">
-        <v>335.3911778051217</v>
+        <v>394.9201235071661</v>
       </c>
       <c r="M45" t="n">
-        <v>205.0580613247175</v>
+        <v>670.7631250747174</v>
       </c>
       <c r="N45" t="n">
         <v>704.3818991658147</v>
       </c>
       <c r="O45" t="n">
-        <v>183.4229625981327</v>
+        <v>577.2852818748622</v>
       </c>
       <c r="P45" t="n">
-        <v>446.1475172382846</v>
+        <v>127.6847485983474</v>
       </c>
       <c r="Q45" t="n">
-        <v>245.0077300261648</v>
+        <v>34.93044229031571</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2338153.752345997</v>
+        <v>2320284.572147516</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1703882.653759764</v>
+        <v>1703882.653759765</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8983438.845931437</v>
+        <v>8983438.845931435</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>88.93311775391584</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,16 +709,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>57.16776090941368</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>16.16726461546774</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.9063151287279</v>
       </c>
     </row>
     <row r="4">
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>178.157313031983</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,7 +913,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>225.2991865624186</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>16.27083488906038</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>200.160833108852</v>
       </c>
       <c r="D8" t="n">
-        <v>225.9570399944389</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>131.7659851933074</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.651863114966</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>271.5875629631174</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>44.7849949429853</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>67.91716896751456</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
         <v>152.7120966692326</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>216.4235197495091</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>22.38436165063755</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>114.3279329950241</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>104.635230384154</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>188.4467645963927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,10 +1861,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>79.24410319932986</v>
       </c>
       <c r="U17" t="n">
-        <v>168.059307564734</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>87.08843804454654</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,16 +2016,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.6958418817692</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>213.2079957369273</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>272.0153463167129</v>
+        <v>400.954118064915</v>
       </c>
       <c r="G20" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.651863114966</v>
@@ -2140,13 +2140,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958668</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>110.7648982273074</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>53.75214566690946</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>412.4198296272988</v>
       </c>
       <c r="H23" t="n">
         <v>309.9502217094637</v>
       </c>
       <c r="I23" t="n">
-        <v>99.33258322459723</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>210.475920285128</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1150202768096</v>
+        <v>59.34068568372761</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>208.4462256404225</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I24" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S24" t="n">
         <v>143.0320641923714</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>18.71399795382341</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U25" t="n">
-        <v>174.4682778376741</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>215.1017111486289</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>412.4198296272988</v>
       </c>
       <c r="H26" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>99.33258322459723</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>251.1150202768096</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>63.99777551425522</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S27" t="n">
         <v>143.0320641923714</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.420212896533</v>
+        <v>43.09952577070533</v>
       </c>
       <c r="U28" t="n">
-        <v>177.3376885955174</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>101.3766906153891</v>
       </c>
       <c r="D29" t="n">
-        <v>146.2512287263461</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I29" t="n">
-        <v>99.33258322459723</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T29" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.1150202768096</v>
@@ -2891,7 +2891,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I30" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S30" t="n">
         <v>143.0320641923714</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>143.8016643219868</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V31" t="n">
-        <v>47.6385628460009</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>220.6454950342163</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.4198296272988</v>
       </c>
       <c r="H32" t="n">
-        <v>309.9502217094637</v>
+        <v>85.48648576153333</v>
       </c>
       <c r="I32" t="n">
-        <v>99.33258322459723</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I33" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S33" t="n">
         <v>143.0320641923714</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T34" t="n">
         <v>222.420212896533</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2.860386108152282</v>
       </c>
       <c r="V34" t="n">
-        <v>19.90303141994652</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>219.4092797324214</v>
       </c>
       <c r="G35" t="n">
         <v>412.4198296272988</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I35" t="n">
-        <v>99.33258322459723</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U35" t="n">
-        <v>197.8364576060569</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I36" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S36" t="n">
         <v>143.0320641923714</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>116.5612290399729</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.931832696655036</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>122.7385130277566</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>113.5094088572417</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3511,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>118.0341689166425</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.4198296272988</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>309.9502217094637</v>
@@ -3556,7 +3556,7 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U38" t="n">
         <v>251.1150202768096</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>307.7788088650215</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I39" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.388042077384839</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S39" t="n">
         <v>143.0320641923714</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.697806127624</v>
+        <v>139.960474207474</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T40" t="n">
-        <v>12.13895920432339</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>263.0447618434226</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3760,7 +3760,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>99.3325832245972</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>210.475920285128</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1150202768096</v>
+        <v>175.4191633243248</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I42" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906288</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.388042077384839</v>
+        <v>4.38804207738481</v>
       </c>
       <c r="S42" t="n">
         <v>143.0320641923714</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>17.48653256754557</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>74.44491834803996</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H44" t="n">
-        <v>189.3798266460195</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.3325832245972</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>5.162574081601042</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4076,7 +4076,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I45" t="n">
-        <v>36.2889140190629</v>
+        <v>36.28891401906288</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>4.388042077384839</v>
+        <v>4.38804207738481</v>
       </c>
       <c r="S45" t="n">
         <v>143.0320641923714</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>140.5122218294829</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.44637423890592</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.2572196227447</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C2" t="n">
-        <v>290.2572196227447</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D2" t="n">
-        <v>290.2572196227447</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E2" t="n">
-        <v>290.2572196227447</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>348.0024326625565</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V2" t="n">
-        <v>290.2572196227447</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W2" t="n">
-        <v>290.2572196227447</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X2" t="n">
-        <v>290.2572196227447</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y2" t="n">
-        <v>290.2572196227447</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.61171342886701</v>
+        <v>641.3909951282167</v>
       </c>
       <c r="C3" t="n">
-        <v>35.61171342886701</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>619.4388494194218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>411.587349213889</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.827050448935</v>
+        <v>809.6063321482848</v>
       </c>
     </row>
     <row r="4">
@@ -4524,10 +4524,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>784.1002736601483</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>540.6514970160482</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>528.7219208240474</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C6" t="n">
-        <v>528.7219208240474</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D6" t="n">
-        <v>528.7219208240474</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>369.484465818592</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W6" t="n">
-        <v>736.4822195890013</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X6" t="n">
-        <v>736.4822195890013</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y6" t="n">
-        <v>528.7219208240474</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="7">
@@ -4749,25 +4749,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D8" t="n">
-        <v>725.7261058045921</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E8" t="n">
-        <v>725.7261058045921</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4895,10 +4895,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>227.1326433157456</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1339.981567507181</v>
+        <v>2094.732337045837</v>
       </c>
       <c r="C11" t="n">
-        <v>1339.981567507181</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="D11" t="n">
-        <v>1339.981567507181</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E11" t="n">
         <v>1339.981567507181</v>
@@ -5041,25 +5041,25 @@
         <v>73.99179512662052</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K11" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604015</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389911</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O11" t="n">
         <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
         <v>3699.589756331025</v>
@@ -5068,25 +5068,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T11" t="n">
-        <v>3328.574857095565</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U11" t="n">
-        <v>3074.883153840716</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V11" t="n">
-        <v>2743.820266497145</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W11" t="n">
-        <v>2391.051611227031</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="X11" t="n">
-        <v>2116.720739547114</v>
+        <v>2526.569545739237</v>
       </c>
       <c r="Y11" t="n">
-        <v>1726.581407571302</v>
+        <v>2481.332177109959</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>522.0794512893251</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.440991155443</v>
+        <v>843.6704145912394</v>
       </c>
       <c r="M12" t="n">
-        <v>1205.938327510047</v>
+        <v>1484.215764058343</v>
       </c>
       <c r="N12" t="n">
-        <v>1452.219619273625</v>
+        <v>2157.421456311125</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026347</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P12" t="n">
         <v>2425.623396507183</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>228.2464382268554</v>
+        <v>715.9061055717146</v>
       </c>
       <c r="C13" t="n">
-        <v>228.2464382268554</v>
+        <v>546.9699226438078</v>
       </c>
       <c r="D13" t="n">
-        <v>228.2464382268554</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="E13" t="n">
-        <v>228.2464382268554</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="F13" t="n">
-        <v>228.2464382268554</v>
+        <v>396.8532832314721</v>
       </c>
       <c r="G13" t="n">
         <v>228.2464382268554</v>
@@ -5223,28 +5223,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>943.4485153053654</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>736.0082305577707</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>517.3986146491757</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>228.2464382268554</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V13" t="n">
-        <v>228.2464382268554</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W13" t="n">
-        <v>228.2464382268554</v>
+        <v>784.5093065490021</v>
       </c>
       <c r="X13" t="n">
-        <v>228.2464382268554</v>
+        <v>784.5093065490021</v>
       </c>
       <c r="Y13" t="n">
-        <v>228.2464382268554</v>
+        <v>784.5093065490021</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2452.998035652587</v>
+        <v>1611.861580161478</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.035518712175</v>
+        <v>1242.899063221066</v>
       </c>
       <c r="D14" t="n">
-        <v>1725.769820105425</v>
+        <v>1242.899063221066</v>
       </c>
       <c r="E14" t="n">
-        <v>1339.981567507181</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F14" t="n">
-        <v>928.9956627175731</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G14" t="n">
-        <v>511.9078809540005</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H14" t="n">
-        <v>193.68476572651</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K14" t="n">
         <v>666.098807160401</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389909</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O14" t="n">
         <v>3025.098749216832</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556126</v>
       </c>
       <c r="Q14" t="n">
         <v>3699.589756331025</v>
@@ -5305,25 +5305,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U14" t="n">
-        <v>3289.683015573004</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V14" t="n">
-        <v>2958.620128229433</v>
+        <v>3114.835165732606</v>
       </c>
       <c r="W14" t="n">
-        <v>2843.137367628399</v>
+        <v>2762.066510462491</v>
       </c>
       <c r="X14" t="n">
-        <v>2843.137367628399</v>
+        <v>2388.600752201412</v>
       </c>
       <c r="Y14" t="n">
-        <v>2452.998035652587</v>
+        <v>1998.4614202256</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
         <v>220.8126299914996</v>
@@ -5354,25 +5354,25 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266205</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K15" t="n">
-        <v>403.4201994324298</v>
+        <v>260.2588666468724</v>
       </c>
       <c r="L15" t="n">
-        <v>540.6497974481231</v>
+        <v>397.4884646625656</v>
       </c>
       <c r="M15" t="n">
-        <v>1181.195146915227</v>
+        <v>1038.03381412967</v>
       </c>
       <c r="N15" t="n">
-        <v>1854.400839168009</v>
+        <v>1711.239506382451</v>
       </c>
       <c r="O15" t="n">
-        <v>2013.913151836768</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
         <v>2425.623396507183</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>368.7948362069239</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="C16" t="n">
-        <v>368.7948362069239</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="D16" t="n">
-        <v>368.7948362069239</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="E16" t="n">
-        <v>220.8817426245309</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266205</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266205</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266205</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K16" t="n">
         <v>175.03972472223</v>
@@ -5469,19 +5469,19 @@
         <v>848.2972798983277</v>
       </c>
       <c r="U16" t="n">
-        <v>559.1451034760075</v>
+        <v>742.6051279951419</v>
       </c>
       <c r="V16" t="n">
-        <v>559.1451034760075</v>
+        <v>487.9206397892549</v>
       </c>
       <c r="W16" t="n">
-        <v>559.1451034760075</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="X16" t="n">
-        <v>559.1451034760075</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="Y16" t="n">
-        <v>368.7948362069239</v>
+        <v>198.5034697522943</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1698.247266113931</v>
+        <v>1629.293697226963</v>
       </c>
       <c r="C17" t="n">
-        <v>1698.247266113931</v>
+        <v>1260.331180286551</v>
       </c>
       <c r="D17" t="n">
-        <v>1339.981567507181</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="E17" t="n">
-        <v>1339.981567507181</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F17" t="n">
-        <v>928.9956627175731</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G17" t="n">
-        <v>511.9078809540005</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H17" t="n">
-        <v>193.68476572651</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I17" t="n">
         <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
         <v>666.0988071604011</v>
@@ -5545,22 +5545,22 @@
         <v>3543.374718827853</v>
       </c>
       <c r="T17" t="n">
-        <v>3328.574857095564</v>
+        <v>3463.330170141661</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.81798076755</v>
+        <v>3463.330170141661</v>
       </c>
       <c r="V17" t="n">
-        <v>2827.755093423979</v>
+        <v>3132.26728279809</v>
       </c>
       <c r="W17" t="n">
-        <v>2474.986438153865</v>
+        <v>2779.498627527976</v>
       </c>
       <c r="X17" t="n">
-        <v>2474.986438153865</v>
+        <v>2406.032869266896</v>
       </c>
       <c r="Y17" t="n">
-        <v>2084.847106178053</v>
+        <v>2015.893537291084</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>192.6510469835158</v>
       </c>
       <c r="K18" t="n">
-        <v>462.2869926505464</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L18" t="n">
-        <v>599.5165906662396</v>
+        <v>843.6704145912399</v>
       </c>
       <c r="M18" t="n">
-        <v>779.0139270208435</v>
+        <v>1484.215764058344</v>
       </c>
       <c r="N18" t="n">
-        <v>1452.219619273625</v>
+        <v>2157.421456311125</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.655628026347</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P18" t="n">
         <v>2425.623396507183</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>348.4413471275157</v>
+        <v>348.62010916463</v>
       </c>
       <c r="C19" t="n">
-        <v>348.4413471275157</v>
+        <v>348.62010916463</v>
       </c>
       <c r="D19" t="n">
-        <v>260.4732278906</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="E19" t="n">
-        <v>260.4732278906</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="F19" t="n">
-        <v>260.4732278906</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="G19" t="n">
-        <v>91.86638288598333</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="H19" t="n">
-        <v>91.86638288598333</v>
+        <v>198.5034697522943</v>
       </c>
       <c r="I19" t="n">
-        <v>91.86638288598333</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
         <v>73.9917951266205</v>
@@ -5709,16 +5709,16 @@
         <v>784.7743001636422</v>
       </c>
       <c r="V19" t="n">
-        <v>530.0898119577554</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="W19" t="n">
-        <v>530.0898119577554</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="X19" t="n">
-        <v>530.0898119577554</v>
+        <v>569.4126883081601</v>
       </c>
       <c r="Y19" t="n">
-        <v>530.0898119577554</v>
+        <v>348.62010916463</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1958.509408333717</v>
+        <v>1770.527476690269</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.546891393305</v>
+        <v>1401.564959749857</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.546891393305</v>
+        <v>1401.564959749857</v>
       </c>
       <c r="E20" t="n">
-        <v>1203.758638795061</v>
+        <v>1015.776707151613</v>
       </c>
       <c r="F20" t="n">
-        <v>928.9956627175729</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G20" t="n">
-        <v>511.9078809540003</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H20" t="n">
-        <v>193.6847657265099</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J20" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604023</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.93754444976</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216837</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>3543.37471882786</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T20" t="n">
-        <v>3328.574857095572</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U20" t="n">
-        <v>3074.883153840723</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V20" t="n">
-        <v>3074.883153840723</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W20" t="n">
-        <v>2722.114498570608</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="X20" t="n">
-        <v>2348.648740309528</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="Y20" t="n">
-        <v>1958.509408333717</v>
+        <v>2157.12731675439</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
         <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363042</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J21" t="n">
-        <v>73.99179512662064</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K21" t="n">
-        <v>141.5996147899776</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L21" t="n">
-        <v>645.9611546560961</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1286.506504123201</v>
+        <v>1643.486573704924</v>
       </c>
       <c r="N21" t="n">
-        <v>1959.712196375983</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O21" t="n">
-        <v>2209.632142884836</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.33685256765</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
         <v>2635.224952969837</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.99179512662064</v>
+        <v>335.992170122095</v>
       </c>
       <c r="C22" t="n">
-        <v>73.99179512662064</v>
+        <v>224.1084345389562</v>
       </c>
       <c r="D22" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E22" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F22" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G22" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H22" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J22" t="n">
-        <v>73.99179512662064</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K22" t="n">
-        <v>175.0397247222304</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8727196230487</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422867</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783909</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669898</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P22" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>866.4861918383706</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>866.4861918383706</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>812.1910952051287</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V22" t="n">
-        <v>812.1910952051287</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="W22" t="n">
-        <v>522.773925168168</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="X22" t="n">
-        <v>294.7843742701507</v>
+        <v>556.7847492656251</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.99179512662064</v>
+        <v>335.992170122095</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2023.532997047781</v>
+        <v>2054.330430941758</v>
       </c>
       <c r="C23" t="n">
-        <v>1654.570480107369</v>
+        <v>1685.367914001346</v>
       </c>
       <c r="D23" t="n">
-        <v>1296.304781500619</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="E23" t="n">
-        <v>910.5165289023746</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F23" t="n">
-        <v>499.5306241127671</v>
+        <v>916.1163106049883</v>
       </c>
       <c r="G23" t="n">
-        <v>499.5306241127671</v>
+        <v>499.5306241127672</v>
       </c>
       <c r="H23" t="n">
-        <v>186.4495920830057</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I23" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J23" t="n">
-        <v>316.5202242826242</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K23" t="n">
-        <v>782.5847574885288</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L23" t="n">
-        <v>1413.055650717816</v>
+        <v>1413.055650717817</v>
       </c>
       <c r="M23" t="n">
         <v>2131.182543644155</v>
@@ -6007,34 +6007,34 @@
         <v>3476.372603996238</v>
       </c>
       <c r="P23" t="n">
-        <v>3976.452759614949</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q23" t="n">
-        <v>4274.770370373405</v>
+        <v>4274.770370373407</v>
       </c>
       <c r="R23" t="n">
-        <v>4305.682471594871</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="S23" t="n">
-        <v>4160.908930087622</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T23" t="n">
-        <v>3948.306990405675</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U23" t="n">
-        <v>3694.655454772534</v>
+        <v>3888.366903856457</v>
       </c>
       <c r="V23" t="n">
-        <v>3363.592567428963</v>
+        <v>3557.304016512886</v>
       </c>
       <c r="W23" t="n">
-        <v>3010.823912158849</v>
+        <v>3204.535361242772</v>
       </c>
       <c r="X23" t="n">
-        <v>2800.272169087715</v>
+        <v>2831.069602981692</v>
       </c>
       <c r="Y23" t="n">
-        <v>2410.132837111903</v>
+        <v>2440.93027100588</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G24" t="n">
         <v>221.0905542041166</v>
@@ -6065,25 +6065,25 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I24" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J24" t="n">
-        <v>229.6488472869303</v>
+        <v>226.0251170320256</v>
       </c>
       <c r="K24" t="n">
-        <v>601.5942054859401</v>
+        <v>597.9704752310354</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.125036779466</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M24" t="n">
-        <v>1720.990650427217</v>
+        <v>1405.712509473679</v>
       </c>
       <c r="N24" t="n">
-        <v>1988.126976209845</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O24" t="n">
-        <v>2210.284729784828</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P24" t="n">
         <v>2369.252846559001</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>254.4952717830328</v>
+        <v>520.7850258547033</v>
       </c>
       <c r="C25" t="n">
-        <v>254.4952717830328</v>
+        <v>501.8819976185181</v>
       </c>
       <c r="D25" t="n">
-        <v>254.4952717830328</v>
+        <v>351.7653582061823</v>
       </c>
       <c r="E25" t="n">
-        <v>254.4952717830328</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="F25" t="n">
-        <v>254.4952717830328</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="G25" t="n">
-        <v>86.11364943189741</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="H25" t="n">
-        <v>86.11364943189741</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I25" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J25" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K25" t="n">
-        <v>212.8076375348878</v>
+        <v>212.8076375348879</v>
       </c>
       <c r="L25" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962464</v>
       </c>
       <c r="M25" t="n">
-        <v>670.3304700620228</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N25" t="n">
-        <v>909.9331856692332</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O25" t="n">
         <v>1115.228778841303</v>
@@ -6171,28 +6171,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R25" t="n">
-        <v>1168.925155535959</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="S25" t="n">
-        <v>1168.925155535959</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T25" t="n">
-        <v>1168.925155535959</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="U25" t="n">
-        <v>992.6945718615409</v>
+        <v>775.4695140605902</v>
       </c>
       <c r="V25" t="n">
-        <v>992.6945718615409</v>
+        <v>520.7850258547033</v>
       </c>
       <c r="W25" t="n">
-        <v>703.2774018245802</v>
+        <v>520.7850258547033</v>
       </c>
       <c r="X25" t="n">
-        <v>475.2878509265629</v>
+        <v>520.7850258547033</v>
       </c>
       <c r="Y25" t="n">
-        <v>254.4952717830328</v>
+        <v>520.7850258547033</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1860.618981857836</v>
+        <v>2127.037651510241</v>
       </c>
       <c r="C26" t="n">
-        <v>1491.656464917425</v>
+        <v>1758.075134569829</v>
       </c>
       <c r="D26" t="n">
-        <v>1133.390766310674</v>
+        <v>1399.809435963079</v>
       </c>
       <c r="E26" t="n">
-        <v>1133.390766310674</v>
+        <v>1014.021183364834</v>
       </c>
       <c r="F26" t="n">
-        <v>916.1163106049883</v>
+        <v>603.0352785752268</v>
       </c>
       <c r="G26" t="n">
-        <v>499.5306241127672</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="H26" t="n">
         <v>186.4495920830058</v>
       </c>
       <c r="I26" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J26" t="n">
-        <v>316.5202242826239</v>
+        <v>316.5202242826242</v>
       </c>
       <c r="K26" t="n">
-        <v>782.5847574885285</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L26" t="n">
         <v>1413.055650717816</v>
@@ -6241,37 +6241,37 @@
         <v>2846.297482930779</v>
       </c>
       <c r="O26" t="n">
-        <v>3476.372603996237</v>
+        <v>3476.372603996238</v>
       </c>
       <c r="P26" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q26" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373407</v>
       </c>
       <c r="R26" t="n">
-        <v>4305.682471594871</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="S26" t="n">
-        <v>4160.908930087623</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T26" t="n">
-        <v>3948.306990405676</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U26" t="n">
         <v>3694.655454772535</v>
       </c>
       <c r="V26" t="n">
-        <v>3363.592567428964</v>
+        <v>3630.011237081369</v>
       </c>
       <c r="W26" t="n">
-        <v>3010.823912158849</v>
+        <v>3277.242581811254</v>
       </c>
       <c r="X26" t="n">
-        <v>2637.35815389777</v>
+        <v>2903.776823550174</v>
       </c>
       <c r="Y26" t="n">
-        <v>2247.218821921958</v>
+        <v>2513.637491574363</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I27" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J27" t="n">
-        <v>104.8187222999256</v>
+        <v>229.6488472869304</v>
       </c>
       <c r="K27" t="n">
-        <v>256.7524843589839</v>
+        <v>601.5942054859402</v>
       </c>
       <c r="L27" t="n">
-        <v>818.2833156525099</v>
+        <v>1163.125036779466</v>
       </c>
       <c r="M27" t="n">
-        <v>1064.494518601627</v>
+        <v>1409.336239728583</v>
       </c>
       <c r="N27" t="n">
-        <v>1806.179794984373</v>
+        <v>1676.472565511212</v>
       </c>
       <c r="O27" t="n">
-        <v>2418.261244643319</v>
+        <v>1898.630319086195</v>
       </c>
       <c r="P27" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q27" t="n">
         <v>2633.576141175236</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>255.0498323598043</v>
+        <v>835.9731109831349</v>
       </c>
       <c r="C28" t="n">
-        <v>86.11364943189743</v>
+        <v>667.036928055228</v>
       </c>
       <c r="D28" t="n">
-        <v>86.11364943189743</v>
+        <v>667.036928055228</v>
       </c>
       <c r="E28" t="n">
-        <v>86.11364943189743</v>
+        <v>519.1238344728349</v>
       </c>
       <c r="F28" t="n">
-        <v>86.11364943189743</v>
+        <v>372.2338869749246</v>
       </c>
       <c r="G28" t="n">
-        <v>86.11364943189743</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="H28" t="n">
-        <v>86.11364943189743</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I28" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J28" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K28" t="n">
-        <v>212.8076375348878</v>
+        <v>212.8076375348879</v>
       </c>
       <c r="L28" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962464</v>
       </c>
       <c r="M28" t="n">
-        <v>670.3304700620228</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N28" t="n">
-        <v>909.9331856692332</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O28" t="n">
         <v>1115.228778841303</v>
@@ -6408,28 +6408,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R28" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.925155535959</v>
       </c>
       <c r="S28" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.925155535959</v>
       </c>
       <c r="T28" t="n">
-        <v>1064.609405610902</v>
+        <v>1125.390281020095</v>
       </c>
       <c r="U28" t="n">
-        <v>885.4804272315915</v>
+        <v>1125.390281020095</v>
       </c>
       <c r="V28" t="n">
-        <v>885.4804272315915</v>
+        <v>1125.390281020095</v>
       </c>
       <c r="W28" t="n">
-        <v>885.4804272315915</v>
+        <v>835.9731109831349</v>
       </c>
       <c r="X28" t="n">
-        <v>657.4908763335742</v>
+        <v>835.9731109831349</v>
       </c>
       <c r="Y28" t="n">
-        <v>436.6982971900441</v>
+        <v>835.9731109831349</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1860.618981857836</v>
+        <v>2073.220921539784</v>
       </c>
       <c r="C29" t="n">
-        <v>1860.618981857836</v>
+        <v>1970.820223948482</v>
       </c>
       <c r="D29" t="n">
-        <v>1712.89046799284</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E29" t="n">
-        <v>1327.102215394596</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F29" t="n">
-        <v>916.1163106049883</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G29" t="n">
-        <v>499.5306241127672</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H29" t="n">
-        <v>186.4495920830058</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I29" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J29" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826242</v>
       </c>
       <c r="K29" t="n">
         <v>782.5847574885288</v>
@@ -6472,43 +6472,43 @@
         <v>1413.055650717816</v>
       </c>
       <c r="M29" t="n">
-        <v>2131.182543644154</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N29" t="n">
-        <v>2846.297482930779</v>
+        <v>2846.29748293078</v>
       </c>
       <c r="O29" t="n">
         <v>3476.372603996238</v>
       </c>
       <c r="P29" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q29" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373407</v>
       </c>
       <c r="R29" t="n">
-        <v>4305.682471594871</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="S29" t="n">
-        <v>4160.908930087623</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T29" t="n">
-        <v>3948.306990405676</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="U29" t="n">
-        <v>3694.655454772535</v>
+        <v>3907.257394454483</v>
       </c>
       <c r="V29" t="n">
-        <v>3363.592567428964</v>
+        <v>3576.194507110912</v>
       </c>
       <c r="W29" t="n">
-        <v>3010.823912158849</v>
+        <v>3223.425851840798</v>
       </c>
       <c r="X29" t="n">
-        <v>2637.35815389777</v>
+        <v>2849.960093579718</v>
       </c>
       <c r="Y29" t="n">
-        <v>2247.218821921958</v>
+        <v>2459.820761603906</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I30" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J30" t="n">
-        <v>104.8187222999256</v>
+        <v>229.6488472869304</v>
       </c>
       <c r="K30" t="n">
-        <v>214.9434958564825</v>
+        <v>597.9704752310354</v>
       </c>
       <c r="L30" t="n">
-        <v>503.0051746989722</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M30" t="n">
-        <v>749.2163776480893</v>
+        <v>1405.712509473679</v>
       </c>
       <c r="N30" t="n">
-        <v>1490.901654030835</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.983103689781</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P30" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q30" t="n">
         <v>2633.576141175236</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3565.704497133635</v>
+        <v>231.3678558177427</v>
       </c>
       <c r="C31" t="n">
-        <v>3565.704497133635</v>
+        <v>231.3678558177427</v>
       </c>
       <c r="D31" t="n">
-        <v>3565.704497133635</v>
+        <v>231.3678558177427</v>
       </c>
       <c r="E31" t="n">
-        <v>3417.791403551242</v>
+        <v>231.3678558177427</v>
       </c>
       <c r="F31" t="n">
-        <v>3270.901456053332</v>
+        <v>231.3678558177427</v>
       </c>
       <c r="G31" t="n">
-        <v>3102.519833702197</v>
+        <v>231.3678558177427</v>
       </c>
       <c r="H31" t="n">
-        <v>3102.519833702197</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I31" t="n">
-        <v>3102.519833702197</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J31" t="n">
-        <v>3102.519833702197</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K31" t="n">
-        <v>3229.213821805187</v>
+        <v>212.8076375348879</v>
       </c>
       <c r="L31" t="n">
-        <v>3446.864941966545</v>
+        <v>430.4587576962464</v>
       </c>
       <c r="M31" t="n">
-        <v>3686.736654332322</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N31" t="n">
-        <v>3926.339369939532</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O31" t="n">
-        <v>4131.634963111602</v>
+        <v>1115.228778841303</v>
       </c>
       <c r="P31" t="n">
-        <v>4283.780126751078</v>
+        <v>1267.373942480778</v>
       </c>
       <c r="Q31" t="n">
-        <v>4305.682471594871</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="R31" t="n">
-        <v>4305.682471594871</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="S31" t="n">
-        <v>4305.682471594871</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T31" t="n">
-        <v>4305.682471594871</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="U31" t="n">
-        <v>4305.682471594871</v>
+        <v>775.4695140605902</v>
       </c>
       <c r="V31" t="n">
-        <v>4257.562711144365</v>
+        <v>520.7850258547033</v>
       </c>
       <c r="W31" t="n">
-        <v>3968.145541107405</v>
+        <v>231.3678558177427</v>
       </c>
       <c r="X31" t="n">
-        <v>3968.145541107405</v>
+        <v>231.3678558177427</v>
       </c>
       <c r="Y31" t="n">
-        <v>3747.352961963875</v>
+        <v>231.3678558177427</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1860.618981857836</v>
+        <v>2213.387637127951</v>
       </c>
       <c r="C32" t="n">
-        <v>1491.656464917425</v>
+        <v>1844.42512018754</v>
       </c>
       <c r="D32" t="n">
-        <v>1133.390766310674</v>
+        <v>1486.159421580789</v>
       </c>
       <c r="E32" t="n">
-        <v>910.5165289023747</v>
+        <v>1100.371168982545</v>
       </c>
       <c r="F32" t="n">
-        <v>499.5306241127672</v>
+        <v>689.3852641929373</v>
       </c>
       <c r="G32" t="n">
-        <v>499.5306241127672</v>
+        <v>272.7995777007162</v>
       </c>
       <c r="H32" t="n">
         <v>186.4495920830058</v>
       </c>
       <c r="I32" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J32" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K32" t="n">
-        <v>782.5847574885283</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L32" t="n">
         <v>1413.055650717816</v>
@@ -6715,37 +6715,37 @@
         <v>2846.297482930779</v>
       </c>
       <c r="O32" t="n">
-        <v>3476.372603996237</v>
+        <v>3476.372603996238</v>
       </c>
       <c r="P32" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q32" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373407</v>
       </c>
       <c r="R32" t="n">
-        <v>4305.682471594871</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="S32" t="n">
-        <v>4160.908930087623</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T32" t="n">
-        <v>3948.306990405676</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U32" t="n">
         <v>3694.655454772535</v>
       </c>
       <c r="V32" t="n">
-        <v>3363.592567428964</v>
+        <v>3363.592567428965</v>
       </c>
       <c r="W32" t="n">
-        <v>3010.823912158849</v>
+        <v>3363.592567428965</v>
       </c>
       <c r="X32" t="n">
-        <v>2637.35815389777</v>
+        <v>2990.126809167885</v>
       </c>
       <c r="Y32" t="n">
-        <v>2247.218821921958</v>
+        <v>2599.987477192073</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I33" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J33" t="n">
-        <v>104.8187222999256</v>
+        <v>229.6488472869304</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9434958564825</v>
+        <v>339.7736208434874</v>
       </c>
       <c r="L33" t="n">
-        <v>409.342385299584</v>
+        <v>901.3044521370134</v>
       </c>
       <c r="M33" t="n">
-        <v>749.2163776480893</v>
+        <v>1147.515655086131</v>
       </c>
       <c r="N33" t="n">
-        <v>1490.901654030835</v>
+        <v>1414.651980868759</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.983103689781</v>
+        <v>2026.733430527705</v>
       </c>
       <c r="P33" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q33" t="n">
         <v>2633.576141175236</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3423.153665016252</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="C34" t="n">
-        <v>3423.153665016252</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="D34" t="n">
-        <v>3423.153665016252</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="E34" t="n">
-        <v>3423.153665016252</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="F34" t="n">
-        <v>3423.153665016252</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="G34" t="n">
-        <v>3254.772042665116</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="H34" t="n">
-        <v>3102.519833702197</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I34" t="n">
-        <v>3102.519833702197</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J34" t="n">
-        <v>3102.519833702197</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K34" t="n">
-        <v>3229.213821805187</v>
+        <v>212.8076375348879</v>
       </c>
       <c r="L34" t="n">
-        <v>3446.864941966545</v>
+        <v>430.4587576962464</v>
       </c>
       <c r="M34" t="n">
-        <v>3686.736654332322</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N34" t="n">
-        <v>3926.339369939532</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O34" t="n">
-        <v>4131.634963111602</v>
+        <v>1115.228778841303</v>
       </c>
       <c r="P34" t="n">
-        <v>4283.780126751078</v>
+        <v>1267.373942480778</v>
       </c>
       <c r="Q34" t="n">
-        <v>4305.682471594871</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="R34" t="n">
-        <v>4185.331339806259</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="S34" t="n">
-        <v>4185.331339806259</v>
+        <v>1085.761019183555</v>
       </c>
       <c r="T34" t="n">
-        <v>3960.664458092589</v>
+        <v>861.0941374698857</v>
       </c>
       <c r="U34" t="n">
-        <v>3960.664458092589</v>
+        <v>858.2048585727622</v>
       </c>
       <c r="V34" t="n">
-        <v>3940.560385951229</v>
+        <v>603.5203703668753</v>
       </c>
       <c r="W34" t="n">
-        <v>3651.143215914269</v>
+        <v>314.1032003299148</v>
       </c>
       <c r="X34" t="n">
-        <v>3423.153665016252</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="Y34" t="n">
-        <v>3423.153665016252</v>
+        <v>86.11364943189744</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2127.037651510241</v>
+        <v>2250.758313833649</v>
       </c>
       <c r="C35" t="n">
-        <v>1758.075134569829</v>
+        <v>1881.795796893237</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.809435963079</v>
+        <v>1523.530098286486</v>
       </c>
       <c r="E35" t="n">
-        <v>1014.021183364834</v>
+        <v>1137.741845688242</v>
       </c>
       <c r="F35" t="n">
-        <v>603.0352785752268</v>
+        <v>916.1163106049883</v>
       </c>
       <c r="G35" t="n">
-        <v>186.4495920830058</v>
+        <v>499.5306241127672</v>
       </c>
       <c r="H35" t="n">
         <v>186.4495920830058</v>
       </c>
       <c r="I35" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J35" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K35" t="n">
-        <v>782.5847574885287</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L35" t="n">
-        <v>1413.055650717816</v>
+        <v>1413.055650717817</v>
       </c>
       <c r="M35" t="n">
-        <v>2131.182543644154</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N35" t="n">
-        <v>2846.297482930779</v>
+        <v>2846.29748293078</v>
       </c>
       <c r="O35" t="n">
         <v>3476.372603996238</v>
       </c>
       <c r="P35" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q35" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373407</v>
       </c>
       <c r="R35" t="n">
-        <v>4305.682471594871</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="S35" t="n">
-        <v>4160.908930087623</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T35" t="n">
-        <v>4160.908930087623</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U35" t="n">
-        <v>3961.074124424939</v>
+        <v>3694.655454772535</v>
       </c>
       <c r="V35" t="n">
-        <v>3630.011237081369</v>
+        <v>3363.592567428965</v>
       </c>
       <c r="W35" t="n">
-        <v>3277.242581811254</v>
+        <v>3010.82391215885</v>
       </c>
       <c r="X35" t="n">
-        <v>2903.776823550174</v>
+        <v>2637.358153897771</v>
       </c>
       <c r="Y35" t="n">
-        <v>2513.637491574363</v>
+        <v>2637.358153897771</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2659.529089531566</v>
+        <v>987.4227591119312</v>
       </c>
       <c r="C36" t="n">
-        <v>2485.076060250439</v>
+        <v>812.9697298308042</v>
       </c>
       <c r="D36" t="n">
-        <v>2336.141650589188</v>
+        <v>664.035320169553</v>
       </c>
       <c r="E36" t="n">
-        <v>2176.904195583732</v>
+        <v>504.7978651640974</v>
       </c>
       <c r="F36" t="n">
-        <v>2030.369637610617</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G36" t="n">
-        <v>1893.196884623752</v>
+        <v>221.0905542041166</v>
       </c>
       <c r="H36" t="n">
-        <v>1794.875448557657</v>
+        <v>122.7691181380216</v>
       </c>
       <c r="I36" t="n">
-        <v>1758.219979851533</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J36" t="n">
-        <v>1776.925052719561</v>
+        <v>229.6488472869304</v>
       </c>
       <c r="K36" t="n">
-        <v>2148.870410918571</v>
+        <v>601.5942054859402</v>
       </c>
       <c r="L36" t="n">
-        <v>2710.401242212097</v>
+        <v>795.9930949290417</v>
       </c>
       <c r="M36" t="n">
-        <v>2956.612445161214</v>
+        <v>1454.418214685589</v>
       </c>
       <c r="N36" t="n">
-        <v>3223.748770943842</v>
+        <v>2196.103491068335</v>
       </c>
       <c r="O36" t="n">
-        <v>3835.830220602788</v>
+        <v>2418.261244643319</v>
       </c>
       <c r="P36" t="n">
-        <v>4041.359176978636</v>
+        <v>2577.229361417491</v>
       </c>
       <c r="Q36" t="n">
-        <v>4305.682471594871</v>
+        <v>2633.576141175236</v>
       </c>
       <c r="R36" t="n">
-        <v>4301.250105860139</v>
+        <v>2629.143775440504</v>
       </c>
       <c r="S36" t="n">
-        <v>4156.773273342592</v>
+        <v>2484.666942922957</v>
       </c>
       <c r="T36" t="n">
-        <v>3960.86680398051</v>
+        <v>2288.760473560875</v>
       </c>
       <c r="U36" t="n">
-        <v>3732.745690482065</v>
+        <v>2060.63936006243</v>
       </c>
       <c r="V36" t="n">
-        <v>3497.593582250322</v>
+        <v>1825.487251830687</v>
       </c>
       <c r="W36" t="n">
-        <v>3243.356225522121</v>
+        <v>1571.249895102486</v>
       </c>
       <c r="X36" t="n">
-        <v>3035.504725316588</v>
+        <v>1363.398394896953</v>
       </c>
       <c r="Y36" t="n">
-        <v>2827.744426551634</v>
+        <v>1155.638096131999</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>508.1724591572821</v>
+        <v>255.0498323598044</v>
       </c>
       <c r="C37" t="n">
-        <v>508.1724591572821</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="D37" t="n">
-        <v>358.0558197449463</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="E37" t="n">
-        <v>358.0558197449463</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="F37" t="n">
-        <v>358.0558197449463</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="G37" t="n">
-        <v>358.0558197449463</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="H37" t="n">
-        <v>205.8036107820266</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I37" t="n">
-        <v>88.06499559013484</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J37" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K37" t="n">
-        <v>212.8076375348878</v>
+        <v>212.8076375348879</v>
       </c>
       <c r="L37" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962464</v>
       </c>
       <c r="M37" t="n">
-        <v>670.3304700620228</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N37" t="n">
-        <v>909.9331856692332</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O37" t="n">
         <v>1115.228778841303</v>
@@ -7128,19 +7128,19 @@
         <v>1289.276287324572</v>
       </c>
       <c r="U37" t="n">
-        <v>1165.297991336939</v>
+        <v>1000.13639577426</v>
       </c>
       <c r="V37" t="n">
-        <v>910.613503131052</v>
+        <v>885.4804272315915</v>
       </c>
       <c r="W37" t="n">
-        <v>910.613503131052</v>
+        <v>885.4804272315915</v>
       </c>
       <c r="X37" t="n">
-        <v>910.613503131052</v>
+        <v>657.4908763335742</v>
       </c>
       <c r="Y37" t="n">
-        <v>689.8209239875218</v>
+        <v>436.6982971900441</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2073.220921539783</v>
+        <v>1923.197054396673</v>
       </c>
       <c r="C38" t="n">
-        <v>1704.258404599372</v>
+        <v>1554.234537456261</v>
       </c>
       <c r="D38" t="n">
-        <v>1345.992705992621</v>
+        <v>1195.968838849511</v>
       </c>
       <c r="E38" t="n">
-        <v>1226.766272743487</v>
+        <v>810.1805862512664</v>
       </c>
       <c r="F38" t="n">
-        <v>815.7803679538799</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="G38" t="n">
         <v>399.1946814616588</v>
       </c>
       <c r="H38" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I38" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J38" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K38" t="n">
-        <v>782.5847574885283</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L38" t="n">
         <v>1413.055650717816</v>
@@ -7189,37 +7189,37 @@
         <v>2846.297482930779</v>
       </c>
       <c r="O38" t="n">
-        <v>3476.372603996237</v>
+        <v>3476.372603996238</v>
       </c>
       <c r="P38" t="n">
-        <v>3976.45275961495</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q38" t="n">
-        <v>4274.770370373406</v>
+        <v>4274.770370373407</v>
       </c>
       <c r="R38" t="n">
-        <v>4305.682471594871</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="S38" t="n">
-        <v>4160.908930087623</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T38" t="n">
-        <v>4160.908930087623</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U38" t="n">
-        <v>3907.257394454482</v>
+        <v>3694.655454772535</v>
       </c>
       <c r="V38" t="n">
-        <v>3576.194507110911</v>
+        <v>3363.592567428965</v>
       </c>
       <c r="W38" t="n">
-        <v>3223.425851840797</v>
+        <v>3010.82391215885</v>
       </c>
       <c r="X38" t="n">
-        <v>2849.960093579717</v>
+        <v>2699.936226436606</v>
       </c>
       <c r="Y38" t="n">
-        <v>2459.820761603905</v>
+        <v>2309.796894460795</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I39" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J39" t="n">
         <v>104.8187222999256</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9434958564825</v>
+        <v>214.9434958564826</v>
       </c>
       <c r="L39" t="n">
-        <v>776.4743271500085</v>
+        <v>776.4743271500087</v>
       </c>
       <c r="M39" t="n">
         <v>1483.733543211626</v>
       </c>
       <c r="N39" t="n">
-        <v>1806.179794984373</v>
+        <v>1750.869868994254</v>
       </c>
       <c r="O39" t="n">
-        <v>2418.261244643319</v>
+        <v>2362.951318653199</v>
       </c>
       <c r="P39" t="n">
-        <v>2577.229361417491</v>
+        <v>2521.919435427372</v>
       </c>
       <c r="Q39" t="n">
         <v>2633.576141175236</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>573.5480941232754</v>
+        <v>227.4878658030833</v>
       </c>
       <c r="C40" t="n">
-        <v>404.6119111953685</v>
+        <v>227.4878658030833</v>
       </c>
       <c r="D40" t="n">
-        <v>254.4952717830328</v>
+        <v>227.4878658030833</v>
       </c>
       <c r="E40" t="n">
-        <v>254.4952717830328</v>
+        <v>227.4878658030833</v>
       </c>
       <c r="F40" t="n">
-        <v>254.4952717830328</v>
+        <v>227.4878658030833</v>
       </c>
       <c r="G40" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="H40" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I40" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J40" t="n">
-        <v>86.11364943189743</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K40" t="n">
-        <v>212.8076375348878</v>
+        <v>212.8076375348879</v>
       </c>
       <c r="L40" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962464</v>
       </c>
       <c r="M40" t="n">
-        <v>670.3304700620228</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N40" t="n">
-        <v>909.9331856692332</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O40" t="n">
         <v>1115.228778841303</v>
@@ -7356,28 +7356,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R40" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.925155535959</v>
       </c>
       <c r="S40" t="n">
-        <v>1289.276287324572</v>
+        <v>965.4098873949429</v>
       </c>
       <c r="T40" t="n">
-        <v>1277.01471237071</v>
+        <v>965.4098873949429</v>
       </c>
       <c r="U40" t="n">
-        <v>1277.01471237071</v>
+        <v>676.2699958446308</v>
       </c>
       <c r="V40" t="n">
-        <v>1022.330224164823</v>
+        <v>676.2699958446308</v>
       </c>
       <c r="W40" t="n">
-        <v>1022.330224164823</v>
+        <v>676.2699958446308</v>
       </c>
       <c r="X40" t="n">
-        <v>794.3406732668055</v>
+        <v>448.2804449466134</v>
       </c>
       <c r="Y40" t="n">
-        <v>573.5480941232754</v>
+        <v>227.4878658030833</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1981.517042282143</v>
+        <v>2081.852984933252</v>
       </c>
       <c r="C41" t="n">
-        <v>1612.554525341732</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="D41" t="n">
-        <v>1612.554525341732</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.766272743487</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F41" t="n">
-        <v>815.7803679538799</v>
+        <v>916.1163106049881</v>
       </c>
       <c r="G41" t="n">
-        <v>399.1946814616589</v>
+        <v>499.5306241127671</v>
       </c>
       <c r="H41" t="n">
-        <v>86.11364943189756</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="I41" t="n">
-        <v>86.11364943189756</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J41" t="n">
-        <v>316.5202242826302</v>
+        <v>316.520224282624</v>
       </c>
       <c r="K41" t="n">
-        <v>782.5847574885348</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L41" t="n">
-        <v>1413.055650717822</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M41" t="n">
-        <v>2131.18254364416</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N41" t="n">
-        <v>2846.297482930785</v>
+        <v>2846.29748293078</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.372603996243</v>
+        <v>3476.372603996238</v>
       </c>
       <c r="P41" t="n">
-        <v>3976.452759614956</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q41" t="n">
-        <v>4274.770370373412</v>
+        <v>4274.770370373407</v>
       </c>
       <c r="R41" t="n">
-        <v>4305.682471594878</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="S41" t="n">
-        <v>4160.908930087629</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="T41" t="n">
-        <v>3948.306990405682</v>
+        <v>4093.080531912925</v>
       </c>
       <c r="U41" t="n">
-        <v>3694.655454772541</v>
+        <v>3915.88945784795</v>
       </c>
       <c r="V41" t="n">
-        <v>3363.59256742897</v>
+        <v>3584.82657050438</v>
       </c>
       <c r="W41" t="n">
-        <v>3010.823912158856</v>
+        <v>3232.057915234265</v>
       </c>
       <c r="X41" t="n">
-        <v>2637.358153897776</v>
+        <v>2858.592156973185</v>
       </c>
       <c r="Y41" t="n">
-        <v>2247.218821921964</v>
+        <v>2468.452824997374</v>
       </c>
     </row>
     <row r="42">
@@ -7475,40 +7475,40 @@
         <v>664.035320169553</v>
       </c>
       <c r="E42" t="n">
-        <v>504.7978651640975</v>
+        <v>504.7978651640974</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2633071909825</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G42" t="n">
-        <v>221.0905542041168</v>
+        <v>221.0905542041166</v>
       </c>
       <c r="H42" t="n">
-        <v>122.7691181380217</v>
+        <v>122.7691181380216</v>
       </c>
       <c r="I42" t="n">
-        <v>86.11364943189756</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J42" t="n">
         <v>229.6488472869304</v>
       </c>
       <c r="K42" t="n">
-        <v>339.7736208434874</v>
+        <v>601.5942054859402</v>
       </c>
       <c r="L42" t="n">
-        <v>534.1725102865888</v>
+        <v>1159.501306524561</v>
       </c>
       <c r="M42" t="n">
-        <v>780.383713235706</v>
+        <v>1405.712509473678</v>
       </c>
       <c r="N42" t="n">
-        <v>1522.068989618452</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O42" t="n">
-        <v>2134.150439277398</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P42" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q42" t="n">
         <v>2633.576141175236</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>553.0795653545333</v>
+        <v>369.4285224158243</v>
       </c>
       <c r="C43" t="n">
-        <v>384.1433824266264</v>
+        <v>369.4285224158243</v>
       </c>
       <c r="D43" t="n">
-        <v>234.0267430142907</v>
+        <v>351.7653582061823</v>
       </c>
       <c r="E43" t="n">
-        <v>86.11364943189756</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="F43" t="n">
-        <v>86.11364943189756</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="G43" t="n">
-        <v>86.11364943189756</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="H43" t="n">
-        <v>86.11364943189756</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I43" t="n">
-        <v>86.11364943189756</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J43" t="n">
-        <v>86.11364943189756</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K43" t="n">
         <v>212.8076375348879</v>
@@ -7578,43 +7578,43 @@
         <v>430.4587576962464</v>
       </c>
       <c r="M43" t="n">
-        <v>670.3304700620229</v>
+        <v>670.330470062023</v>
       </c>
       <c r="N43" t="n">
-        <v>909.9331856692334</v>
+        <v>909.9331856692336</v>
       </c>
       <c r="O43" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P43" t="n">
-        <v>1267.373942480778</v>
+        <v>1267.373942480779</v>
       </c>
       <c r="Q43" t="n">
         <v>1289.276287324572</v>
       </c>
       <c r="R43" t="n">
-        <v>1214.07940010433</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="S43" t="n">
-        <v>1214.07940010433</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T43" t="n">
-        <v>989.4125183906599</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="U43" t="n">
-        <v>989.4125183906599</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="V43" t="n">
-        <v>734.728030184773</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="W43" t="n">
-        <v>734.728030184773</v>
+        <v>999.8591172876115</v>
       </c>
       <c r="X43" t="n">
-        <v>734.728030184773</v>
+        <v>771.8695663895942</v>
       </c>
       <c r="Y43" t="n">
-        <v>734.728030184773</v>
+        <v>551.076987246064</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2217.994463047031</v>
+        <v>2440.118683540002</v>
       </c>
       <c r="C44" t="n">
-        <v>1849.031946106619</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D44" t="n">
-        <v>1490.766247499869</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.977994901624</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F44" t="n">
-        <v>693.992090112017</v>
+        <v>916.1163106049881</v>
       </c>
       <c r="G44" t="n">
-        <v>277.4064036197959</v>
+        <v>499.5306241127671</v>
       </c>
       <c r="H44" t="n">
-        <v>86.11364943189741</v>
+        <v>186.4495920830057</v>
       </c>
       <c r="I44" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J44" t="n">
         <v>316.5202242826242</v>
       </c>
       <c r="K44" t="n">
-        <v>782.5847574885288</v>
+        <v>782.5847574885289</v>
       </c>
       <c r="L44" t="n">
-        <v>1413.055650717815</v>
+        <v>1413.055650717816</v>
       </c>
       <c r="M44" t="n">
-        <v>2131.182543644154</v>
+        <v>2131.182543644155</v>
       </c>
       <c r="N44" t="n">
-        <v>2846.297482930779</v>
+        <v>2846.29748293078</v>
       </c>
       <c r="O44" t="n">
-        <v>3476.372603996237</v>
+        <v>3476.372603996238</v>
       </c>
       <c r="P44" t="n">
-        <v>3976.452759614949</v>
+        <v>3976.452759614951</v>
       </c>
       <c r="Q44" t="n">
-        <v>4274.770370373405</v>
+        <v>4274.770370373407</v>
       </c>
       <c r="R44" t="n">
-        <v>4305.682471594871</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="S44" t="n">
-        <v>4305.682471594871</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T44" t="n">
-        <v>4305.682471594871</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="U44" t="n">
-        <v>4052.030935961729</v>
+        <v>3948.306990405677</v>
       </c>
       <c r="V44" t="n">
-        <v>3720.968048618159</v>
+        <v>3943.09226911113</v>
       </c>
       <c r="W44" t="n">
-        <v>3368.199393348044</v>
+        <v>3590.323613841016</v>
       </c>
       <c r="X44" t="n">
-        <v>2994.733635086965</v>
+        <v>3216.857855579936</v>
       </c>
       <c r="Y44" t="n">
-        <v>2604.594303111153</v>
+        <v>2826.718523604124</v>
       </c>
     </row>
     <row r="45">
@@ -7715,7 +7715,7 @@
         <v>504.7978651640974</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2633071909823</v>
+        <v>358.2633071909824</v>
       </c>
       <c r="G45" t="n">
         <v>221.0905542041166</v>
@@ -7724,28 +7724,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I45" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J45" t="n">
-        <v>104.8187222999256</v>
+        <v>229.6488472869304</v>
       </c>
       <c r="K45" t="n">
-        <v>214.9434958564825</v>
+        <v>601.5942054859402</v>
       </c>
       <c r="L45" t="n">
-        <v>409.342385299584</v>
+        <v>795.9930949290417</v>
       </c>
       <c r="M45" t="n">
-        <v>1116.601601361201</v>
+        <v>1246.441699827099</v>
       </c>
       <c r="N45" t="n">
-        <v>1490.901654030835</v>
+        <v>1988.126976209845</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.983103689781</v>
+        <v>2210.284729784828</v>
       </c>
       <c r="P45" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q45" t="n">
         <v>2633.576141175236</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>238.3658583948171</v>
+        <v>228.0451866333953</v>
       </c>
       <c r="C46" t="n">
-        <v>238.3658583948171</v>
+        <v>228.0451866333953</v>
       </c>
       <c r="D46" t="n">
-        <v>238.3658583948171</v>
+        <v>228.0451866333953</v>
       </c>
       <c r="E46" t="n">
-        <v>238.3658583948171</v>
+        <v>228.0451866333953</v>
       </c>
       <c r="F46" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="G46" t="n">
-        <v>238.3658583948171</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="H46" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I46" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="J46" t="n">
-        <v>86.11364943189741</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="K46" t="n">
-        <v>212.8076375348878</v>
+        <v>212.8076375348879</v>
       </c>
       <c r="L46" t="n">
-        <v>430.4587576962463</v>
+        <v>430.4587576962464</v>
       </c>
       <c r="M46" t="n">
-        <v>670.3304700620228</v>
+        <v>670.330470062023</v>
       </c>
       <c r="N46" t="n">
-        <v>909.9331856692332</v>
+        <v>909.9331856692336</v>
       </c>
       <c r="O46" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P46" t="n">
-        <v>1267.373942480778</v>
+        <v>1267.373942480779</v>
       </c>
       <c r="Q46" t="n">
         <v>1289.276287324572</v>
       </c>
       <c r="R46" t="n">
-        <v>1231.249646679212</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="S46" t="n">
-        <v>1231.249646679212</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T46" t="n">
-        <v>1231.249646679212</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="U46" t="n">
-        <v>1231.249646679212</v>
+        <v>1000.13639577426</v>
       </c>
       <c r="V46" t="n">
-        <v>976.5651584733253</v>
+        <v>745.4519075683733</v>
       </c>
       <c r="W46" t="n">
-        <v>687.1479884363646</v>
+        <v>456.0347375314126</v>
       </c>
       <c r="X46" t="n">
-        <v>459.1584375383472</v>
+        <v>228.0451866333953</v>
       </c>
       <c r="Y46" t="n">
-        <v>238.3658583948171</v>
+        <v>228.0451866333953</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8774,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>186.2236012992132</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>48.10560617264096</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928696</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>132.2260696718548</v>
       </c>
       <c r="P15" t="n">
-        <v>306.0814314576937</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>204.0688141451255</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>186.2236012992138</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928398</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>441.9679254493705</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>91.32084226271957</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>122.430701749596</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>314.8024350491249</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720735</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627458</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>42.23130151767816</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>314.8024350491244</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>260.8049034217657</v>
       </c>
       <c r="L30" t="n">
-        <v>94.60887818120023</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>94.60887818120023</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>185.4053527849735</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>416.3776937448791</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>47.03115111280414</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>55.8686121112317</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>55.86861211123204</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720798</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>367.1800117126459</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>286.9806114807287</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729825</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>206.3004060090299</v>
       </c>
       <c r="N45" t="n">
-        <v>108.2461887747536</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>98.14353771535167</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>341.4529437130683</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>111.9148112144227</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>6.9493849712496</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>359.5460084216242</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>234.9130357223889</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
@@ -23673,7 +23673,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>17.69584188176918</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>181.625424273943</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>30.13788875570205</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>133.4077599156362</v>
       </c>
       <c r="U17" t="n">
-        <v>83.09547865756659</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>61.52703497366582</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>12.50165965210985</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>134.8606994249985</v>
+        <v>5.921927676796486</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>56.48192287132046</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,10 +24147,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>123.266557879417</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677913</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>232.5085089911875</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24214,13 +24214,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>412.4198296272988</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>191.774334593082</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>161.2848750380466</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,28 +24366,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>148.5328231448044</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H25" t="n">
         <v>150.7296868732905</v>
       </c>
       <c r="I25" t="n">
-        <v>116.5612290399729</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.931832696655036</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S25" t="n">
-        <v>201.4801154596065</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T25" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>111.7802147971349</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>191.7743345930825</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>263.7544829558797</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>150.7296868732905</v>
       </c>
       <c r="I28" t="n">
-        <v>116.5612290399729</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.931832696655036</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>201.4801154596065</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>179.3206871258276</v>
       </c>
       <c r="U28" t="n">
-        <v>108.9108040392916</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>263.8962011556185</v>
       </c>
       <c r="D29" t="n">
-        <v>208.4318128943368</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H31" t="n">
-        <v>150.7296868732905</v>
+        <v>6.928022551303656</v>
       </c>
       <c r="I31" t="n">
         <v>116.5612290399729</v>
       </c>
       <c r="J31" t="n">
-        <v>1.931832696655036</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S31" t="n">
-        <v>201.4801154596065</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T31" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>204.4990804778271</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>161.2848750380454</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>412.4198296272988</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>224.4637359479304</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I34" t="n">
         <v>116.5612290399729</v>
       </c>
       <c r="J34" t="n">
-        <v>1.931832696655036</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S34" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.248492634809</v>
+        <v>283.3881065266567</v>
       </c>
       <c r="V34" t="n">
-        <v>232.2346119038815</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>187.4667660092901</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>53.27856267075271</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,13 +25329,13 @@
         <v>166.697806127624</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S37" t="n">
-        <v>201.4801154596065</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T37" t="n">
         <v>222.420212896533</v>
       </c>
       <c r="U37" t="n">
-        <v>163.5099796070524</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>138.6282344665863</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>263.8962011556193</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.4198296272988</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>99.33258322459723</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>61.95229181344752</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>26.73733192014998</v>
       </c>
       <c r="H40" t="n">
         <v>150.7296868732905</v>
@@ -25572,7 +25572,7 @@
         <v>116.5612290399729</v>
       </c>
       <c r="J40" t="n">
-        <v>1.931832696655036</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>201.4801154596065</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>210.2812536922096</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>119.6890798200579</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>99.33258322459723</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>75.69585695248475</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>131.1289404506668</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,10 +25806,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I43" t="n">
-        <v>116.5612290399729</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.931832696655036</v>
+        <v>1.931832696655007</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.70270212268646</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S43" t="n">
-        <v>201.4801154596065</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U43" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>120.5703950634442</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>99.33258322459723</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>322.5896843885338</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26034,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>4.908826193448363</v>
       </c>
       <c r="G46" t="n">
         <v>166.697806127624</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I46" t="n">
-        <v>116.5612290399729</v>
+        <v>116.5612290399728</v>
       </c>
       <c r="J46" t="n">
-        <v>1.931832696655036</v>
+        <v>1.931832696655007</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>61.7012462318205</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S46" t="n">
-        <v>201.4801154596065</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T46" t="n">
         <v>222.420212896533</v>
       </c>
       <c r="U46" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715640.0772004967</v>
+        <v>715640.0772004966</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>715640.0772004967</v>
+        <v>715640.0772004966</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>715640.0772004966</v>
+        <v>715640.0772004967</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>715640.0772004972</v>
+        <v>715640.0772004967</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>768911.6461325316</v>
+        <v>768911.6461325317</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>768911.6461325317</v>
+        <v>768911.6461325316</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>768911.6461325317</v>
+        <v>768911.6461325318</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>768911.6461325318</v>
+        <v>768911.6461325319</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>768911.646132532</v>
+        <v>768911.6461325317</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>768911.6461325315</v>
+        <v>768911.6461325317</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
         <v>506603.4835399849</v>
       </c>
       <c r="F2" t="n">
-        <v>506603.4835399853</v>
+        <v>506603.4835399849</v>
       </c>
       <c r="G2" t="n">
+        <v>506603.4835399849</v>
+      </c>
+      <c r="H2" t="n">
         <v>506603.483539985</v>
       </c>
-      <c r="H2" t="n">
-        <v>506603.4835399854</v>
-      </c>
       <c r="I2" t="n">
-        <v>548328.5325686958</v>
+        <v>548328.532568696</v>
       </c>
       <c r="J2" t="n">
-        <v>548328.5325686958</v>
+        <v>548328.532568696</v>
       </c>
       <c r="K2" t="n">
+        <v>548328.5325686961</v>
+      </c>
+      <c r="L2" t="n">
+        <v>548328.5325686961</v>
+      </c>
+      <c r="M2" t="n">
         <v>548328.532568696</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>548328.5325686961</v>
+      </c>
+      <c r="O2" t="n">
         <v>548328.532568696</v>
       </c>
-      <c r="M2" t="n">
-        <v>548328.5325686961</v>
-      </c>
-      <c r="N2" t="n">
-        <v>548328.532568696</v>
-      </c>
-      <c r="O2" t="n">
-        <v>548328.5325686963</v>
-      </c>
       <c r="P2" t="n">
-        <v>548328.5325686961</v>
+        <v>548328.5325686957</v>
       </c>
     </row>
     <row r="3">
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.70736887164134e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133368.5290586849</v>
+        <v>133368.5290586867</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910629</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.290090996373354e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>40808.29226915613</v>
       </c>
       <c r="H4" t="n">
-        <v>40808.2922691561</v>
+        <v>40808.29226915613</v>
       </c>
       <c r="I4" t="n">
         <v>38523.24814882061</v>
@@ -26456,7 +26456,7 @@
         <v>38523.24814882061</v>
       </c>
       <c r="O4" t="n">
-        <v>38523.24814882068</v>
+        <v>38523.2481488206</v>
       </c>
       <c r="P4" t="n">
         <v>38523.24814882061</v>
@@ -26481,37 +26481,37 @@
         <v>69171.54328360138</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="G5" t="n">
         <v>69171.54328360136</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360151</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="I5" t="n">
-        <v>81079.66231700628</v>
+        <v>81079.66231700631</v>
       </c>
       <c r="J5" t="n">
-        <v>81079.6623170063</v>
+        <v>81079.66231700631</v>
       </c>
       <c r="K5" t="n">
-        <v>81079.6623170063</v>
+        <v>81079.66231700631</v>
       </c>
       <c r="L5" t="n">
-        <v>81079.6623170063</v>
+        <v>81079.66231700631</v>
       </c>
       <c r="M5" t="n">
-        <v>81079.6623170063</v>
+        <v>81079.66231700631</v>
       </c>
       <c r="N5" t="n">
-        <v>81079.6623170063</v>
+        <v>81079.66231700631</v>
       </c>
       <c r="O5" t="n">
-        <v>81079.6623170064</v>
+        <v>81079.66231700632</v>
       </c>
       <c r="P5" t="n">
-        <v>81079.66231700628</v>
+        <v>81079.66231700632</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165767.6741125475</v>
+        <v>165767.6741125479</v>
       </c>
       <c r="C6" t="n">
-        <v>246537.1056440953</v>
+        <v>246537.105644095</v>
       </c>
       <c r="D6" t="n">
-        <v>246537.1056440949</v>
+        <v>246537.105644095</v>
       </c>
       <c r="E6" t="n">
-        <v>-284369.2946746114</v>
+        <v>-288008.5561365524</v>
       </c>
       <c r="F6" t="n">
-        <v>396623.6479872278</v>
+        <v>392984.3865252864</v>
       </c>
       <c r="G6" t="n">
-        <v>396623.6479872275</v>
+        <v>392984.3865252864</v>
       </c>
       <c r="H6" t="n">
-        <v>396623.6479872261</v>
+        <v>392984.3865252865</v>
       </c>
       <c r="I6" t="n">
-        <v>295357.093044184</v>
+        <v>293108.6665498652</v>
       </c>
       <c r="J6" t="n">
-        <v>365665.6795037626</v>
+        <v>363417.2530094456</v>
       </c>
       <c r="K6" t="n">
-        <v>428725.6221028691</v>
+        <v>426477.195608552</v>
       </c>
       <c r="L6" t="n">
-        <v>428725.6221028691</v>
+        <v>426477.195608552</v>
       </c>
       <c r="M6" t="n">
-        <v>258299.2055391582</v>
+        <v>256050.7790448408</v>
       </c>
       <c r="N6" t="n">
-        <v>428725.6221028691</v>
+        <v>426477.195608552</v>
       </c>
       <c r="O6" t="n">
-        <v>428725.6221028688</v>
+        <v>426477.1956085518</v>
       </c>
       <c r="P6" t="n">
-        <v>428725.6221028692</v>
+        <v>426477.1956085516</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>593.4761003380634</v>
       </c>
       <c r="H3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="I3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="J3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="K3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="L3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="M3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="N3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="O3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992779</v>
       </c>
       <c r="P3" t="n">
-        <v>717.1233370992777</v>
+        <v>717.1233370992779</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>924.8974390827564</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="G4" t="n">
         <v>924.8974390827563</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="I4" t="n">
         <v>1076.420617898718</v>
@@ -26828,7 +26828,7 @@
         <v>1076.420617898718</v>
       </c>
       <c r="O4" t="n">
-        <v>1076.420617898719</v>
+        <v>1076.420617898718</v>
       </c>
       <c r="P4" t="n">
         <v>1076.420617898718</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.6472367612128</v>
+        <v>123.6472367612143</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.811124044502086e-12</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>151.5231788159596</v>
+        <v>151.5231788159618</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.782702335071682e-12</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.811124044502086e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>317.9429279877956</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>270.5844975607212</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,19 +27460,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>131.277800949171</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>52.77638064857643</v>
       </c>
     </row>
     <row r="4">
@@ -27596,13 +27596,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>187.1155787390246</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27660,22 +27660,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27751,16 +27751,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>26.39579659850102</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>189.5021503144171</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,28 +27855,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>165.1120586621556</v>
       </c>
       <c r="D8" t="n">
-        <v>128.726001626244</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27934,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>123.3973950460205</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>101.0346019561179</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937401</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P20" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.6431848457576</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985301</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
-        <v>120.6044214847383</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784626</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I22" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790241</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441091</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685361</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.88290788783629</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H23" t="n">
-        <v>29.52458040630341</v>
+        <v>29.52458040630342</v>
       </c>
       <c r="I23" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J23" t="n">
-        <v>244.6832033452455</v>
+        <v>244.6832033452456</v>
       </c>
       <c r="K23" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373559</v>
       </c>
       <c r="L23" t="n">
-        <v>454.9444865097257</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M23" t="n">
-        <v>506.2133996600343</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N23" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963494</v>
       </c>
       <c r="O23" t="n">
-        <v>485.7375463866771</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P23" t="n">
-        <v>414.5657579057186</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q23" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R23" t="n">
-        <v>181.0934626092965</v>
+        <v>181.0934626092966</v>
       </c>
       <c r="S23" t="n">
         <v>65.69426349406953</v>
@@ -32788,19 +32788,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J24" t="n">
-        <v>145.7316396646749</v>
+        <v>145.731639664675</v>
       </c>
       <c r="K24" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L24" t="n">
-        <v>334.9168943688655</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M24" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191064</v>
       </c>
       <c r="N24" t="n">
-        <v>401.1763845910384</v>
+        <v>401.1763845910385</v>
       </c>
       <c r="O24" t="n">
         <v>366.9980157323068</v>
@@ -32809,16 +32809,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q24" t="n">
-        <v>196.8977132352583</v>
+        <v>196.8977132352584</v>
       </c>
       <c r="R24" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S24" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T24" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U24" t="n">
         <v>0.1014797175140488</v>
@@ -32867,22 +32867,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J25" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K25" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L25" t="n">
-        <v>192.2595910642883</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M25" t="n">
-        <v>202.7107819934892</v>
+        <v>202.7107819934893</v>
       </c>
       <c r="N25" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O25" t="n">
-        <v>182.7841581183536</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P25" t="n">
         <v>156.4034242093244</v>
@@ -32891,16 +32891,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R25" t="n">
-        <v>58.14577090644305</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S25" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T25" t="n">
-        <v>5.525376531748531</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U25" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189626</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.88290788783629</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H26" t="n">
-        <v>29.52458040630341</v>
+        <v>29.52458040630342</v>
       </c>
       <c r="I26" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J26" t="n">
-        <v>244.6832033452455</v>
+        <v>244.6832033452456</v>
       </c>
       <c r="K26" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373559</v>
       </c>
       <c r="L26" t="n">
-        <v>454.9444865097257</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M26" t="n">
-        <v>506.2133996600343</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N26" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963494</v>
       </c>
       <c r="O26" t="n">
-        <v>485.7375463866771</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P26" t="n">
-        <v>414.5657579057186</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q26" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R26" t="n">
-        <v>181.0934626092965</v>
+        <v>181.0934626092966</v>
       </c>
       <c r="S26" t="n">
         <v>65.69426349406953</v>
@@ -33025,19 +33025,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J27" t="n">
-        <v>145.7316396646749</v>
+        <v>145.731639664675</v>
       </c>
       <c r="K27" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L27" t="n">
-        <v>334.9168943688655</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M27" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191064</v>
       </c>
       <c r="N27" t="n">
-        <v>401.1763845910384</v>
+        <v>401.1763845910385</v>
       </c>
       <c r="O27" t="n">
         <v>366.9980157323068</v>
@@ -33046,16 +33046,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.8977132352583</v>
+        <v>196.8977132352584</v>
       </c>
       <c r="R27" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S27" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T27" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U27" t="n">
         <v>0.1014797175140488</v>
@@ -33104,22 +33104,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J28" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K28" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L28" t="n">
-        <v>192.2595910642883</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M28" t="n">
-        <v>202.7107819934892</v>
+        <v>202.7107819934893</v>
       </c>
       <c r="N28" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O28" t="n">
-        <v>182.7841581183536</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P28" t="n">
         <v>156.4034242093244</v>
@@ -33128,16 +33128,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R28" t="n">
-        <v>58.14577090644305</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S28" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T28" t="n">
-        <v>5.525376531748531</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U28" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189626</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.88290788783629</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H29" t="n">
-        <v>29.52458040630341</v>
+        <v>29.52458040630342</v>
       </c>
       <c r="I29" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J29" t="n">
-        <v>244.6832033452455</v>
+        <v>244.6832033452456</v>
       </c>
       <c r="K29" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373559</v>
       </c>
       <c r="L29" t="n">
-        <v>454.9444865097257</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M29" t="n">
-        <v>506.2133996600343</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N29" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963494</v>
       </c>
       <c r="O29" t="n">
-        <v>485.7375463866771</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P29" t="n">
-        <v>414.5657579057186</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q29" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R29" t="n">
-        <v>181.0934626092965</v>
+        <v>181.0934626092966</v>
       </c>
       <c r="S29" t="n">
         <v>65.69426349406953</v>
@@ -33262,19 +33262,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J30" t="n">
-        <v>145.7316396646749</v>
+        <v>145.731639664675</v>
       </c>
       <c r="K30" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L30" t="n">
-        <v>334.9168943688655</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M30" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191064</v>
       </c>
       <c r="N30" t="n">
-        <v>401.1763845910384</v>
+        <v>401.1763845910385</v>
       </c>
       <c r="O30" t="n">
         <v>366.9980157323068</v>
@@ -33283,16 +33283,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q30" t="n">
-        <v>196.8977132352583</v>
+        <v>196.8977132352584</v>
       </c>
       <c r="R30" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S30" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T30" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U30" t="n">
         <v>0.1014797175140488</v>
@@ -33341,22 +33341,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J31" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K31" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L31" t="n">
-        <v>192.2595910642883</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M31" t="n">
-        <v>202.7107819934892</v>
+        <v>202.7107819934893</v>
       </c>
       <c r="N31" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O31" t="n">
-        <v>182.7841581183536</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P31" t="n">
         <v>156.4034242093244</v>
@@ -33365,16 +33365,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R31" t="n">
-        <v>58.14577090644305</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S31" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T31" t="n">
-        <v>5.525376531748531</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U31" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189626</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.88290788783629</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H32" t="n">
-        <v>29.52458040630341</v>
+        <v>29.52458040630342</v>
       </c>
       <c r="I32" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J32" t="n">
-        <v>244.6832033452455</v>
+        <v>244.6832033452456</v>
       </c>
       <c r="K32" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373559</v>
       </c>
       <c r="L32" t="n">
-        <v>454.9444865097257</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M32" t="n">
-        <v>506.2133996600343</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N32" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963494</v>
       </c>
       <c r="O32" t="n">
-        <v>485.7375463866771</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P32" t="n">
-        <v>414.5657579057186</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q32" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R32" t="n">
-        <v>181.0934626092965</v>
+        <v>181.0934626092966</v>
       </c>
       <c r="S32" t="n">
         <v>65.69426349406953</v>
@@ -33499,19 +33499,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J33" t="n">
-        <v>145.7316396646749</v>
+        <v>145.731639664675</v>
       </c>
       <c r="K33" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L33" t="n">
-        <v>334.9168943688655</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M33" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191064</v>
       </c>
       <c r="N33" t="n">
-        <v>401.1763845910384</v>
+        <v>401.1763845910385</v>
       </c>
       <c r="O33" t="n">
         <v>366.9980157323068</v>
@@ -33520,16 +33520,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q33" t="n">
-        <v>196.8977132352583</v>
+        <v>196.8977132352584</v>
       </c>
       <c r="R33" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S33" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T33" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U33" t="n">
         <v>0.1014797175140488</v>
@@ -33578,22 +33578,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J34" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K34" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L34" t="n">
-        <v>192.2595910642883</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M34" t="n">
-        <v>202.7107819934892</v>
+        <v>202.7107819934893</v>
       </c>
       <c r="N34" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O34" t="n">
-        <v>182.7841581183536</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P34" t="n">
         <v>156.4034242093244</v>
@@ -33602,16 +33602,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R34" t="n">
-        <v>58.14577090644305</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S34" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T34" t="n">
-        <v>5.525376531748531</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U34" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189626</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.88290788783629</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H35" t="n">
-        <v>29.52458040630341</v>
+        <v>29.52458040630342</v>
       </c>
       <c r="I35" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J35" t="n">
-        <v>244.6832033452455</v>
+        <v>244.6832033452456</v>
       </c>
       <c r="K35" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373559</v>
       </c>
       <c r="L35" t="n">
-        <v>454.9444865097257</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M35" t="n">
-        <v>506.2133996600343</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N35" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963494</v>
       </c>
       <c r="O35" t="n">
-        <v>485.7375463866771</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P35" t="n">
-        <v>414.5657579057186</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q35" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R35" t="n">
-        <v>181.0934626092965</v>
+        <v>181.0934626092966</v>
       </c>
       <c r="S35" t="n">
         <v>65.69426349406953</v>
@@ -33736,19 +33736,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J36" t="n">
-        <v>145.7316396646749</v>
+        <v>145.731639664675</v>
       </c>
       <c r="K36" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L36" t="n">
-        <v>334.9168943688655</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M36" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191064</v>
       </c>
       <c r="N36" t="n">
-        <v>401.1763845910384</v>
+        <v>401.1763845910385</v>
       </c>
       <c r="O36" t="n">
         <v>366.9980157323068</v>
@@ -33757,16 +33757,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q36" t="n">
-        <v>196.8977132352583</v>
+        <v>196.8977132352584</v>
       </c>
       <c r="R36" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S36" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T36" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U36" t="n">
         <v>0.1014797175140488</v>
@@ -33815,22 +33815,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J37" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K37" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L37" t="n">
-        <v>192.2595910642883</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M37" t="n">
-        <v>202.7107819934892</v>
+        <v>202.7107819934893</v>
       </c>
       <c r="N37" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O37" t="n">
-        <v>182.7841581183536</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P37" t="n">
         <v>156.4034242093244</v>
@@ -33839,16 +33839,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R37" t="n">
-        <v>58.14577090644305</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S37" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T37" t="n">
-        <v>5.525376531748531</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U37" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189626</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.88290788783629</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H38" t="n">
-        <v>29.52458040630341</v>
+        <v>29.52458040630342</v>
       </c>
       <c r="I38" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J38" t="n">
-        <v>244.6832033452455</v>
+        <v>244.6832033452456</v>
       </c>
       <c r="K38" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373559</v>
       </c>
       <c r="L38" t="n">
-        <v>454.9444865097257</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M38" t="n">
-        <v>506.2133996600343</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N38" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963494</v>
       </c>
       <c r="O38" t="n">
-        <v>485.7375463866771</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P38" t="n">
-        <v>414.5657579057186</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q38" t="n">
         <v>311.3216191725814</v>
       </c>
       <c r="R38" t="n">
-        <v>181.0934626092965</v>
+        <v>181.0934626092966</v>
       </c>
       <c r="S38" t="n">
         <v>65.69426349406953</v>
@@ -33973,19 +33973,19 @@
         <v>53.10771883235218</v>
       </c>
       <c r="J39" t="n">
-        <v>145.7316396646749</v>
+        <v>145.731639664675</v>
       </c>
       <c r="K39" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L39" t="n">
-        <v>334.9168943688655</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M39" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191064</v>
       </c>
       <c r="N39" t="n">
-        <v>401.1763845910384</v>
+        <v>401.1763845910385</v>
       </c>
       <c r="O39" t="n">
         <v>366.9980157323068</v>
@@ -33994,16 +33994,16 @@
         <v>294.548262741777</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.8977132352583</v>
+        <v>196.8977132352584</v>
       </c>
       <c r="R39" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S39" t="n">
         <v>28.65110691146641</v>
       </c>
       <c r="T39" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U39" t="n">
         <v>0.1014797175140488</v>
@@ -34052,22 +34052,22 @@
         <v>38.88924588728543</v>
       </c>
       <c r="J40" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K40" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L40" t="n">
-        <v>192.2595910642883</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M40" t="n">
-        <v>202.7107819934892</v>
+        <v>202.7107819934893</v>
       </c>
       <c r="N40" t="n">
         <v>197.8907726785598</v>
       </c>
       <c r="O40" t="n">
-        <v>182.7841581183536</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P40" t="n">
         <v>156.4034242093244</v>
@@ -34076,16 +34076,16 @@
         <v>108.2856239019909</v>
       </c>
       <c r="R40" t="n">
-        <v>58.14577090644305</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S40" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T40" t="n">
-        <v>5.525376531748531</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189626</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.88290788783629</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H41" t="n">
-        <v>29.52458040630341</v>
+        <v>29.52458040630342</v>
       </c>
       <c r="I41" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J41" t="n">
-        <v>244.6832033452455</v>
+        <v>244.6832033452456</v>
       </c>
       <c r="K41" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373559</v>
       </c>
       <c r="L41" t="n">
-        <v>454.9444865097257</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M41" t="n">
-        <v>506.2133996600343</v>
+        <v>506.2133996600345</v>
       </c>
       <c r="N41" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963494</v>
       </c>
       <c r="O41" t="n">
-        <v>485.7375463866771</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P41" t="n">
-        <v>414.5657579057186</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q41" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725815</v>
       </c>
       <c r="R41" t="n">
-        <v>181.0934626092965</v>
+        <v>181.0934626092966</v>
       </c>
       <c r="S41" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406955</v>
       </c>
       <c r="T41" t="n">
         <v>12.61992927900337</v>
@@ -34207,40 +34207,40 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I42" t="n">
-        <v>53.10771883235218</v>
+        <v>53.1077188323522</v>
       </c>
       <c r="J42" t="n">
-        <v>145.7316396646749</v>
+        <v>145.731639664675</v>
       </c>
       <c r="K42" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L42" t="n">
-        <v>334.9168943688655</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M42" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191064</v>
       </c>
       <c r="N42" t="n">
-        <v>401.1763845910384</v>
+        <v>401.1763845910385</v>
       </c>
       <c r="O42" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323069</v>
       </c>
       <c r="P42" t="n">
         <v>294.548262741777</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.8977132352583</v>
+        <v>196.8977132352584</v>
       </c>
       <c r="R42" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525832</v>
       </c>
       <c r="S42" t="n">
-        <v>28.65110691146641</v>
+        <v>28.65110691146642</v>
       </c>
       <c r="T42" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U42" t="n">
         <v>0.1014797175140488</v>
@@ -34283,46 +34283,46 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H43" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414909</v>
       </c>
       <c r="I43" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728544</v>
       </c>
       <c r="J43" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001777</v>
       </c>
       <c r="K43" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L43" t="n">
-        <v>192.2595910642883</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M43" t="n">
-        <v>202.7107819934892</v>
+        <v>202.7107819934893</v>
       </c>
       <c r="N43" t="n">
-        <v>197.8907726785598</v>
+        <v>197.8907726785599</v>
       </c>
       <c r="O43" t="n">
-        <v>182.7841581183536</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P43" t="n">
         <v>156.4034242093244</v>
       </c>
       <c r="Q43" t="n">
-        <v>108.2856239019909</v>
+        <v>108.285623901991</v>
       </c>
       <c r="R43" t="n">
-        <v>58.14577090644305</v>
+        <v>58.14577090644307</v>
       </c>
       <c r="S43" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T43" t="n">
-        <v>5.525376531748531</v>
+        <v>5.525376531748533</v>
       </c>
       <c r="U43" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189626</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.88290788783629</v>
+        <v>2.882907887836291</v>
       </c>
       <c r="H44" t="n">
-        <v>29.52458040630341</v>
+        <v>29.52458040630342</v>
       </c>
       <c r="I44" t="n">
         <v>111.1433063458087</v>
       </c>
       <c r="J44" t="n">
-        <v>244.6832033452455</v>
+        <v>244.6832033452456</v>
       </c>
       <c r="K44" t="n">
-        <v>366.7166942373558</v>
+        <v>366.7166942373559</v>
       </c>
       <c r="L44" t="n">
-        <v>454.9444865097257</v>
+        <v>454.9444865097259</v>
       </c>
       <c r="M44" t="n">
-        <v>506.2133996600343</v>
+        <v>506.2133996600345</v>
       </c>
       <c r="N44" t="n">
-        <v>514.4044616963492</v>
+        <v>514.4044616963494</v>
       </c>
       <c r="O44" t="n">
-        <v>485.7375463866771</v>
+        <v>485.7375463866773</v>
       </c>
       <c r="P44" t="n">
-        <v>414.5657579057186</v>
+        <v>414.5657579057188</v>
       </c>
       <c r="Q44" t="n">
-        <v>311.3216191725814</v>
+        <v>311.3216191725815</v>
       </c>
       <c r="R44" t="n">
-        <v>181.0934626092965</v>
+        <v>181.0934626092966</v>
       </c>
       <c r="S44" t="n">
-        <v>65.69426349406953</v>
+        <v>65.69426349406955</v>
       </c>
       <c r="T44" t="n">
         <v>12.61992927900337</v>
@@ -34444,40 +34444,40 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I45" t="n">
-        <v>53.10771883235218</v>
+        <v>53.1077188323522</v>
       </c>
       <c r="J45" t="n">
-        <v>145.7316396646749</v>
+        <v>145.731639664675</v>
       </c>
       <c r="K45" t="n">
         <v>249.0785839809822</v>
       </c>
       <c r="L45" t="n">
-        <v>334.9168943688655</v>
+        <v>334.9168943688657</v>
       </c>
       <c r="M45" t="n">
-        <v>390.8322187191063</v>
+        <v>390.8322187191064</v>
       </c>
       <c r="N45" t="n">
-        <v>401.1763845910384</v>
+        <v>401.1763845910385</v>
       </c>
       <c r="O45" t="n">
-        <v>366.9980157323068</v>
+        <v>366.9980157323069</v>
       </c>
       <c r="P45" t="n">
         <v>294.548262741777</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.8977132352583</v>
+        <v>196.8977132352584</v>
       </c>
       <c r="R45" t="n">
-        <v>95.76979207525829</v>
+        <v>95.76979207525832</v>
       </c>
       <c r="S45" t="n">
-        <v>28.65110691146641</v>
+        <v>28.65110691146642</v>
       </c>
       <c r="T45" t="n">
-        <v>6.217324026360717</v>
+        <v>6.217324026360719</v>
       </c>
       <c r="U45" t="n">
         <v>0.1014797175140488</v>
@@ -34520,46 +34520,46 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H46" t="n">
-        <v>11.49748563414908</v>
+        <v>11.49748563414909</v>
       </c>
       <c r="I46" t="n">
-        <v>38.88924588728543</v>
+        <v>38.88924588728544</v>
       </c>
       <c r="J46" t="n">
-        <v>91.42734742001774</v>
+        <v>91.42734742001777</v>
       </c>
       <c r="K46" t="n">
         <v>150.2432171824388</v>
       </c>
       <c r="L46" t="n">
-        <v>192.2595910642883</v>
+        <v>192.2595910642884</v>
       </c>
       <c r="M46" t="n">
-        <v>202.7107819934892</v>
+        <v>202.7107819934893</v>
       </c>
       <c r="N46" t="n">
-        <v>197.8907726785598</v>
+        <v>197.8907726785599</v>
       </c>
       <c r="O46" t="n">
-        <v>182.7841581183536</v>
+        <v>182.7841581183537</v>
       </c>
       <c r="P46" t="n">
         <v>156.4034242093244</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.2856239019909</v>
+        <v>108.285623901991</v>
       </c>
       <c r="R46" t="n">
-        <v>58.14577090644305</v>
+        <v>58.14577090644307</v>
       </c>
       <c r="S46" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T46" t="n">
-        <v>5.525376531748531</v>
+        <v>5.525376531748533</v>
       </c>
       <c r="U46" t="n">
-        <v>0.07053672168189624</v>
+        <v>0.07053672168189626</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>332.7559639452619</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>324.8393568706205</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3104407622262</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N12" t="n">
-        <v>248.7689815793721</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>109.7875025528265</v>
       </c>
       <c r="Q12" t="n">
         <v>233.0438950105729</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452619</v>
+        <v>68.29072693268333</v>
       </c>
       <c r="L15" t="n">
         <v>138.6157555714073</v>
@@ -35740,10 +35740,10 @@
         <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>161.1235481502624</v>
+        <v>293.3496178221172</v>
       </c>
       <c r="P15" t="n">
-        <v>415.8689340105202</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
         <v>233.0438950105729</v>
@@ -35965,22 +35965,22 @@
         <v>119.8578301584801</v>
       </c>
       <c r="K18" t="n">
-        <v>272.3595410778087</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>138.6157555714072</v>
+        <v>324.839356870621</v>
       </c>
       <c r="M18" t="n">
-        <v>181.3104407622262</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N18" t="n">
         <v>680.0057497502846</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927636</v>
+        <v>109.7875025528264</v>
       </c>
       <c r="Q18" t="n">
         <v>233.0438950105728</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391276</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040863</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517162</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730421</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513602</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233105</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588831</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312128</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268384</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748672</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>623.2783662115967</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502855</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O21" t="n">
-        <v>252.4443904129828</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927642</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.9666072747242</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854534</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>232.733913990633</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K23" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L23" t="n">
-        <v>636.8392860901889</v>
+        <v>636.839286090189</v>
       </c>
       <c r="M23" t="n">
-        <v>725.3806999255941</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N23" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117426</v>
       </c>
       <c r="O23" t="n">
-        <v>636.4395162277357</v>
+        <v>636.4395162277358</v>
       </c>
       <c r="P23" t="n">
-        <v>505.1314703219317</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q23" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R23" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>144.9850483384171</v>
+        <v>141.3247147476042</v>
       </c>
       <c r="K24" t="n">
         <v>375.7023820192018</v>
@@ -36445,19 +36445,19 @@
         <v>567.2028598924505</v>
       </c>
       <c r="M24" t="n">
-        <v>563.5006198462129</v>
+        <v>248.6981847970881</v>
       </c>
       <c r="N24" t="n">
         <v>269.8346725077051</v>
       </c>
       <c r="O24" t="n">
-        <v>224.4017712878623</v>
+        <v>224.4017712878624</v>
       </c>
       <c r="P24" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q24" t="n">
-        <v>266.9932268850859</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>127.9737253565559</v>
+        <v>127.973725356556</v>
       </c>
       <c r="L25" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M25" t="n">
-        <v>242.2946589553298</v>
+        <v>242.2946589553299</v>
       </c>
       <c r="N25" t="n">
         <v>242.0229450577884</v>
@@ -36533,10 +36533,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P25" t="n">
-        <v>153.6819834742178</v>
+        <v>153.6819834742179</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>232.7339139906328</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K26" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L26" t="n">
-        <v>636.8392860901889</v>
+        <v>636.839286090189</v>
       </c>
       <c r="M26" t="n">
-        <v>725.3806999255941</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N26" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117426</v>
       </c>
       <c r="O26" t="n">
-        <v>636.4395162277357</v>
+        <v>636.4395162277362</v>
       </c>
       <c r="P26" t="n">
-        <v>505.1314703219317</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q26" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R26" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>18.89401299800824</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K27" t="n">
-        <v>153.4684465243013</v>
+        <v>375.7023820192018</v>
       </c>
       <c r="L27" t="n">
         <v>567.2028598924505</v>
       </c>
       <c r="M27" t="n">
-        <v>248.698184797088</v>
+        <v>248.6981847970881</v>
       </c>
       <c r="N27" t="n">
-        <v>749.1770468512586</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O27" t="n">
-        <v>618.2640905645919</v>
+        <v>224.4017712878624</v>
       </c>
       <c r="P27" t="n">
-        <v>160.5738553274467</v>
+        <v>475.3762903765711</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.91593914923681</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>127.9737253565559</v>
+        <v>127.973725356556</v>
       </c>
       <c r="L28" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M28" t="n">
-        <v>242.2946589553298</v>
+        <v>242.2946589553299</v>
       </c>
       <c r="N28" t="n">
         <v>242.0229450577884</v>
@@ -36770,10 +36770,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P28" t="n">
-        <v>153.6819834742178</v>
+        <v>153.6819834742179</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>232.733913990633</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K29" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L29" t="n">
-        <v>636.8392860901889</v>
+        <v>636.839286090189</v>
       </c>
       <c r="M29" t="n">
-        <v>725.3806999255941</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N29" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117426</v>
       </c>
       <c r="O29" t="n">
-        <v>636.4395162277357</v>
+        <v>636.4395162277358</v>
       </c>
       <c r="P29" t="n">
-        <v>505.1314703219317</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q29" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R29" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.89401299800824</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K30" t="n">
-        <v>111.2371450066232</v>
+        <v>372.0420484283889</v>
       </c>
       <c r="L30" t="n">
-        <v>290.9713927701916</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M30" t="n">
-        <v>248.698184797088</v>
+        <v>248.6981847970881</v>
       </c>
       <c r="N30" t="n">
-        <v>749.1770468512586</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O30" t="n">
-        <v>618.2640905645919</v>
+        <v>224.4017712878624</v>
       </c>
       <c r="P30" t="n">
         <v>479.0366239673839</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.91593914923681</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>127.9737253565559</v>
+        <v>127.973725356556</v>
       </c>
       <c r="L31" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M31" t="n">
-        <v>242.2946589553298</v>
+        <v>242.2946589553299</v>
       </c>
       <c r="N31" t="n">
         <v>242.0229450577884</v>
@@ -37007,10 +37007,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P31" t="n">
-        <v>153.6819834742178</v>
+        <v>153.6819834742179</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.733913990633</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K32" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L32" t="n">
-        <v>636.8392860901889</v>
+        <v>636.839286090189</v>
       </c>
       <c r="M32" t="n">
-        <v>725.3806999255941</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N32" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117426</v>
       </c>
       <c r="O32" t="n">
-        <v>636.4395162277357</v>
+        <v>636.4395162277358</v>
       </c>
       <c r="P32" t="n">
-        <v>505.1314703219317</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q32" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R32" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>18.89401299800824</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K33" t="n">
         <v>111.2371450066232</v>
       </c>
       <c r="L33" t="n">
-        <v>196.3625145889914</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M33" t="n">
-        <v>343.3070629782882</v>
+        <v>248.6981847970881</v>
       </c>
       <c r="N33" t="n">
-        <v>749.1770468512586</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O33" t="n">
         <v>618.2640905645919</v>
       </c>
       <c r="P33" t="n">
-        <v>479.0366239673839</v>
+        <v>345.9792081124202</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.91593914923681</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>127.9737253565559</v>
+        <v>127.973725356556</v>
       </c>
       <c r="L34" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M34" t="n">
-        <v>242.2946589553298</v>
+        <v>242.2946589553299</v>
       </c>
       <c r="N34" t="n">
         <v>242.0229450577884</v>
@@ -37244,10 +37244,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P34" t="n">
-        <v>153.6819834742178</v>
+        <v>153.6819834742179</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>232.733913990633</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K35" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L35" t="n">
-        <v>636.8392860901889</v>
+        <v>636.839286090189</v>
       </c>
       <c r="M35" t="n">
-        <v>725.3806999255941</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N35" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117426</v>
       </c>
       <c r="O35" t="n">
-        <v>636.4395162277357</v>
+        <v>636.4395162277358</v>
       </c>
       <c r="P35" t="n">
-        <v>505.1314703219317</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q35" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R35" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>18.89401299800824</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K36" t="n">
         <v>375.7023820192018</v>
       </c>
       <c r="L36" t="n">
-        <v>567.2028598924505</v>
+        <v>196.3625145889914</v>
       </c>
       <c r="M36" t="n">
-        <v>248.698184797088</v>
+        <v>665.0758785419672</v>
       </c>
       <c r="N36" t="n">
-        <v>269.8346725077051</v>
+        <v>749.1770468512586</v>
       </c>
       <c r="O36" t="n">
-        <v>618.2640905645919</v>
+        <v>224.4017712878624</v>
       </c>
       <c r="P36" t="n">
-        <v>207.6050064402509</v>
+        <v>160.5738553274467</v>
       </c>
       <c r="Q36" t="n">
-        <v>266.9932268850859</v>
+        <v>56.91593914923683</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>127.9737253565559</v>
+        <v>127.973725356556</v>
       </c>
       <c r="L37" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M37" t="n">
-        <v>242.2946589553298</v>
+        <v>242.2946589553299</v>
       </c>
       <c r="N37" t="n">
         <v>242.0229450577884</v>
@@ -37481,10 +37481,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P37" t="n">
-        <v>153.6819834742178</v>
+        <v>153.6819834742179</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>232.733913990633</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K38" t="n">
         <v>470.77225576354</v>
       </c>
       <c r="L38" t="n">
-        <v>636.8392860901889</v>
+        <v>636.839286090189</v>
       </c>
       <c r="M38" t="n">
-        <v>725.3806999255941</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N38" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117426</v>
       </c>
       <c r="O38" t="n">
-        <v>636.4395162277357</v>
+        <v>636.4395162277358</v>
       </c>
       <c r="P38" t="n">
-        <v>505.1314703219317</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q38" t="n">
         <v>301.3309199580366</v>
       </c>
       <c r="R38" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>18.89401299800824</v>
+        <v>18.89401299800826</v>
       </c>
       <c r="K39" t="n">
         <v>111.2371450066232</v>
@@ -37633,7 +37633,7 @@
         <v>714.403248547088</v>
       </c>
       <c r="N39" t="n">
-        <v>325.7032846189368</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O39" t="n">
         <v>618.2640905645919</v>
@@ -37642,7 +37642,7 @@
         <v>160.5738553274467</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.91593914923681</v>
+        <v>112.7845512604689</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>127.9737253565559</v>
+        <v>127.973725356556</v>
       </c>
       <c r="L40" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M40" t="n">
-        <v>242.2946589553298</v>
+        <v>242.2946589553299</v>
       </c>
       <c r="N40" t="n">
         <v>242.0229450577884</v>
@@ -37718,10 +37718,10 @@
         <v>207.3692860323933</v>
       </c>
       <c r="P40" t="n">
-        <v>153.6819834742178</v>
+        <v>153.6819834742179</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>232.7339139906391</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K41" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635401</v>
       </c>
       <c r="L41" t="n">
-        <v>636.8392860901889</v>
+        <v>636.839286090189</v>
       </c>
       <c r="M41" t="n">
-        <v>725.3806999255941</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N41" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117426</v>
       </c>
       <c r="O41" t="n">
-        <v>636.4395162277357</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P41" t="n">
-        <v>505.1314703219317</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q41" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580367</v>
       </c>
       <c r="R41" t="n">
-        <v>31.22434466814684</v>
+        <v>31.2243446681469</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>144.9850483384171</v>
       </c>
       <c r="K42" t="n">
-        <v>111.2371450066232</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L42" t="n">
-        <v>196.3625145889914</v>
+        <v>563.5425263016374</v>
       </c>
       <c r="M42" t="n">
-        <v>248.698184797088</v>
+        <v>248.6981847970881</v>
       </c>
       <c r="N42" t="n">
-        <v>749.1770468512586</v>
+        <v>269.8346725077052</v>
       </c>
       <c r="O42" t="n">
-        <v>618.2640905645919</v>
+        <v>224.4017712878625</v>
       </c>
       <c r="P42" t="n">
-        <v>447.5544668081754</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.91593914923681</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>127.9737253565559</v>
+        <v>127.973725356556</v>
       </c>
       <c r="L43" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M43" t="n">
-        <v>242.2946589553298</v>
+        <v>242.2946589553299</v>
       </c>
       <c r="N43" t="n">
-        <v>242.0229450577884</v>
+        <v>242.0229450577885</v>
       </c>
       <c r="O43" t="n">
-        <v>207.3692860323933</v>
+        <v>207.3692860323934</v>
       </c>
       <c r="P43" t="n">
-        <v>153.6819834742178</v>
+        <v>153.6819834742179</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029657</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>232.733913990633</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K44" t="n">
-        <v>470.77225576354</v>
+        <v>470.7722557635401</v>
       </c>
       <c r="L44" t="n">
-        <v>636.8392860901889</v>
+        <v>636.839286090189</v>
       </c>
       <c r="M44" t="n">
-        <v>725.3806999255941</v>
+        <v>725.3806999255943</v>
       </c>
       <c r="N44" t="n">
-        <v>722.3383225117425</v>
+        <v>722.3383225117426</v>
       </c>
       <c r="O44" t="n">
-        <v>636.4395162277357</v>
+        <v>636.4395162277359</v>
       </c>
       <c r="P44" t="n">
-        <v>505.1314703219317</v>
+        <v>505.1314703219319</v>
       </c>
       <c r="Q44" t="n">
-        <v>301.3309199580366</v>
+        <v>301.3309199580367</v>
       </c>
       <c r="R44" t="n">
-        <v>31.22434466814684</v>
+        <v>31.22434466814696</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>18.89401299800824</v>
+        <v>144.9850483384171</v>
       </c>
       <c r="K45" t="n">
-        <v>111.2371450066232</v>
+        <v>375.7023820192019</v>
       </c>
       <c r="L45" t="n">
-        <v>196.3625145889914</v>
+        <v>196.3625145889915</v>
       </c>
       <c r="M45" t="n">
-        <v>714.403248547088</v>
+        <v>454.998590806118</v>
       </c>
       <c r="N45" t="n">
-        <v>378.0808612824588</v>
+        <v>749.1770468512588</v>
       </c>
       <c r="O45" t="n">
-        <v>618.2640905645919</v>
+        <v>224.4017712878625</v>
       </c>
       <c r="P45" t="n">
-        <v>479.0366239673839</v>
+        <v>160.5738553274468</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.91593914923681</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>127.9737253565559</v>
+        <v>127.973725356556</v>
       </c>
       <c r="L46" t="n">
         <v>219.8496163246045</v>
       </c>
       <c r="M46" t="n">
-        <v>242.2946589553298</v>
+        <v>242.2946589553299</v>
       </c>
       <c r="N46" t="n">
-        <v>242.0229450577884</v>
+        <v>242.0229450577885</v>
       </c>
       <c r="O46" t="n">
-        <v>207.3692860323933</v>
+        <v>207.3692860323934</v>
       </c>
       <c r="P46" t="n">
-        <v>153.6819834742178</v>
+        <v>153.6819834742179</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.12358065029655</v>
+        <v>22.12358065029657</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
